--- a/Frequencia/MAF105_Tarde.xlsx
+++ b/Frequencia/MAF105_Tarde.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="112">
   <si>
     <t>Nome do Aluno</t>
   </si>
@@ -466,7 +466,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -511,6 +511,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -902,8 +908,8 @@
   <dimension ref="A1:AR51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K52" sqref="K52"/>
+      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="N52" sqref="N52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.25" x14ac:dyDescent="0.25"/>
@@ -913,7 +919,9 @@
     <col min="3" max="3" width="11.85546875" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="8" width="20.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="39" width="20.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="20.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="39" width="20.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="9.140625" style="1"/>
@@ -965,7 +973,7 @@
         <f t="shared" si="1"/>
         <v>43347</v>
       </c>
-      <c r="M1" s="3">
+      <c r="M1" s="16">
         <f t="shared" si="1"/>
         <v>43349</v>
       </c>
@@ -1115,9 +1123,13 @@
       <c r="K2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
+      <c r="L2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="17"/>
+      <c r="N2" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="O2" s="6"/>
       <c r="P2" s="6"/>
       <c r="Q2" s="6"/>
@@ -1145,11 +1157,11 @@
       <c r="AM2" s="6"/>
       <c r="AN2" s="6">
         <f>2*COUNTIF(D2:AM2,"="&amp;$AQ$2)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AO2" s="6">
         <f>2*COUNTIF(D2:AM2,"="&amp;$AR$2)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AQ2" s="1" t="s">
         <v>3</v>
@@ -1190,9 +1202,13 @@
       <c r="K3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
+      <c r="L3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="M3" s="17"/>
+      <c r="N3" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
       <c r="Q3" s="6"/>
@@ -1220,7 +1236,7 @@
       <c r="AM3" s="6"/>
       <c r="AN3" s="6">
         <f t="shared" ref="AN3:AN51" si="2">2*COUNTIF(D3:AM3,"="&amp;$AQ$2)</f>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AO3" s="6">
         <f t="shared" ref="AO3:AO51" si="3">2*COUNTIF(D3:AM3,"="&amp;$AR$2)</f>
@@ -1259,9 +1275,13 @@
       <c r="K4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
+      <c r="L4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="M4" s="17"/>
+      <c r="N4" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
       <c r="Q4" s="6"/>
@@ -1289,7 +1309,7 @@
       <c r="AM4" s="6"/>
       <c r="AN4" s="6">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AO4" s="6">
         <f t="shared" si="3"/>
@@ -1328,9 +1348,13 @@
       <c r="K5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
+      <c r="L5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="M5" s="17"/>
+      <c r="N5" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="O5" s="6"/>
       <c r="P5" s="6"/>
       <c r="Q5" s="6"/>
@@ -1358,11 +1382,11 @@
       <c r="AM5" s="6"/>
       <c r="AN5" s="6">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AO5" s="6">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:44" x14ac:dyDescent="0.25">
@@ -1397,9 +1421,13 @@
       <c r="K6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
+      <c r="L6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="M6" s="17"/>
+      <c r="N6" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
       <c r="Q6" s="6"/>
@@ -1427,11 +1455,11 @@
       <c r="AM6" s="6"/>
       <c r="AN6" s="6">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AO6" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:44" x14ac:dyDescent="0.25">
@@ -1466,9 +1494,13 @@
       <c r="K7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
+      <c r="L7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="M7" s="17"/>
+      <c r="N7" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
       <c r="Q7" s="6"/>
@@ -1500,7 +1532,7 @@
       </c>
       <c r="AO7" s="6">
         <f t="shared" si="3"/>
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:44" x14ac:dyDescent="0.25">
@@ -1535,9 +1567,13 @@
       <c r="K8" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
+      <c r="L8" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="17"/>
+      <c r="N8" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
       <c r="Q8" s="6"/>
@@ -1565,7 +1601,7 @@
       <c r="AM8" s="6"/>
       <c r="AN8" s="6">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AO8" s="6">
         <f t="shared" si="3"/>
@@ -1604,9 +1640,13 @@
       <c r="K9" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
+      <c r="L9" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="17"/>
+      <c r="N9" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
       <c r="Q9" s="6"/>
@@ -1634,11 +1674,11 @@
       <c r="AM9" s="6"/>
       <c r="AN9" s="6">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AO9" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:44" x14ac:dyDescent="0.25">
@@ -1673,9 +1713,13 @@
       <c r="K10" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
+      <c r="L10" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="17"/>
+      <c r="N10" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="O10" s="6"/>
       <c r="P10" s="6"/>
       <c r="Q10" s="6"/>
@@ -1703,11 +1747,11 @@
       <c r="AM10" s="6"/>
       <c r="AN10" s="6">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AO10" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:44" x14ac:dyDescent="0.25">
@@ -1742,9 +1786,13 @@
       <c r="K11" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
+      <c r="L11" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="M11" s="17"/>
+      <c r="N11" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
       <c r="Q11" s="6"/>
@@ -1772,7 +1820,7 @@
       <c r="AM11" s="6"/>
       <c r="AN11" s="6">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AO11" s="6">
         <f t="shared" si="3"/>
@@ -1811,9 +1859,13 @@
       <c r="K12" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
+      <c r="L12" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="17"/>
+      <c r="N12" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
       <c r="Q12" s="6"/>
@@ -1841,7 +1893,7 @@
       <c r="AM12" s="6"/>
       <c r="AN12" s="6">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AO12" s="6">
         <f t="shared" si="3"/>
@@ -1880,9 +1932,13 @@
       <c r="K13" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
+      <c r="L13" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="M13" s="17"/>
+      <c r="N13" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="O13" s="6"/>
       <c r="P13" s="6"/>
       <c r="Q13" s="6"/>
@@ -1910,7 +1966,7 @@
       <c r="AM13" s="6"/>
       <c r="AN13" s="6">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AO13" s="6">
         <f t="shared" si="3"/>
@@ -1949,9 +2005,13 @@
       <c r="K14" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
+      <c r="L14" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="17"/>
+      <c r="N14" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="O14" s="6"/>
       <c r="P14" s="6"/>
       <c r="Q14" s="6"/>
@@ -1979,7 +2039,7 @@
       <c r="AM14" s="6"/>
       <c r="AN14" s="6">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AO14" s="6">
         <f t="shared" si="3"/>
@@ -2018,9 +2078,13 @@
       <c r="K15" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
+      <c r="L15" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="M15" s="17"/>
+      <c r="N15" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="O15" s="6"/>
       <c r="P15" s="6"/>
       <c r="Q15" s="6"/>
@@ -2052,7 +2116,7 @@
       </c>
       <c r="AO15" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:44" x14ac:dyDescent="0.25">
@@ -2087,9 +2151,13 @@
       <c r="K16" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
+      <c r="L16" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="M16" s="17"/>
+      <c r="N16" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="O16" s="6"/>
       <c r="P16" s="6"/>
       <c r="Q16" s="6"/>
@@ -2117,11 +2185,11 @@
       <c r="AM16" s="6"/>
       <c r="AN16" s="6">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AO16" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:41" x14ac:dyDescent="0.25">
@@ -2156,9 +2224,13 @@
       <c r="K17" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
+      <c r="L17" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="M17" s="17"/>
+      <c r="N17" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="O17" s="6"/>
       <c r="P17" s="6"/>
       <c r="Q17" s="6"/>
@@ -2190,7 +2262,7 @@
       </c>
       <c r="AO17" s="6">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:41" x14ac:dyDescent="0.25">
@@ -2225,9 +2297,13 @@
       <c r="K18" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
+      <c r="L18" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="17"/>
+      <c r="N18" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="O18" s="6"/>
       <c r="P18" s="6"/>
       <c r="Q18" s="6"/>
@@ -2255,7 +2331,7 @@
       <c r="AM18" s="6"/>
       <c r="AN18" s="6">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AO18" s="6">
         <f t="shared" si="3"/>
@@ -2294,9 +2370,13 @@
       <c r="K19" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
+      <c r="L19" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="M19" s="17"/>
+      <c r="N19" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="O19" s="6"/>
       <c r="P19" s="6"/>
       <c r="Q19" s="6"/>
@@ -2324,11 +2404,11 @@
       <c r="AM19" s="6"/>
       <c r="AN19" s="6">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AO19" s="6">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:41" x14ac:dyDescent="0.25">
@@ -2363,9 +2443,13 @@
       <c r="K20" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
+      <c r="L20" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="17"/>
+      <c r="N20" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="O20" s="6"/>
       <c r="P20" s="6"/>
       <c r="Q20" s="6"/>
@@ -2393,7 +2477,7 @@
       <c r="AM20" s="6"/>
       <c r="AN20" s="6">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AO20" s="6">
         <f t="shared" si="3"/>
@@ -2432,9 +2516,13 @@
       <c r="K21" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
+      <c r="L21" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="17"/>
+      <c r="N21" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="O21" s="6"/>
       <c r="P21" s="6"/>
       <c r="Q21" s="6"/>
@@ -2462,7 +2550,7 @@
       <c r="AM21" s="6"/>
       <c r="AN21" s="6">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AO21" s="6">
         <f t="shared" si="3"/>
@@ -2501,9 +2589,13 @@
       <c r="K22" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
+      <c r="L22" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="M22" s="17"/>
+      <c r="N22" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="O22" s="6"/>
       <c r="P22" s="6"/>
       <c r="Q22" s="6"/>
@@ -2531,7 +2623,7 @@
       <c r="AM22" s="6"/>
       <c r="AN22" s="6">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AO22" s="6">
         <f t="shared" si="3"/>
@@ -2570,9 +2662,13 @@
       <c r="K23" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
+      <c r="L23" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="17"/>
+      <c r="N23" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="O23" s="6"/>
       <c r="P23" s="6"/>
       <c r="Q23" s="6"/>
@@ -2600,7 +2696,7 @@
       <c r="AM23" s="6"/>
       <c r="AN23" s="6">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AO23" s="6">
         <f t="shared" si="3"/>
@@ -2639,9 +2735,13 @@
       <c r="K24" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="6"/>
+      <c r="L24" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="M24" s="17"/>
+      <c r="N24" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="O24" s="6"/>
       <c r="P24" s="6"/>
       <c r="Q24" s="6"/>
@@ -2669,7 +2769,7 @@
       <c r="AM24" s="6"/>
       <c r="AN24" s="6">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AO24" s="6">
         <f t="shared" si="3"/>
@@ -2708,9 +2808,13 @@
       <c r="K25" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="6"/>
+      <c r="L25" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="M25" s="17"/>
+      <c r="N25" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="O25" s="6"/>
       <c r="P25" s="6"/>
       <c r="Q25" s="6"/>
@@ -2738,7 +2842,7 @@
       <c r="AM25" s="6"/>
       <c r="AN25" s="6">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AO25" s="6">
         <f t="shared" si="3"/>
@@ -2777,9 +2881,13 @@
       <c r="K26" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
-      <c r="N26" s="6"/>
+      <c r="L26" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="17"/>
+      <c r="N26" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="O26" s="6"/>
       <c r="P26" s="6"/>
       <c r="Q26" s="6"/>
@@ -2807,7 +2915,7 @@
       <c r="AM26" s="6"/>
       <c r="AN26" s="6">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AO26" s="6">
         <f t="shared" si="3"/>
@@ -2846,9 +2954,13 @@
       <c r="K27" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="L27" s="6"/>
-      <c r="M27" s="6"/>
-      <c r="N27" s="6"/>
+      <c r="L27" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="17"/>
+      <c r="N27" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="O27" s="6"/>
       <c r="P27" s="6"/>
       <c r="Q27" s="6"/>
@@ -2876,7 +2988,7 @@
       <c r="AM27" s="6"/>
       <c r="AN27" s="6">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AO27" s="6">
         <f t="shared" si="3"/>
@@ -2915,9 +3027,13 @@
       <c r="K28" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="L28" s="6"/>
-      <c r="M28" s="6"/>
-      <c r="N28" s="6"/>
+      <c r="L28" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="M28" s="17"/>
+      <c r="N28" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="O28" s="6"/>
       <c r="P28" s="6"/>
       <c r="Q28" s="6"/>
@@ -2945,7 +3061,7 @@
       <c r="AM28" s="6"/>
       <c r="AN28" s="6">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AO28" s="6">
         <f t="shared" si="3"/>
@@ -2984,9 +3100,13 @@
       <c r="K29" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="L29" s="6"/>
-      <c r="M29" s="6"/>
-      <c r="N29" s="6"/>
+      <c r="L29" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="M29" s="17"/>
+      <c r="N29" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="O29" s="6"/>
       <c r="P29" s="6"/>
       <c r="Q29" s="6"/>
@@ -3014,7 +3134,7 @@
       <c r="AM29" s="6"/>
       <c r="AN29" s="6">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AO29" s="6">
         <f t="shared" si="3"/>
@@ -3053,9 +3173,13 @@
       <c r="K30" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="L30" s="6"/>
-      <c r="M30" s="6"/>
-      <c r="N30" s="6"/>
+      <c r="L30" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="M30" s="17"/>
+      <c r="N30" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="O30" s="6"/>
       <c r="P30" s="6"/>
       <c r="Q30" s="6"/>
@@ -3083,7 +3207,7 @@
       <c r="AM30" s="6"/>
       <c r="AN30" s="6">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AO30" s="6">
         <f t="shared" si="3"/>
@@ -3122,9 +3246,13 @@
       <c r="K31" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="L31" s="6"/>
-      <c r="M31" s="6"/>
-      <c r="N31" s="6"/>
+      <c r="L31" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="M31" s="17"/>
+      <c r="N31" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="O31" s="6"/>
       <c r="P31" s="6"/>
       <c r="Q31" s="6"/>
@@ -3152,11 +3280,11 @@
       <c r="AM31" s="6"/>
       <c r="AN31" s="6">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AO31" s="6">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:41" x14ac:dyDescent="0.25">
@@ -3191,9 +3319,13 @@
       <c r="K32" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="L32" s="6"/>
-      <c r="M32" s="6"/>
-      <c r="N32" s="6"/>
+      <c r="L32" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="17"/>
+      <c r="N32" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="O32" s="6"/>
       <c r="P32" s="6"/>
       <c r="Q32" s="6"/>
@@ -3221,11 +3353,11 @@
       <c r="AM32" s="6"/>
       <c r="AN32" s="6">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AO32" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:41" x14ac:dyDescent="0.25">
@@ -3260,9 +3392,13 @@
       <c r="K33" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="L33" s="6"/>
-      <c r="M33" s="6"/>
-      <c r="N33" s="6"/>
+      <c r="L33" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="M33" s="17"/>
+      <c r="N33" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="O33" s="6"/>
       <c r="P33" s="6"/>
       <c r="Q33" s="6"/>
@@ -3290,11 +3426,11 @@
       <c r="AM33" s="6"/>
       <c r="AN33" s="6">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AO33" s="6">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:41" x14ac:dyDescent="0.25">
@@ -3329,9 +3465,13 @@
       <c r="K34" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="L34" s="6"/>
-      <c r="M34" s="6"/>
-      <c r="N34" s="6"/>
+      <c r="L34" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="M34" s="17"/>
+      <c r="N34" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="O34" s="6"/>
       <c r="P34" s="6"/>
       <c r="Q34" s="6"/>
@@ -3359,11 +3499,11 @@
       <c r="AM34" s="6"/>
       <c r="AN34" s="6">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AO34" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:41" x14ac:dyDescent="0.25">
@@ -3398,9 +3538,13 @@
       <c r="K35" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="L35" s="6"/>
-      <c r="M35" s="6"/>
-      <c r="N35" s="6"/>
+      <c r="L35" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="17"/>
+      <c r="N35" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="O35" s="6"/>
       <c r="P35" s="6"/>
       <c r="Q35" s="6"/>
@@ -3428,7 +3572,7 @@
       <c r="AM35" s="6"/>
       <c r="AN35" s="6">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AO35" s="6">
         <f t="shared" si="3"/>
@@ -3467,9 +3611,13 @@
       <c r="K36" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="L36" s="6"/>
-      <c r="M36" s="6"/>
-      <c r="N36" s="6"/>
+      <c r="L36" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="M36" s="17"/>
+      <c r="N36" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="O36" s="6"/>
       <c r="P36" s="6"/>
       <c r="Q36" s="6"/>
@@ -3497,7 +3645,7 @@
       <c r="AM36" s="6"/>
       <c r="AN36" s="6">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AO36" s="6">
         <f t="shared" si="3"/>
@@ -3536,9 +3684,13 @@
       <c r="K37" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="L37" s="6"/>
-      <c r="M37" s="6"/>
-      <c r="N37" s="6"/>
+      <c r="L37" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="M37" s="17"/>
+      <c r="N37" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="O37" s="6"/>
       <c r="P37" s="6"/>
       <c r="Q37" s="6"/>
@@ -3566,7 +3718,7 @@
       <c r="AM37" s="6"/>
       <c r="AN37" s="6">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AO37" s="6">
         <f t="shared" si="3"/>
@@ -3605,9 +3757,13 @@
       <c r="K38" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="L38" s="6"/>
-      <c r="M38" s="6"/>
-      <c r="N38" s="6"/>
+      <c r="L38" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" s="17"/>
+      <c r="N38" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="O38" s="6"/>
       <c r="P38" s="6"/>
       <c r="Q38" s="6"/>
@@ -3635,7 +3791,7 @@
       <c r="AM38" s="6"/>
       <c r="AN38" s="6">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AO38" s="6">
         <f t="shared" si="3"/>
@@ -3674,9 +3830,13 @@
       <c r="K39" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="L39" s="6"/>
-      <c r="M39" s="6"/>
-      <c r="N39" s="6"/>
+      <c r="L39" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="M39" s="17"/>
+      <c r="N39" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="O39" s="6"/>
       <c r="P39" s="6"/>
       <c r="Q39" s="6"/>
@@ -3704,11 +3864,11 @@
       <c r="AM39" s="6"/>
       <c r="AN39" s="6">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AO39" s="6">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:41" x14ac:dyDescent="0.25">
@@ -3743,9 +3903,13 @@
       <c r="K40" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="L40" s="6"/>
-      <c r="M40" s="6"/>
-      <c r="N40" s="6"/>
+      <c r="L40" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="M40" s="17"/>
+      <c r="N40" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="O40" s="6"/>
       <c r="P40" s="6"/>
       <c r="Q40" s="6"/>
@@ -3773,11 +3937,11 @@
       <c r="AM40" s="6"/>
       <c r="AN40" s="6">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AO40" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:41" x14ac:dyDescent="0.25">
@@ -3812,9 +3976,13 @@
       <c r="K41" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="L41" s="6"/>
-      <c r="M41" s="6"/>
-      <c r="N41" s="6"/>
+      <c r="L41" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="17"/>
+      <c r="N41" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="O41" s="6"/>
       <c r="P41" s="6"/>
       <c r="Q41" s="6"/>
@@ -3842,7 +4010,7 @@
       <c r="AM41" s="6"/>
       <c r="AN41" s="6">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AO41" s="6">
         <f t="shared" si="3"/>
@@ -3881,9 +4049,13 @@
       <c r="K42" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="L42" s="6"/>
-      <c r="M42" s="6"/>
-      <c r="N42" s="6"/>
+      <c r="L42" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="M42" s="17"/>
+      <c r="N42" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="O42" s="6"/>
       <c r="P42" s="6"/>
       <c r="Q42" s="6"/>
@@ -3911,7 +4083,7 @@
       <c r="AM42" s="6"/>
       <c r="AN42" s="6">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AO42" s="6">
         <f t="shared" si="3"/>
@@ -3950,9 +4122,13 @@
       <c r="K43" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="L43" s="6"/>
-      <c r="M43" s="6"/>
-      <c r="N43" s="6"/>
+      <c r="L43" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="M43" s="17"/>
+      <c r="N43" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="O43" s="6"/>
       <c r="P43" s="6"/>
       <c r="Q43" s="6"/>
@@ -3980,7 +4156,7 @@
       <c r="AM43" s="6"/>
       <c r="AN43" s="6">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AO43" s="6">
         <f t="shared" si="3"/>
@@ -4019,9 +4195,13 @@
       <c r="K44" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="L44" s="6"/>
-      <c r="M44" s="6"/>
-      <c r="N44" s="6"/>
+      <c r="L44" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="M44" s="17"/>
+      <c r="N44" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="O44" s="6"/>
       <c r="P44" s="6"/>
       <c r="Q44" s="6"/>
@@ -4049,7 +4229,7 @@
       <c r="AM44" s="6"/>
       <c r="AN44" s="6">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AO44" s="6">
         <f t="shared" si="3"/>
@@ -4088,9 +4268,13 @@
       <c r="K45" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="L45" s="6"/>
-      <c r="M45" s="6"/>
-      <c r="N45" s="6"/>
+      <c r="L45" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="17"/>
+      <c r="N45" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="O45" s="6"/>
       <c r="P45" s="6"/>
       <c r="Q45" s="6"/>
@@ -4118,7 +4302,7 @@
       <c r="AM45" s="6"/>
       <c r="AN45" s="6">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AO45" s="6">
         <f t="shared" si="3"/>
@@ -4157,9 +4341,13 @@
       <c r="K46" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="L46" s="6"/>
-      <c r="M46" s="6"/>
-      <c r="N46" s="6"/>
+      <c r="L46" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="17"/>
+      <c r="N46" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="O46" s="6"/>
       <c r="P46" s="6"/>
       <c r="Q46" s="6"/>
@@ -4187,11 +4375,11 @@
       <c r="AM46" s="6"/>
       <c r="AN46" s="6">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AO46" s="6">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:41" x14ac:dyDescent="0.25">
@@ -4226,9 +4414,13 @@
       <c r="K47" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="L47" s="6"/>
-      <c r="M47" s="6"/>
-      <c r="N47" s="6"/>
+      <c r="L47" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="M47" s="17"/>
+      <c r="N47" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="O47" s="6"/>
       <c r="P47" s="6"/>
       <c r="Q47" s="6"/>
@@ -4256,7 +4448,7 @@
       <c r="AM47" s="6"/>
       <c r="AN47" s="6">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AO47" s="6">
         <f t="shared" si="3"/>
@@ -4295,9 +4487,13 @@
       <c r="K48" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="L48" s="6"/>
-      <c r="M48" s="6"/>
-      <c r="N48" s="6"/>
+      <c r="L48" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="M48" s="17"/>
+      <c r="N48" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="O48" s="6"/>
       <c r="P48" s="6"/>
       <c r="Q48" s="6"/>
@@ -4325,7 +4521,7 @@
       <c r="AM48" s="6"/>
       <c r="AN48" s="6">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AO48" s="6">
         <f t="shared" si="3"/>
@@ -4364,9 +4560,13 @@
       <c r="K49" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="L49" s="6"/>
-      <c r="M49" s="6"/>
-      <c r="N49" s="6"/>
+      <c r="L49" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="M49" s="17"/>
+      <c r="N49" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="O49" s="6"/>
       <c r="P49" s="6"/>
       <c r="Q49" s="6"/>
@@ -4394,7 +4594,7 @@
       <c r="AM49" s="6"/>
       <c r="AN49" s="6">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AO49" s="6">
         <f t="shared" si="3"/>
@@ -4433,9 +4633,13 @@
       <c r="K50" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="L50" s="6"/>
-      <c r="M50" s="6"/>
-      <c r="N50" s="6"/>
+      <c r="L50" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="M50" s="17"/>
+      <c r="N50" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="O50" s="6"/>
       <c r="P50" s="6"/>
       <c r="Q50" s="6"/>
@@ -4463,7 +4667,7 @@
       <c r="AM50" s="6"/>
       <c r="AN50" s="6">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AO50" s="6">
         <f t="shared" si="3"/>
@@ -4502,9 +4706,13 @@
       <c r="K51" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="L51" s="6"/>
-      <c r="M51" s="6"/>
-      <c r="N51" s="6"/>
+      <c r="L51" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="M51" s="17"/>
+      <c r="N51" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="O51" s="6"/>
       <c r="P51" s="6"/>
       <c r="Q51" s="6"/>
@@ -4532,7 +4740,7 @@
       <c r="AM51" s="6"/>
       <c r="AN51" s="6">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AO51" s="6">
         <f t="shared" si="3"/>

--- a/Frequencia/MAF105_Tarde.xlsx
+++ b/Frequencia/MAF105_Tarde.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="112">
   <si>
     <t>Nome do Aluno</t>
   </si>
@@ -510,13 +510,13 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -907,9 +907,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N52" sqref="N52"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="R1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.25" x14ac:dyDescent="0.25"/>
@@ -973,7 +973,7 @@
         <f t="shared" si="1"/>
         <v>43347</v>
       </c>
-      <c r="M1" s="16">
+      <c r="M1" s="15">
         <f t="shared" si="1"/>
         <v>43349</v>
       </c>
@@ -1086,10 +1086,10 @@
       <c r="AO1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="AQ1" s="15" t="s">
+      <c r="AQ1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="AR1" s="15"/>
+      <c r="AR1" s="17"/>
     </row>
     <row r="2" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -1126,16 +1126,20 @@
       <c r="L2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="17"/>
+      <c r="M2" s="16"/>
       <c r="N2" s="6" t="s">
         <v>3</v>
       </c>
       <c r="O2" s="6"/>
       <c r="P2" s="6"/>
       <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
+      <c r="R2" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
+      <c r="T2" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="U2" s="6"/>
       <c r="V2" s="6"/>
       <c r="W2" s="6"/>
@@ -1157,7 +1161,7 @@
       <c r="AM2" s="6"/>
       <c r="AN2" s="6">
         <f>2*COUNTIF(D2:AM2,"="&amp;$AQ$2)</f>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AO2" s="6">
         <f>2*COUNTIF(D2:AM2,"="&amp;$AR$2)</f>
@@ -1205,16 +1209,20 @@
       <c r="L3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="17"/>
+      <c r="M3" s="16"/>
       <c r="N3" s="6" t="s">
         <v>3</v>
       </c>
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
       <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
+      <c r="R3" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
+      <c r="T3" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="U3" s="6"/>
       <c r="V3" s="6"/>
       <c r="W3" s="6"/>
@@ -1236,7 +1244,7 @@
       <c r="AM3" s="6"/>
       <c r="AN3" s="6">
         <f t="shared" ref="AN3:AN51" si="2">2*COUNTIF(D3:AM3,"="&amp;$AQ$2)</f>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AO3" s="6">
         <f t="shared" ref="AO3:AO51" si="3">2*COUNTIF(D3:AM3,"="&amp;$AR$2)</f>
@@ -1278,16 +1286,20 @@
       <c r="L4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="M4" s="17"/>
+      <c r="M4" s="16"/>
       <c r="N4" s="6" t="s">
         <v>3</v>
       </c>
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
       <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
+      <c r="R4" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
+      <c r="T4" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="U4" s="6"/>
       <c r="V4" s="6"/>
       <c r="W4" s="6"/>
@@ -1309,11 +1321,11 @@
       <c r="AM4" s="6"/>
       <c r="AN4" s="6">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AO4" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:44" x14ac:dyDescent="0.25">
@@ -1351,16 +1363,20 @@
       <c r="L5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="M5" s="17"/>
+      <c r="M5" s="16"/>
       <c r="N5" s="6" t="s">
         <v>4</v>
       </c>
       <c r="O5" s="6"/>
       <c r="P5" s="6"/>
       <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
+      <c r="R5" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
+      <c r="T5" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="U5" s="6"/>
       <c r="V5" s="6"/>
       <c r="W5" s="6"/>
@@ -1382,7 +1398,7 @@
       <c r="AM5" s="6"/>
       <c r="AN5" s="6">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AO5" s="6">
         <f t="shared" si="3"/>
@@ -1424,16 +1440,20 @@
       <c r="L6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="M6" s="17"/>
+      <c r="M6" s="16"/>
       <c r="N6" s="6" t="s">
         <v>4</v>
       </c>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
       <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
+      <c r="R6" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
+      <c r="T6" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="U6" s="6"/>
       <c r="V6" s="6"/>
       <c r="W6" s="6"/>
@@ -1455,7 +1475,7 @@
       <c r="AM6" s="6"/>
       <c r="AN6" s="6">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AO6" s="6">
         <f t="shared" si="3"/>
@@ -1497,16 +1517,20 @@
       <c r="L7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="M7" s="17"/>
+      <c r="M7" s="16"/>
       <c r="N7" s="6" t="s">
         <v>4</v>
       </c>
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
       <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
+      <c r="R7" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
+      <c r="T7" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="U7" s="6"/>
       <c r="V7" s="6"/>
       <c r="W7" s="6"/>
@@ -1532,7 +1556,7 @@
       </c>
       <c r="AO7" s="6">
         <f t="shared" si="3"/>
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:44" x14ac:dyDescent="0.25">
@@ -1570,16 +1594,20 @@
       <c r="L8" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="M8" s="17"/>
+      <c r="M8" s="16"/>
       <c r="N8" s="6" t="s">
         <v>3</v>
       </c>
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
       <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
+      <c r="R8" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
+      <c r="T8" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="U8" s="6"/>
       <c r="V8" s="6"/>
       <c r="W8" s="6"/>
@@ -1601,7 +1629,7 @@
       <c r="AM8" s="6"/>
       <c r="AN8" s="6">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AO8" s="6">
         <f t="shared" si="3"/>
@@ -1643,16 +1671,20 @@
       <c r="L9" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="M9" s="17"/>
+      <c r="M9" s="16"/>
       <c r="N9" s="6" t="s">
         <v>4</v>
       </c>
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
       <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
+      <c r="R9" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
+      <c r="T9" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="U9" s="6"/>
       <c r="V9" s="6"/>
       <c r="W9" s="6"/>
@@ -1674,7 +1706,7 @@
       <c r="AM9" s="6"/>
       <c r="AN9" s="6">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AO9" s="6">
         <f t="shared" si="3"/>
@@ -1716,16 +1748,20 @@
       <c r="L10" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="M10" s="17"/>
+      <c r="M10" s="16"/>
       <c r="N10" s="6" t="s">
         <v>4</v>
       </c>
       <c r="O10" s="6"/>
       <c r="P10" s="6"/>
       <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
+      <c r="R10" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="S10" s="6"/>
-      <c r="T10" s="6"/>
+      <c r="T10" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="U10" s="6"/>
       <c r="V10" s="6"/>
       <c r="W10" s="6"/>
@@ -1747,7 +1783,7 @@
       <c r="AM10" s="6"/>
       <c r="AN10" s="6">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AO10" s="6">
         <f t="shared" si="3"/>
@@ -1789,16 +1825,20 @@
       <c r="L11" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="M11" s="17"/>
+      <c r="M11" s="16"/>
       <c r="N11" s="6" t="s">
         <v>3</v>
       </c>
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
       <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
+      <c r="R11" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="S11" s="6"/>
-      <c r="T11" s="6"/>
+      <c r="T11" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="U11" s="6"/>
       <c r="V11" s="6"/>
       <c r="W11" s="6"/>
@@ -1820,7 +1860,7 @@
       <c r="AM11" s="6"/>
       <c r="AN11" s="6">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AO11" s="6">
         <f t="shared" si="3"/>
@@ -1862,16 +1902,20 @@
       <c r="L12" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="M12" s="17"/>
+      <c r="M12" s="16"/>
       <c r="N12" s="6" t="s">
         <v>3</v>
       </c>
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
       <c r="Q12" s="6"/>
-      <c r="R12" s="6"/>
+      <c r="R12" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="S12" s="6"/>
-      <c r="T12" s="6"/>
+      <c r="T12" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="U12" s="6"/>
       <c r="V12" s="6"/>
       <c r="W12" s="6"/>
@@ -1893,7 +1937,7 @@
       <c r="AM12" s="6"/>
       <c r="AN12" s="6">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AO12" s="6">
         <f t="shared" si="3"/>
@@ -1935,16 +1979,20 @@
       <c r="L13" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="M13" s="17"/>
+      <c r="M13" s="16"/>
       <c r="N13" s="6" t="s">
         <v>3</v>
       </c>
       <c r="O13" s="6"/>
       <c r="P13" s="6"/>
       <c r="Q13" s="6"/>
-      <c r="R13" s="6"/>
+      <c r="R13" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="S13" s="6"/>
-      <c r="T13" s="6"/>
+      <c r="T13" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="U13" s="6"/>
       <c r="V13" s="6"/>
       <c r="W13" s="6"/>
@@ -1966,7 +2014,7 @@
       <c r="AM13" s="6"/>
       <c r="AN13" s="6">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AO13" s="6">
         <f t="shared" si="3"/>
@@ -2008,16 +2056,20 @@
       <c r="L14" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="M14" s="17"/>
+      <c r="M14" s="16"/>
       <c r="N14" s="6" t="s">
         <v>3</v>
       </c>
       <c r="O14" s="6"/>
       <c r="P14" s="6"/>
       <c r="Q14" s="6"/>
-      <c r="R14" s="6"/>
+      <c r="R14" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="S14" s="6"/>
-      <c r="T14" s="6"/>
+      <c r="T14" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="U14" s="6"/>
       <c r="V14" s="6"/>
       <c r="W14" s="6"/>
@@ -2039,7 +2091,7 @@
       <c r="AM14" s="6"/>
       <c r="AN14" s="6">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AO14" s="6">
         <f t="shared" si="3"/>
@@ -2081,16 +2133,20 @@
       <c r="L15" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="M15" s="17"/>
+      <c r="M15" s="16"/>
       <c r="N15" s="6" t="s">
         <v>4</v>
       </c>
       <c r="O15" s="6"/>
       <c r="P15" s="6"/>
       <c r="Q15" s="6"/>
-      <c r="R15" s="6"/>
+      <c r="R15" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="S15" s="6"/>
-      <c r="T15" s="6"/>
+      <c r="T15" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="U15" s="6"/>
       <c r="V15" s="6"/>
       <c r="W15" s="6"/>
@@ -2112,7 +2168,7 @@
       <c r="AM15" s="6"/>
       <c r="AN15" s="6">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AO15" s="6">
         <f t="shared" si="3"/>
@@ -2154,16 +2210,20 @@
       <c r="L16" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="M16" s="17"/>
+      <c r="M16" s="16"/>
       <c r="N16" s="6" t="s">
         <v>4</v>
       </c>
       <c r="O16" s="6"/>
       <c r="P16" s="6"/>
       <c r="Q16" s="6"/>
-      <c r="R16" s="6"/>
+      <c r="R16" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="S16" s="6"/>
-      <c r="T16" s="6"/>
+      <c r="T16" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="U16" s="6"/>
       <c r="V16" s="6"/>
       <c r="W16" s="6"/>
@@ -2185,7 +2245,7 @@
       <c r="AM16" s="6"/>
       <c r="AN16" s="6">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AO16" s="6">
         <f t="shared" si="3"/>
@@ -2227,16 +2287,20 @@
       <c r="L17" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="M17" s="17"/>
+      <c r="M17" s="16"/>
       <c r="N17" s="6" t="s">
         <v>4</v>
       </c>
       <c r="O17" s="6"/>
       <c r="P17" s="6"/>
       <c r="Q17" s="6"/>
-      <c r="R17" s="6"/>
+      <c r="R17" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="S17" s="6"/>
-      <c r="T17" s="6"/>
+      <c r="T17" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="U17" s="6"/>
       <c r="V17" s="6"/>
       <c r="W17" s="6"/>
@@ -2262,7 +2326,7 @@
       </c>
       <c r="AO17" s="6">
         <f t="shared" si="3"/>
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:41" x14ac:dyDescent="0.25">
@@ -2300,16 +2364,20 @@
       <c r="L18" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="M18" s="17"/>
+      <c r="M18" s="16"/>
       <c r="N18" s="6" t="s">
         <v>3</v>
       </c>
       <c r="O18" s="6"/>
       <c r="P18" s="6"/>
       <c r="Q18" s="6"/>
-      <c r="R18" s="6"/>
+      <c r="R18" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="S18" s="6"/>
-      <c r="T18" s="6"/>
+      <c r="T18" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="U18" s="6"/>
       <c r="V18" s="6"/>
       <c r="W18" s="6"/>
@@ -2335,7 +2403,7 @@
       </c>
       <c r="AO18" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:41" x14ac:dyDescent="0.25">
@@ -2373,16 +2441,20 @@
       <c r="L19" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="M19" s="17"/>
+      <c r="M19" s="16"/>
       <c r="N19" s="6" t="s">
         <v>4</v>
       </c>
       <c r="O19" s="6"/>
       <c r="P19" s="6"/>
       <c r="Q19" s="6"/>
-      <c r="R19" s="6"/>
+      <c r="R19" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="S19" s="6"/>
-      <c r="T19" s="6"/>
+      <c r="T19" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="U19" s="6"/>
       <c r="V19" s="6"/>
       <c r="W19" s="6"/>
@@ -2408,7 +2480,7 @@
       </c>
       <c r="AO19" s="6">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:41" x14ac:dyDescent="0.25">
@@ -2446,16 +2518,20 @@
       <c r="L20" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="M20" s="17"/>
+      <c r="M20" s="16"/>
       <c r="N20" s="6" t="s">
         <v>3</v>
       </c>
       <c r="O20" s="6"/>
       <c r="P20" s="6"/>
       <c r="Q20" s="6"/>
-      <c r="R20" s="6"/>
+      <c r="R20" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="S20" s="6"/>
-      <c r="T20" s="6"/>
+      <c r="T20" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="U20" s="6"/>
       <c r="V20" s="6"/>
       <c r="W20" s="6"/>
@@ -2477,11 +2553,11 @@
       <c r="AM20" s="6"/>
       <c r="AN20" s="6">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AO20" s="6">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:41" x14ac:dyDescent="0.25">
@@ -2519,16 +2595,20 @@
       <c r="L21" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="M21" s="17"/>
+      <c r="M21" s="16"/>
       <c r="N21" s="6" t="s">
         <v>3</v>
       </c>
       <c r="O21" s="6"/>
       <c r="P21" s="6"/>
       <c r="Q21" s="6"/>
-      <c r="R21" s="6"/>
+      <c r="R21" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="S21" s="6"/>
-      <c r="T21" s="6"/>
+      <c r="T21" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="U21" s="6"/>
       <c r="V21" s="6"/>
       <c r="W21" s="6"/>
@@ -2550,7 +2630,7 @@
       <c r="AM21" s="6"/>
       <c r="AN21" s="6">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AO21" s="6">
         <f t="shared" si="3"/>
@@ -2592,16 +2672,20 @@
       <c r="L22" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="M22" s="17"/>
+      <c r="M22" s="16"/>
       <c r="N22" s="6" t="s">
         <v>3</v>
       </c>
       <c r="O22" s="6"/>
       <c r="P22" s="6"/>
       <c r="Q22" s="6"/>
-      <c r="R22" s="6"/>
+      <c r="R22" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="S22" s="6"/>
-      <c r="T22" s="6"/>
+      <c r="T22" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="U22" s="6"/>
       <c r="V22" s="6"/>
       <c r="W22" s="6"/>
@@ -2623,7 +2707,7 @@
       <c r="AM22" s="6"/>
       <c r="AN22" s="6">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AO22" s="6">
         <f t="shared" si="3"/>
@@ -2665,16 +2749,20 @@
       <c r="L23" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="M23" s="17"/>
+      <c r="M23" s="16"/>
       <c r="N23" s="6" t="s">
         <v>3</v>
       </c>
       <c r="O23" s="6"/>
       <c r="P23" s="6"/>
       <c r="Q23" s="6"/>
-      <c r="R23" s="6"/>
+      <c r="R23" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="S23" s="6"/>
-      <c r="T23" s="6"/>
+      <c r="T23" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="U23" s="6"/>
       <c r="V23" s="6"/>
       <c r="W23" s="6"/>
@@ -2696,7 +2784,7 @@
       <c r="AM23" s="6"/>
       <c r="AN23" s="6">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AO23" s="6">
         <f t="shared" si="3"/>
@@ -2738,16 +2826,20 @@
       <c r="L24" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="M24" s="17"/>
+      <c r="M24" s="16"/>
       <c r="N24" s="6" t="s">
         <v>3</v>
       </c>
       <c r="O24" s="6"/>
       <c r="P24" s="6"/>
       <c r="Q24" s="6"/>
-      <c r="R24" s="6"/>
+      <c r="R24" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="S24" s="6"/>
-      <c r="T24" s="6"/>
+      <c r="T24" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="U24" s="6"/>
       <c r="V24" s="6"/>
       <c r="W24" s="6"/>
@@ -2769,7 +2861,7 @@
       <c r="AM24" s="6"/>
       <c r="AN24" s="6">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AO24" s="6">
         <f t="shared" si="3"/>
@@ -2811,16 +2903,20 @@
       <c r="L25" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="M25" s="17"/>
+      <c r="M25" s="16"/>
       <c r="N25" s="6" t="s">
         <v>3</v>
       </c>
       <c r="O25" s="6"/>
       <c r="P25" s="6"/>
       <c r="Q25" s="6"/>
-      <c r="R25" s="6"/>
+      <c r="R25" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="S25" s="6"/>
-      <c r="T25" s="6"/>
+      <c r="T25" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="U25" s="6"/>
       <c r="V25" s="6"/>
       <c r="W25" s="6"/>
@@ -2842,11 +2938,11 @@
       <c r="AM25" s="6"/>
       <c r="AN25" s="6">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AO25" s="6">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:41" x14ac:dyDescent="0.25">
@@ -2884,16 +2980,20 @@
       <c r="L26" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="M26" s="17"/>
+      <c r="M26" s="16"/>
       <c r="N26" s="6" t="s">
         <v>3</v>
       </c>
       <c r="O26" s="6"/>
       <c r="P26" s="6"/>
       <c r="Q26" s="6"/>
-      <c r="R26" s="6"/>
+      <c r="R26" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="S26" s="6"/>
-      <c r="T26" s="6"/>
+      <c r="T26" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="U26" s="6"/>
       <c r="V26" s="6"/>
       <c r="W26" s="6"/>
@@ -2915,7 +3015,7 @@
       <c r="AM26" s="6"/>
       <c r="AN26" s="6">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AO26" s="6">
         <f t="shared" si="3"/>
@@ -2957,16 +3057,20 @@
       <c r="L27" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="M27" s="17"/>
+      <c r="M27" s="16"/>
       <c r="N27" s="6" t="s">
         <v>3</v>
       </c>
       <c r="O27" s="6"/>
       <c r="P27" s="6"/>
       <c r="Q27" s="6"/>
-      <c r="R27" s="6"/>
+      <c r="R27" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="S27" s="6"/>
-      <c r="T27" s="6"/>
+      <c r="T27" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="U27" s="6"/>
       <c r="V27" s="6"/>
       <c r="W27" s="6"/>
@@ -2988,7 +3092,7 @@
       <c r="AM27" s="6"/>
       <c r="AN27" s="6">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AO27" s="6">
         <f t="shared" si="3"/>
@@ -3030,16 +3134,20 @@
       <c r="L28" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="M28" s="17"/>
+      <c r="M28" s="16"/>
       <c r="N28" s="6" t="s">
         <v>3</v>
       </c>
       <c r="O28" s="6"/>
       <c r="P28" s="6"/>
       <c r="Q28" s="6"/>
-      <c r="R28" s="6"/>
+      <c r="R28" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="S28" s="6"/>
-      <c r="T28" s="6"/>
+      <c r="T28" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="U28" s="6"/>
       <c r="V28" s="6"/>
       <c r="W28" s="6"/>
@@ -3061,7 +3169,7 @@
       <c r="AM28" s="6"/>
       <c r="AN28" s="6">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AO28" s="6">
         <f t="shared" si="3"/>
@@ -3103,16 +3211,20 @@
       <c r="L29" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="M29" s="17"/>
+      <c r="M29" s="16"/>
       <c r="N29" s="6" t="s">
         <v>3</v>
       </c>
       <c r="O29" s="6"/>
       <c r="P29" s="6"/>
       <c r="Q29" s="6"/>
-      <c r="R29" s="6"/>
+      <c r="R29" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="S29" s="6"/>
-      <c r="T29" s="6"/>
+      <c r="T29" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="U29" s="6"/>
       <c r="V29" s="6"/>
       <c r="W29" s="6"/>
@@ -3134,7 +3246,7 @@
       <c r="AM29" s="6"/>
       <c r="AN29" s="6">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AO29" s="6">
         <f t="shared" si="3"/>
@@ -3176,16 +3288,20 @@
       <c r="L30" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="M30" s="17"/>
+      <c r="M30" s="16"/>
       <c r="N30" s="6" t="s">
         <v>3</v>
       </c>
       <c r="O30" s="6"/>
       <c r="P30" s="6"/>
       <c r="Q30" s="6"/>
-      <c r="R30" s="6"/>
+      <c r="R30" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="S30" s="6"/>
-      <c r="T30" s="6"/>
+      <c r="T30" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="U30" s="6"/>
       <c r="V30" s="6"/>
       <c r="W30" s="6"/>
@@ -3211,7 +3327,7 @@
       </c>
       <c r="AO30" s="6">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:41" x14ac:dyDescent="0.25">
@@ -3249,16 +3365,20 @@
       <c r="L31" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="M31" s="17"/>
+      <c r="M31" s="16"/>
       <c r="N31" s="6" t="s">
         <v>3</v>
       </c>
       <c r="O31" s="6"/>
       <c r="P31" s="6"/>
       <c r="Q31" s="6"/>
-      <c r="R31" s="6"/>
+      <c r="R31" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="S31" s="6"/>
-      <c r="T31" s="6"/>
+      <c r="T31" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="U31" s="6"/>
       <c r="V31" s="6"/>
       <c r="W31" s="6"/>
@@ -3280,11 +3400,11 @@
       <c r="AM31" s="6"/>
       <c r="AN31" s="6">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AO31" s="6">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:41" x14ac:dyDescent="0.25">
@@ -3322,16 +3442,20 @@
       <c r="L32" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="M32" s="17"/>
+      <c r="M32" s="16"/>
       <c r="N32" s="6" t="s">
         <v>4</v>
       </c>
       <c r="O32" s="6"/>
       <c r="P32" s="6"/>
       <c r="Q32" s="6"/>
-      <c r="R32" s="6"/>
+      <c r="R32" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="S32" s="6"/>
-      <c r="T32" s="6"/>
+      <c r="T32" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="U32" s="6"/>
       <c r="V32" s="6"/>
       <c r="W32" s="6"/>
@@ -3353,11 +3477,11 @@
       <c r="AM32" s="6"/>
       <c r="AN32" s="6">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AO32" s="6">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:41" x14ac:dyDescent="0.25">
@@ -3395,16 +3519,20 @@
       <c r="L33" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="M33" s="17"/>
+      <c r="M33" s="16"/>
       <c r="N33" s="6" t="s">
         <v>3</v>
       </c>
       <c r="O33" s="6"/>
       <c r="P33" s="6"/>
       <c r="Q33" s="6"/>
-      <c r="R33" s="6"/>
+      <c r="R33" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="S33" s="6"/>
-      <c r="T33" s="6"/>
+      <c r="T33" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="U33" s="6"/>
       <c r="V33" s="6"/>
       <c r="W33" s="6"/>
@@ -3426,7 +3554,7 @@
       <c r="AM33" s="6"/>
       <c r="AN33" s="6">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AO33" s="6">
         <f t="shared" si="3"/>
@@ -3468,16 +3596,20 @@
       <c r="L34" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="M34" s="17"/>
+      <c r="M34" s="16"/>
       <c r="N34" s="6" t="s">
         <v>3</v>
       </c>
       <c r="O34" s="6"/>
       <c r="P34" s="6"/>
       <c r="Q34" s="6"/>
-      <c r="R34" s="6"/>
+      <c r="R34" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="S34" s="6"/>
-      <c r="T34" s="6"/>
+      <c r="T34" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="U34" s="6"/>
       <c r="V34" s="6"/>
       <c r="W34" s="6"/>
@@ -3499,7 +3631,7 @@
       <c r="AM34" s="6"/>
       <c r="AN34" s="6">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AO34" s="6">
         <f t="shared" si="3"/>
@@ -3541,16 +3673,20 @@
       <c r="L35" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="M35" s="17"/>
+      <c r="M35" s="16"/>
       <c r="N35" s="6" t="s">
         <v>3</v>
       </c>
       <c r="O35" s="6"/>
       <c r="P35" s="6"/>
       <c r="Q35" s="6"/>
-      <c r="R35" s="6"/>
+      <c r="R35" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="S35" s="6"/>
-      <c r="T35" s="6"/>
+      <c r="T35" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="U35" s="6"/>
       <c r="V35" s="6"/>
       <c r="W35" s="6"/>
@@ -3572,11 +3708,11 @@
       <c r="AM35" s="6"/>
       <c r="AN35" s="6">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AO35" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:41" x14ac:dyDescent="0.25">
@@ -3614,16 +3750,20 @@
       <c r="L36" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="M36" s="17"/>
+      <c r="M36" s="16"/>
       <c r="N36" s="6" t="s">
         <v>3</v>
       </c>
       <c r="O36" s="6"/>
       <c r="P36" s="6"/>
       <c r="Q36" s="6"/>
-      <c r="R36" s="6"/>
+      <c r="R36" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="S36" s="6"/>
-      <c r="T36" s="6"/>
+      <c r="T36" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="U36" s="6"/>
       <c r="V36" s="6"/>
       <c r="W36" s="6"/>
@@ -3645,7 +3785,7 @@
       <c r="AM36" s="6"/>
       <c r="AN36" s="6">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AO36" s="6">
         <f t="shared" si="3"/>
@@ -3687,16 +3827,20 @@
       <c r="L37" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="M37" s="17"/>
+      <c r="M37" s="16"/>
       <c r="N37" s="6" t="s">
         <v>3</v>
       </c>
       <c r="O37" s="6"/>
       <c r="P37" s="6"/>
       <c r="Q37" s="6"/>
-      <c r="R37" s="6"/>
+      <c r="R37" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="S37" s="6"/>
-      <c r="T37" s="6"/>
+      <c r="T37" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="U37" s="6"/>
       <c r="V37" s="6"/>
       <c r="W37" s="6"/>
@@ -3718,7 +3862,7 @@
       <c r="AM37" s="6"/>
       <c r="AN37" s="6">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AO37" s="6">
         <f t="shared" si="3"/>
@@ -3760,16 +3904,20 @@
       <c r="L38" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="M38" s="17"/>
+      <c r="M38" s="16"/>
       <c r="N38" s="6" t="s">
         <v>3</v>
       </c>
       <c r="O38" s="6"/>
       <c r="P38" s="6"/>
       <c r="Q38" s="6"/>
-      <c r="R38" s="6"/>
+      <c r="R38" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="S38" s="6"/>
-      <c r="T38" s="6"/>
+      <c r="T38" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="U38" s="6"/>
       <c r="V38" s="6"/>
       <c r="W38" s="6"/>
@@ -3791,7 +3939,7 @@
       <c r="AM38" s="6"/>
       <c r="AN38" s="6">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AO38" s="6">
         <f t="shared" si="3"/>
@@ -3833,16 +3981,20 @@
       <c r="L39" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="M39" s="17"/>
+      <c r="M39" s="16"/>
       <c r="N39" s="6" t="s">
         <v>3</v>
       </c>
       <c r="O39" s="6"/>
       <c r="P39" s="6"/>
       <c r="Q39" s="6"/>
-      <c r="R39" s="6"/>
+      <c r="R39" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="S39" s="6"/>
-      <c r="T39" s="6"/>
+      <c r="T39" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="U39" s="6"/>
       <c r="V39" s="6"/>
       <c r="W39" s="6"/>
@@ -3864,11 +4016,11 @@
       <c r="AM39" s="6"/>
       <c r="AN39" s="6">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AO39" s="6">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:41" x14ac:dyDescent="0.25">
@@ -3906,16 +4058,20 @@
       <c r="L40" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="M40" s="17"/>
+      <c r="M40" s="16"/>
       <c r="N40" s="6" t="s">
         <v>3</v>
       </c>
       <c r="O40" s="6"/>
       <c r="P40" s="6"/>
       <c r="Q40" s="6"/>
-      <c r="R40" s="6"/>
+      <c r="R40" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="S40" s="6"/>
-      <c r="T40" s="6"/>
+      <c r="T40" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="U40" s="6"/>
       <c r="V40" s="6"/>
       <c r="W40" s="6"/>
@@ -3937,7 +4093,7 @@
       <c r="AM40" s="6"/>
       <c r="AN40" s="6">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AO40" s="6">
         <f t="shared" si="3"/>
@@ -3979,16 +4135,20 @@
       <c r="L41" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="M41" s="17"/>
+      <c r="M41" s="16"/>
       <c r="N41" s="6" t="s">
         <v>3</v>
       </c>
       <c r="O41" s="6"/>
       <c r="P41" s="6"/>
       <c r="Q41" s="6"/>
-      <c r="R41" s="6"/>
+      <c r="R41" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="S41" s="6"/>
-      <c r="T41" s="6"/>
+      <c r="T41" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="U41" s="6"/>
       <c r="V41" s="6"/>
       <c r="W41" s="6"/>
@@ -4010,7 +4170,7 @@
       <c r="AM41" s="6"/>
       <c r="AN41" s="6">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AO41" s="6">
         <f t="shared" si="3"/>
@@ -4052,16 +4212,20 @@
       <c r="L42" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="M42" s="17"/>
+      <c r="M42" s="16"/>
       <c r="N42" s="6" t="s">
         <v>3</v>
       </c>
       <c r="O42" s="6"/>
       <c r="P42" s="6"/>
       <c r="Q42" s="6"/>
-      <c r="R42" s="6"/>
+      <c r="R42" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="S42" s="6"/>
-      <c r="T42" s="6"/>
+      <c r="T42" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="U42" s="6"/>
       <c r="V42" s="6"/>
       <c r="W42" s="6"/>
@@ -4083,7 +4247,7 @@
       <c r="AM42" s="6"/>
       <c r="AN42" s="6">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AO42" s="6">
         <f t="shared" si="3"/>
@@ -4125,16 +4289,20 @@
       <c r="L43" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="M43" s="17"/>
+      <c r="M43" s="16"/>
       <c r="N43" s="6" t="s">
         <v>3</v>
       </c>
       <c r="O43" s="6"/>
       <c r="P43" s="6"/>
       <c r="Q43" s="6"/>
-      <c r="R43" s="6"/>
+      <c r="R43" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="S43" s="6"/>
-      <c r="T43" s="6"/>
+      <c r="T43" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="U43" s="6"/>
       <c r="V43" s="6"/>
       <c r="W43" s="6"/>
@@ -4156,7 +4324,7 @@
       <c r="AM43" s="6"/>
       <c r="AN43" s="6">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AO43" s="6">
         <f t="shared" si="3"/>
@@ -4198,16 +4366,20 @@
       <c r="L44" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="M44" s="17"/>
+      <c r="M44" s="16"/>
       <c r="N44" s="6" t="s">
         <v>3</v>
       </c>
       <c r="O44" s="6"/>
       <c r="P44" s="6"/>
       <c r="Q44" s="6"/>
-      <c r="R44" s="6"/>
+      <c r="R44" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="S44" s="6"/>
-      <c r="T44" s="6"/>
+      <c r="T44" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="U44" s="6"/>
       <c r="V44" s="6"/>
       <c r="W44" s="6"/>
@@ -4229,7 +4401,7 @@
       <c r="AM44" s="6"/>
       <c r="AN44" s="6">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AO44" s="6">
         <f t="shared" si="3"/>
@@ -4271,16 +4443,20 @@
       <c r="L45" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="M45" s="17"/>
+      <c r="M45" s="16"/>
       <c r="N45" s="6" t="s">
         <v>3</v>
       </c>
       <c r="O45" s="6"/>
       <c r="P45" s="6"/>
       <c r="Q45" s="6"/>
-      <c r="R45" s="6"/>
+      <c r="R45" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="S45" s="6"/>
-      <c r="T45" s="6"/>
+      <c r="T45" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="U45" s="6"/>
       <c r="V45" s="6"/>
       <c r="W45" s="6"/>
@@ -4302,7 +4478,7 @@
       <c r="AM45" s="6"/>
       <c r="AN45" s="6">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AO45" s="6">
         <f t="shared" si="3"/>
@@ -4344,16 +4520,20 @@
       <c r="L46" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="M46" s="17"/>
+      <c r="M46" s="16"/>
       <c r="N46" s="6" t="s">
         <v>4</v>
       </c>
       <c r="O46" s="6"/>
       <c r="P46" s="6"/>
       <c r="Q46" s="6"/>
-      <c r="R46" s="6"/>
+      <c r="R46" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="S46" s="6"/>
-      <c r="T46" s="6"/>
+      <c r="T46" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="U46" s="6"/>
       <c r="V46" s="6"/>
       <c r="W46" s="6"/>
@@ -4379,7 +4559,7 @@
       </c>
       <c r="AO46" s="6">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:41" x14ac:dyDescent="0.25">
@@ -4417,16 +4597,20 @@
       <c r="L47" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="M47" s="17"/>
+      <c r="M47" s="16"/>
       <c r="N47" s="6" t="s">
         <v>3</v>
       </c>
       <c r="O47" s="6"/>
       <c r="P47" s="6"/>
       <c r="Q47" s="6"/>
-      <c r="R47" s="6"/>
+      <c r="R47" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="S47" s="6"/>
-      <c r="T47" s="6"/>
+      <c r="T47" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="U47" s="6"/>
       <c r="V47" s="6"/>
       <c r="W47" s="6"/>
@@ -4448,7 +4632,7 @@
       <c r="AM47" s="6"/>
       <c r="AN47" s="6">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AO47" s="6">
         <f t="shared" si="3"/>
@@ -4490,16 +4674,20 @@
       <c r="L48" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="M48" s="17"/>
+      <c r="M48" s="16"/>
       <c r="N48" s="6" t="s">
         <v>3</v>
       </c>
       <c r="O48" s="6"/>
       <c r="P48" s="6"/>
       <c r="Q48" s="6"/>
-      <c r="R48" s="6"/>
+      <c r="R48" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="S48" s="6"/>
-      <c r="T48" s="6"/>
+      <c r="T48" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="U48" s="6"/>
       <c r="V48" s="6"/>
       <c r="W48" s="6"/>
@@ -4521,7 +4709,7 @@
       <c r="AM48" s="6"/>
       <c r="AN48" s="6">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AO48" s="6">
         <f t="shared" si="3"/>
@@ -4563,16 +4751,20 @@
       <c r="L49" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="M49" s="17"/>
+      <c r="M49" s="16"/>
       <c r="N49" s="6" t="s">
         <v>3</v>
       </c>
       <c r="O49" s="6"/>
       <c r="P49" s="6"/>
       <c r="Q49" s="6"/>
-      <c r="R49" s="6"/>
+      <c r="R49" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="S49" s="6"/>
-      <c r="T49" s="6"/>
+      <c r="T49" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="U49" s="6"/>
       <c r="V49" s="6"/>
       <c r="W49" s="6"/>
@@ -4594,7 +4786,7 @@
       <c r="AM49" s="6"/>
       <c r="AN49" s="6">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AO49" s="6">
         <f t="shared" si="3"/>
@@ -4636,16 +4828,20 @@
       <c r="L50" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="M50" s="17"/>
+      <c r="M50" s="16"/>
       <c r="N50" s="6" t="s">
         <v>3</v>
       </c>
       <c r="O50" s="6"/>
       <c r="P50" s="6"/>
       <c r="Q50" s="6"/>
-      <c r="R50" s="6"/>
+      <c r="R50" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="S50" s="6"/>
-      <c r="T50" s="6"/>
+      <c r="T50" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="U50" s="6"/>
       <c r="V50" s="6"/>
       <c r="W50" s="6"/>
@@ -4667,7 +4863,7 @@
       <c r="AM50" s="6"/>
       <c r="AN50" s="6">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AO50" s="6">
         <f t="shared" si="3"/>
@@ -4709,16 +4905,20 @@
       <c r="L51" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="M51" s="17"/>
+      <c r="M51" s="16"/>
       <c r="N51" s="6" t="s">
         <v>3</v>
       </c>
       <c r="O51" s="6"/>
       <c r="P51" s="6"/>
       <c r="Q51" s="6"/>
-      <c r="R51" s="6"/>
+      <c r="R51" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="S51" s="6"/>
-      <c r="T51" s="6"/>
+      <c r="T51" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="U51" s="6"/>
       <c r="V51" s="6"/>
       <c r="W51" s="6"/>
@@ -4740,7 +4940,7 @@
       <c r="AM51" s="6"/>
       <c r="AN51" s="6">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AO51" s="6">
         <f t="shared" si="3"/>

--- a/Frequencia/MAF105_Tarde.xlsx
+++ b/Frequencia/MAF105_Tarde.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="112">
   <si>
     <t>Nome do Aluno</t>
   </si>
@@ -907,9 +907,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="R1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="T3" sqref="T3"/>
+      <selection pane="topRight" activeCell="U32" sqref="U32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.25" x14ac:dyDescent="0.25"/>
@@ -1140,7 +1140,9 @@
       <c r="T2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="U2" s="6"/>
+      <c r="U2" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="V2" s="6"/>
       <c r="W2" s="6"/>
       <c r="X2" s="6"/>
@@ -1165,7 +1167,7 @@
       </c>
       <c r="AO2" s="6">
         <f>2*COUNTIF(D2:AM2,"="&amp;$AR$2)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AQ2" s="1" t="s">
         <v>3</v>
@@ -1223,7 +1225,9 @@
       <c r="T3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="U3" s="6"/>
+      <c r="U3" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="V3" s="6"/>
       <c r="W3" s="6"/>
       <c r="X3" s="6"/>
@@ -1248,7 +1252,7 @@
       </c>
       <c r="AO3" s="6">
         <f t="shared" ref="AO3:AO51" si="3">2*COUNTIF(D3:AM3,"="&amp;$AR$2)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:44" x14ac:dyDescent="0.25">
@@ -1300,7 +1304,9 @@
       <c r="T4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="U4" s="6"/>
+      <c r="U4" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="V4" s="6"/>
       <c r="W4" s="6"/>
       <c r="X4" s="6"/>
@@ -1325,7 +1331,7 @@
       </c>
       <c r="AO4" s="6">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:44" x14ac:dyDescent="0.25">
@@ -1377,7 +1383,9 @@
       <c r="T5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="U5" s="6"/>
+      <c r="U5" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="V5" s="6"/>
       <c r="W5" s="6"/>
       <c r="X5" s="6"/>
@@ -1402,7 +1410,7 @@
       </c>
       <c r="AO5" s="6">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:44" x14ac:dyDescent="0.25">
@@ -1454,7 +1462,9 @@
       <c r="T6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="U6" s="6"/>
+      <c r="U6" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="V6" s="6"/>
       <c r="W6" s="6"/>
       <c r="X6" s="6"/>
@@ -1479,7 +1489,7 @@
       </c>
       <c r="AO6" s="6">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:44" x14ac:dyDescent="0.25">
@@ -1531,7 +1541,9 @@
       <c r="T7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="U7" s="6"/>
+      <c r="U7" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="V7" s="6"/>
       <c r="W7" s="6"/>
       <c r="X7" s="6"/>
@@ -1556,7 +1568,7 @@
       </c>
       <c r="AO7" s="6">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:44" x14ac:dyDescent="0.25">
@@ -1608,7 +1620,9 @@
       <c r="T8" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="U8" s="6"/>
+      <c r="U8" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="V8" s="6"/>
       <c r="W8" s="6"/>
       <c r="X8" s="6"/>
@@ -1629,7 +1643,7 @@
       <c r="AM8" s="6"/>
       <c r="AN8" s="6">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AO8" s="6">
         <f t="shared" si="3"/>
@@ -1685,7 +1699,9 @@
       <c r="T9" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="U9" s="6"/>
+      <c r="U9" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="V9" s="6"/>
       <c r="W9" s="6"/>
       <c r="X9" s="6"/>
@@ -1710,7 +1726,7 @@
       </c>
       <c r="AO9" s="6">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:44" x14ac:dyDescent="0.25">
@@ -1762,7 +1778,9 @@
       <c r="T10" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="U10" s="6"/>
+      <c r="U10" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="V10" s="6"/>
       <c r="W10" s="6"/>
       <c r="X10" s="6"/>
@@ -1787,7 +1805,7 @@
       </c>
       <c r="AO10" s="6">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:44" x14ac:dyDescent="0.25">
@@ -1839,7 +1857,9 @@
       <c r="T11" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="U11" s="6"/>
+      <c r="U11" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="V11" s="6"/>
       <c r="W11" s="6"/>
       <c r="X11" s="6"/>
@@ -1860,7 +1880,7 @@
       <c r="AM11" s="6"/>
       <c r="AN11" s="6">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AO11" s="6">
         <f t="shared" si="3"/>
@@ -1916,7 +1936,9 @@
       <c r="T12" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="U12" s="6"/>
+      <c r="U12" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="V12" s="6"/>
       <c r="W12" s="6"/>
       <c r="X12" s="6"/>
@@ -1937,7 +1959,7 @@
       <c r="AM12" s="6"/>
       <c r="AN12" s="6">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AO12" s="6">
         <f t="shared" si="3"/>
@@ -1993,7 +2015,9 @@
       <c r="T13" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="U13" s="6"/>
+      <c r="U13" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="V13" s="6"/>
       <c r="W13" s="6"/>
       <c r="X13" s="6"/>
@@ -2014,7 +2038,7 @@
       <c r="AM13" s="6"/>
       <c r="AN13" s="6">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AO13" s="6">
         <f t="shared" si="3"/>
@@ -2070,7 +2094,9 @@
       <c r="T14" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="U14" s="6"/>
+      <c r="U14" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="V14" s="6"/>
       <c r="W14" s="6"/>
       <c r="X14" s="6"/>
@@ -2091,7 +2117,7 @@
       <c r="AM14" s="6"/>
       <c r="AN14" s="6">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AO14" s="6">
         <f t="shared" si="3"/>
@@ -2147,7 +2173,9 @@
       <c r="T15" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="U15" s="6"/>
+      <c r="U15" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="V15" s="6"/>
       <c r="W15" s="6"/>
       <c r="X15" s="6"/>
@@ -2172,7 +2200,7 @@
       </c>
       <c r="AO15" s="6">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:44" x14ac:dyDescent="0.25">
@@ -2224,7 +2252,9 @@
       <c r="T16" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="U16" s="6"/>
+      <c r="U16" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="V16" s="6"/>
       <c r="W16" s="6"/>
       <c r="X16" s="6"/>
@@ -2249,7 +2279,7 @@
       </c>
       <c r="AO16" s="6">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:41" x14ac:dyDescent="0.25">
@@ -2301,7 +2331,9 @@
       <c r="T17" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="U17" s="6"/>
+      <c r="U17" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="V17" s="6"/>
       <c r="W17" s="6"/>
       <c r="X17" s="6"/>
@@ -2326,7 +2358,7 @@
       </c>
       <c r="AO17" s="6">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:41" x14ac:dyDescent="0.25">
@@ -2378,7 +2410,9 @@
       <c r="T18" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="U18" s="6"/>
+      <c r="U18" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="V18" s="6"/>
       <c r="W18" s="6"/>
       <c r="X18" s="6"/>
@@ -2403,7 +2437,7 @@
       </c>
       <c r="AO18" s="6">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:41" x14ac:dyDescent="0.25">
@@ -2455,7 +2489,9 @@
       <c r="T19" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="U19" s="6"/>
+      <c r="U19" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="V19" s="6"/>
       <c r="W19" s="6"/>
       <c r="X19" s="6"/>
@@ -2480,7 +2516,7 @@
       </c>
       <c r="AO19" s="6">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:41" x14ac:dyDescent="0.25">
@@ -2532,7 +2568,9 @@
       <c r="T20" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="U20" s="6"/>
+      <c r="U20" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="V20" s="6"/>
       <c r="W20" s="6"/>
       <c r="X20" s="6"/>
@@ -2553,7 +2591,7 @@
       <c r="AM20" s="6"/>
       <c r="AN20" s="6">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AO20" s="6">
         <f t="shared" si="3"/>
@@ -2609,7 +2647,9 @@
       <c r="T21" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="U21" s="6"/>
+      <c r="U21" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="V21" s="6"/>
       <c r="W21" s="6"/>
       <c r="X21" s="6"/>
@@ -2634,7 +2674,7 @@
       </c>
       <c r="AO21" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:41" x14ac:dyDescent="0.25">
@@ -2686,7 +2726,9 @@
       <c r="T22" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="U22" s="6"/>
+      <c r="U22" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="V22" s="6"/>
       <c r="W22" s="6"/>
       <c r="X22" s="6"/>
@@ -2707,7 +2749,7 @@
       <c r="AM22" s="6"/>
       <c r="AN22" s="6">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AO22" s="6">
         <f t="shared" si="3"/>
@@ -2763,7 +2805,9 @@
       <c r="T23" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="U23" s="6"/>
+      <c r="U23" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="V23" s="6"/>
       <c r="W23" s="6"/>
       <c r="X23" s="6"/>
@@ -2784,7 +2828,7 @@
       <c r="AM23" s="6"/>
       <c r="AN23" s="6">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AO23" s="6">
         <f t="shared" si="3"/>
@@ -2840,7 +2884,9 @@
       <c r="T24" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="U24" s="6"/>
+      <c r="U24" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="V24" s="6"/>
       <c r="W24" s="6"/>
       <c r="X24" s="6"/>
@@ -2861,7 +2907,7 @@
       <c r="AM24" s="6"/>
       <c r="AN24" s="6">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AO24" s="6">
         <f t="shared" si="3"/>
@@ -2917,7 +2963,9 @@
       <c r="T25" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="U25" s="6"/>
+      <c r="U25" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="V25" s="6"/>
       <c r="W25" s="6"/>
       <c r="X25" s="6"/>
@@ -2942,7 +2990,7 @@
       </c>
       <c r="AO25" s="6">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:41" x14ac:dyDescent="0.25">
@@ -2994,7 +3042,9 @@
       <c r="T26" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="U26" s="6"/>
+      <c r="U26" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="V26" s="6"/>
       <c r="W26" s="6"/>
       <c r="X26" s="6"/>
@@ -3019,7 +3069,7 @@
       </c>
       <c r="AO26" s="6">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:41" x14ac:dyDescent="0.25">
@@ -3071,7 +3121,9 @@
       <c r="T27" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="U27" s="6"/>
+      <c r="U27" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="V27" s="6"/>
       <c r="W27" s="6"/>
       <c r="X27" s="6"/>
@@ -3092,7 +3144,7 @@
       <c r="AM27" s="6"/>
       <c r="AN27" s="6">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AO27" s="6">
         <f t="shared" si="3"/>
@@ -3148,7 +3200,9 @@
       <c r="T28" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="U28" s="6"/>
+      <c r="U28" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="V28" s="6"/>
       <c r="W28" s="6"/>
       <c r="X28" s="6"/>
@@ -3169,7 +3223,7 @@
       <c r="AM28" s="6"/>
       <c r="AN28" s="6">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AO28" s="6">
         <f t="shared" si="3"/>
@@ -3225,7 +3279,9 @@
       <c r="T29" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="U29" s="6"/>
+      <c r="U29" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="V29" s="6"/>
       <c r="W29" s="6"/>
       <c r="X29" s="6"/>
@@ -3250,7 +3306,7 @@
       </c>
       <c r="AO29" s="6">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:41" x14ac:dyDescent="0.25">
@@ -3302,7 +3358,9 @@
       <c r="T30" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="U30" s="6"/>
+      <c r="U30" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="V30" s="6"/>
       <c r="W30" s="6"/>
       <c r="X30" s="6"/>
@@ -3323,7 +3381,7 @@
       <c r="AM30" s="6"/>
       <c r="AN30" s="6">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AO30" s="6">
         <f t="shared" si="3"/>
@@ -3379,7 +3437,9 @@
       <c r="T31" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="U31" s="6"/>
+      <c r="U31" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="V31" s="6"/>
       <c r="W31" s="6"/>
       <c r="X31" s="6"/>
@@ -3404,7 +3464,7 @@
       </c>
       <c r="AO31" s="6">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:41" x14ac:dyDescent="0.25">
@@ -3456,7 +3516,9 @@
       <c r="T32" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="U32" s="6"/>
+      <c r="U32" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="V32" s="6"/>
       <c r="W32" s="6"/>
       <c r="X32" s="6"/>
@@ -3477,7 +3539,7 @@
       <c r="AM32" s="6"/>
       <c r="AN32" s="6">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AO32" s="6">
         <f t="shared" si="3"/>
@@ -3533,7 +3595,9 @@
       <c r="T33" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="U33" s="6"/>
+      <c r="U33" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="V33" s="6"/>
       <c r="W33" s="6"/>
       <c r="X33" s="6"/>
@@ -3558,7 +3622,7 @@
       </c>
       <c r="AO33" s="6">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:41" x14ac:dyDescent="0.25">
@@ -3610,7 +3674,9 @@
       <c r="T34" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="U34" s="6"/>
+      <c r="U34" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="V34" s="6"/>
       <c r="W34" s="6"/>
       <c r="X34" s="6"/>
@@ -3635,7 +3701,7 @@
       </c>
       <c r="AO34" s="6">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:41" x14ac:dyDescent="0.25">
@@ -3687,7 +3753,9 @@
       <c r="T35" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="U35" s="6"/>
+      <c r="U35" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="V35" s="6"/>
       <c r="W35" s="6"/>
       <c r="X35" s="6"/>
@@ -3708,7 +3776,7 @@
       <c r="AM35" s="6"/>
       <c r="AN35" s="6">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AO35" s="6">
         <f t="shared" si="3"/>
@@ -3764,7 +3832,9 @@
       <c r="T36" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="U36" s="6"/>
+      <c r="U36" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="V36" s="6"/>
       <c r="W36" s="6"/>
       <c r="X36" s="6"/>
@@ -3785,7 +3855,7 @@
       <c r="AM36" s="6"/>
       <c r="AN36" s="6">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AO36" s="6">
         <f t="shared" si="3"/>
@@ -3841,7 +3911,9 @@
       <c r="T37" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="U37" s="6"/>
+      <c r="U37" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="V37" s="6"/>
       <c r="W37" s="6"/>
       <c r="X37" s="6"/>
@@ -3866,7 +3938,7 @@
       </c>
       <c r="AO37" s="6">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:41" x14ac:dyDescent="0.25">
@@ -3918,7 +3990,9 @@
       <c r="T38" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="U38" s="6"/>
+      <c r="U38" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="V38" s="6"/>
       <c r="W38" s="6"/>
       <c r="X38" s="6"/>
@@ -3939,7 +4013,7 @@
       <c r="AM38" s="6"/>
       <c r="AN38" s="6">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AO38" s="6">
         <f t="shared" si="3"/>
@@ -3995,7 +4069,9 @@
       <c r="T39" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="U39" s="6"/>
+      <c r="U39" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="V39" s="6"/>
       <c r="W39" s="6"/>
       <c r="X39" s="6"/>
@@ -4016,7 +4092,7 @@
       <c r="AM39" s="6"/>
       <c r="AN39" s="6">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AO39" s="6">
         <f t="shared" si="3"/>
@@ -4072,7 +4148,9 @@
       <c r="T40" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="U40" s="6"/>
+      <c r="U40" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="V40" s="6"/>
       <c r="W40" s="6"/>
       <c r="X40" s="6"/>
@@ -4093,7 +4171,7 @@
       <c r="AM40" s="6"/>
       <c r="AN40" s="6">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AO40" s="6">
         <f t="shared" si="3"/>
@@ -4149,7 +4227,9 @@
       <c r="T41" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="U41" s="6"/>
+      <c r="U41" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="V41" s="6"/>
       <c r="W41" s="6"/>
       <c r="X41" s="6"/>
@@ -4170,7 +4250,7 @@
       <c r="AM41" s="6"/>
       <c r="AN41" s="6">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AO41" s="6">
         <f t="shared" si="3"/>
@@ -4226,7 +4306,9 @@
       <c r="T42" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="U42" s="6"/>
+      <c r="U42" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="V42" s="6"/>
       <c r="W42" s="6"/>
       <c r="X42" s="6"/>
@@ -4247,7 +4329,7 @@
       <c r="AM42" s="6"/>
       <c r="AN42" s="6">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AO42" s="6">
         <f t="shared" si="3"/>
@@ -4303,7 +4385,9 @@
       <c r="T43" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="U43" s="6"/>
+      <c r="U43" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="V43" s="6"/>
       <c r="W43" s="6"/>
       <c r="X43" s="6"/>
@@ -4324,7 +4408,7 @@
       <c r="AM43" s="6"/>
       <c r="AN43" s="6">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AO43" s="6">
         <f t="shared" si="3"/>
@@ -4380,7 +4464,9 @@
       <c r="T44" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="U44" s="6"/>
+      <c r="U44" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="V44" s="6"/>
       <c r="W44" s="6"/>
       <c r="X44" s="6"/>
@@ -4401,7 +4487,7 @@
       <c r="AM44" s="6"/>
       <c r="AN44" s="6">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AO44" s="6">
         <f t="shared" si="3"/>
@@ -4457,7 +4543,9 @@
       <c r="T45" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="U45" s="6"/>
+      <c r="U45" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="V45" s="6"/>
       <c r="W45" s="6"/>
       <c r="X45" s="6"/>
@@ -4482,7 +4570,7 @@
       </c>
       <c r="AO45" s="6">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:41" x14ac:dyDescent="0.25">
@@ -4534,7 +4622,9 @@
       <c r="T46" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="U46" s="6"/>
+      <c r="U46" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="V46" s="6"/>
       <c r="W46" s="6"/>
       <c r="X46" s="6"/>
@@ -4559,7 +4649,7 @@
       </c>
       <c r="AO46" s="6">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:41" x14ac:dyDescent="0.25">
@@ -4611,7 +4701,9 @@
       <c r="T47" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="U47" s="6"/>
+      <c r="U47" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="V47" s="6"/>
       <c r="W47" s="6"/>
       <c r="X47" s="6"/>
@@ -4632,7 +4724,7 @@
       <c r="AM47" s="6"/>
       <c r="AN47" s="6">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AO47" s="6">
         <f t="shared" si="3"/>
@@ -4688,7 +4780,9 @@
       <c r="T48" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="U48" s="6"/>
+      <c r="U48" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="V48" s="6"/>
       <c r="W48" s="6"/>
       <c r="X48" s="6"/>
@@ -4709,7 +4803,7 @@
       <c r="AM48" s="6"/>
       <c r="AN48" s="6">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AO48" s="6">
         <f t="shared" si="3"/>
@@ -4765,7 +4859,9 @@
       <c r="T49" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="U49" s="6"/>
+      <c r="U49" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="V49" s="6"/>
       <c r="W49" s="6"/>
       <c r="X49" s="6"/>
@@ -4786,7 +4882,7 @@
       <c r="AM49" s="6"/>
       <c r="AN49" s="6">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AO49" s="6">
         <f t="shared" si="3"/>
@@ -4842,7 +4938,9 @@
       <c r="T50" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="U50" s="6"/>
+      <c r="U50" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="V50" s="6"/>
       <c r="W50" s="6"/>
       <c r="X50" s="6"/>
@@ -4863,7 +4961,7 @@
       <c r="AM50" s="6"/>
       <c r="AN50" s="6">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AO50" s="6">
         <f t="shared" si="3"/>
@@ -4919,7 +5017,9 @@
       <c r="T51" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="U51" s="6"/>
+      <c r="U51" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="V51" s="6"/>
       <c r="W51" s="6"/>
       <c r="X51" s="6"/>
@@ -4940,7 +5040,7 @@
       <c r="AM51" s="6"/>
       <c r="AN51" s="6">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AO51" s="6">
         <f t="shared" si="3"/>

--- a/Frequencia/MAF105_Tarde.xlsx
+++ b/Frequencia/MAF105_Tarde.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="112">
   <si>
     <t>Nome do Aluno</t>
   </si>
@@ -908,8 +908,8 @@
   <dimension ref="A1:AR51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A26" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="R1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="U32" sqref="U32"/>
+      <pane xSplit="1" topLeftCell="AL1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AO29" sqref="AO29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.25" x14ac:dyDescent="0.25"/>
@@ -1147,8 +1147,12 @@
       <c r="W2" s="6"/>
       <c r="X2" s="6"/>
       <c r="Y2" s="6"/>
-      <c r="Z2" s="6"/>
-      <c r="AA2" s="6"/>
+      <c r="Z2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA2" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AB2" s="6"/>
       <c r="AC2" s="6"/>
       <c r="AD2" s="6"/>
@@ -1163,7 +1167,7 @@
       <c r="AM2" s="6"/>
       <c r="AN2" s="6">
         <f>2*COUNTIF(D2:AM2,"="&amp;$AQ$2)</f>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AO2" s="6">
         <f>2*COUNTIF(D2:AM2,"="&amp;$AR$2)</f>
@@ -1232,8 +1236,12 @@
       <c r="W3" s="6"/>
       <c r="X3" s="6"/>
       <c r="Y3" s="6"/>
-      <c r="Z3" s="6"/>
-      <c r="AA3" s="6"/>
+      <c r="Z3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA3" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="AB3" s="6"/>
       <c r="AC3" s="6"/>
       <c r="AD3" s="6"/>
@@ -1248,11 +1256,11 @@
       <c r="AM3" s="6"/>
       <c r="AN3" s="6">
         <f t="shared" ref="AN3:AN51" si="2">2*COUNTIF(D3:AM3,"="&amp;$AQ$2)</f>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AO3" s="6">
         <f t="shared" ref="AO3:AO51" si="3">2*COUNTIF(D3:AM3,"="&amp;$AR$2)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:44" x14ac:dyDescent="0.25">
@@ -1311,8 +1319,12 @@
       <c r="W4" s="6"/>
       <c r="X4" s="6"/>
       <c r="Y4" s="6"/>
-      <c r="Z4" s="6"/>
-      <c r="AA4" s="6"/>
+      <c r="Z4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA4" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="AB4" s="6"/>
       <c r="AC4" s="6"/>
       <c r="AD4" s="6"/>
@@ -1327,11 +1339,11 @@
       <c r="AM4" s="6"/>
       <c r="AN4" s="6">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AO4" s="6">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:44" x14ac:dyDescent="0.25">
@@ -1390,8 +1402,12 @@
       <c r="W5" s="6"/>
       <c r="X5" s="6"/>
       <c r="Y5" s="6"/>
-      <c r="Z5" s="6"/>
-      <c r="AA5" s="6"/>
+      <c r="Z5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA5" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AB5" s="6"/>
       <c r="AC5" s="6"/>
       <c r="AD5" s="6"/>
@@ -1406,7 +1422,7 @@
       <c r="AM5" s="6"/>
       <c r="AN5" s="6">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AO5" s="6">
         <f t="shared" si="3"/>
@@ -1469,8 +1485,12 @@
       <c r="W6" s="6"/>
       <c r="X6" s="6"/>
       <c r="Y6" s="6"/>
-      <c r="Z6" s="6"/>
-      <c r="AA6" s="6"/>
+      <c r="Z6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA6" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AB6" s="6"/>
       <c r="AC6" s="6"/>
       <c r="AD6" s="6"/>
@@ -1485,7 +1505,7 @@
       <c r="AM6" s="6"/>
       <c r="AN6" s="6">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AO6" s="6">
         <f t="shared" si="3"/>
@@ -1548,8 +1568,12 @@
       <c r="W7" s="6"/>
       <c r="X7" s="6"/>
       <c r="Y7" s="6"/>
-      <c r="Z7" s="6"/>
-      <c r="AA7" s="6"/>
+      <c r="Z7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA7" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="AB7" s="6"/>
       <c r="AC7" s="6"/>
       <c r="AD7" s="6"/>
@@ -1568,7 +1592,7 @@
       </c>
       <c r="AO7" s="6">
         <f t="shared" si="3"/>
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:44" x14ac:dyDescent="0.25">
@@ -1627,8 +1651,12 @@
       <c r="W8" s="6"/>
       <c r="X8" s="6"/>
       <c r="Y8" s="6"/>
-      <c r="Z8" s="6"/>
-      <c r="AA8" s="6"/>
+      <c r="Z8" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA8" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="AB8" s="6"/>
       <c r="AC8" s="6"/>
       <c r="AD8" s="6"/>
@@ -1647,7 +1675,7 @@
       </c>
       <c r="AO8" s="6">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:44" x14ac:dyDescent="0.25">
@@ -1706,8 +1734,12 @@
       <c r="W9" s="6"/>
       <c r="X9" s="6"/>
       <c r="Y9" s="6"/>
-      <c r="Z9" s="6"/>
-      <c r="AA9" s="6"/>
+      <c r="Z9" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA9" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AB9" s="6"/>
       <c r="AC9" s="6"/>
       <c r="AD9" s="6"/>
@@ -1722,7 +1754,7 @@
       <c r="AM9" s="6"/>
       <c r="AN9" s="6">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AO9" s="6">
         <f t="shared" si="3"/>
@@ -1785,8 +1817,12 @@
       <c r="W10" s="6"/>
       <c r="X10" s="6"/>
       <c r="Y10" s="6"/>
-      <c r="Z10" s="6"/>
-      <c r="AA10" s="6"/>
+      <c r="Z10" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA10" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AB10" s="6"/>
       <c r="AC10" s="6"/>
       <c r="AD10" s="6"/>
@@ -1801,7 +1837,7 @@
       <c r="AM10" s="6"/>
       <c r="AN10" s="6">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AO10" s="6">
         <f t="shared" si="3"/>
@@ -1864,8 +1900,12 @@
       <c r="W11" s="6"/>
       <c r="X11" s="6"/>
       <c r="Y11" s="6"/>
-      <c r="Z11" s="6"/>
-      <c r="AA11" s="6"/>
+      <c r="Z11" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA11" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AB11" s="6"/>
       <c r="AC11" s="6"/>
       <c r="AD11" s="6"/>
@@ -1880,7 +1920,7 @@
       <c r="AM11" s="6"/>
       <c r="AN11" s="6">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AO11" s="6">
         <f t="shared" si="3"/>
@@ -1943,8 +1983,12 @@
       <c r="W12" s="6"/>
       <c r="X12" s="6"/>
       <c r="Y12" s="6"/>
-      <c r="Z12" s="6"/>
-      <c r="AA12" s="6"/>
+      <c r="Z12" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA12" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AB12" s="6"/>
       <c r="AC12" s="6"/>
       <c r="AD12" s="6"/>
@@ -1959,7 +2003,7 @@
       <c r="AM12" s="6"/>
       <c r="AN12" s="6">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AO12" s="6">
         <f t="shared" si="3"/>
@@ -2022,8 +2066,12 @@
       <c r="W13" s="6"/>
       <c r="X13" s="6"/>
       <c r="Y13" s="6"/>
-      <c r="Z13" s="6"/>
-      <c r="AA13" s="6"/>
+      <c r="Z13" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA13" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AB13" s="6"/>
       <c r="AC13" s="6"/>
       <c r="AD13" s="6"/>
@@ -2038,7 +2086,7 @@
       <c r="AM13" s="6"/>
       <c r="AN13" s="6">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AO13" s="6">
         <f t="shared" si="3"/>
@@ -2101,8 +2149,12 @@
       <c r="W14" s="6"/>
       <c r="X14" s="6"/>
       <c r="Y14" s="6"/>
-      <c r="Z14" s="6"/>
-      <c r="AA14" s="6"/>
+      <c r="Z14" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA14" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AB14" s="6"/>
       <c r="AC14" s="6"/>
       <c r="AD14" s="6"/>
@@ -2117,7 +2169,7 @@
       <c r="AM14" s="6"/>
       <c r="AN14" s="6">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AO14" s="6">
         <f t="shared" si="3"/>
@@ -2180,8 +2232,12 @@
       <c r="W15" s="6"/>
       <c r="X15" s="6"/>
       <c r="Y15" s="6"/>
-      <c r="Z15" s="6"/>
-      <c r="AA15" s="6"/>
+      <c r="Z15" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA15" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AB15" s="6"/>
       <c r="AC15" s="6"/>
       <c r="AD15" s="6"/>
@@ -2196,7 +2252,7 @@
       <c r="AM15" s="6"/>
       <c r="AN15" s="6">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AO15" s="6">
         <f t="shared" si="3"/>
@@ -2259,8 +2315,12 @@
       <c r="W16" s="6"/>
       <c r="X16" s="6"/>
       <c r="Y16" s="6"/>
-      <c r="Z16" s="6"/>
-      <c r="AA16" s="6"/>
+      <c r="Z16" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA16" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="AB16" s="6"/>
       <c r="AC16" s="6"/>
       <c r="AD16" s="6"/>
@@ -2275,11 +2335,11 @@
       <c r="AM16" s="6"/>
       <c r="AN16" s="6">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AO16" s="6">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:41" x14ac:dyDescent="0.25">
@@ -2338,8 +2398,12 @@
       <c r="W17" s="6"/>
       <c r="X17" s="6"/>
       <c r="Y17" s="6"/>
-      <c r="Z17" s="6"/>
-      <c r="AA17" s="6"/>
+      <c r="Z17" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA17" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="AB17" s="6"/>
       <c r="AC17" s="6"/>
       <c r="AD17" s="6"/>
@@ -2358,7 +2422,7 @@
       </c>
       <c r="AO17" s="6">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:41" x14ac:dyDescent="0.25">
@@ -2417,8 +2481,12 @@
       <c r="W18" s="6"/>
       <c r="X18" s="6"/>
       <c r="Y18" s="6"/>
-      <c r="Z18" s="6"/>
-      <c r="AA18" s="6"/>
+      <c r="Z18" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA18" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="AB18" s="6"/>
       <c r="AC18" s="6"/>
       <c r="AD18" s="6"/>
@@ -2437,7 +2505,7 @@
       </c>
       <c r="AO18" s="6">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:41" x14ac:dyDescent="0.25">
@@ -2496,8 +2564,12 @@
       <c r="W19" s="6"/>
       <c r="X19" s="6"/>
       <c r="Y19" s="6"/>
-      <c r="Z19" s="6"/>
-      <c r="AA19" s="6"/>
+      <c r="Z19" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA19" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="AB19" s="6"/>
       <c r="AC19" s="6"/>
       <c r="AD19" s="6"/>
@@ -2516,7 +2588,7 @@
       </c>
       <c r="AO19" s="6">
         <f t="shared" si="3"/>
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:41" x14ac:dyDescent="0.25">
@@ -2575,8 +2647,12 @@
       <c r="W20" s="6"/>
       <c r="X20" s="6"/>
       <c r="Y20" s="6"/>
-      <c r="Z20" s="6"/>
-      <c r="AA20" s="6"/>
+      <c r="Z20" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA20" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="AB20" s="6"/>
       <c r="AC20" s="6"/>
       <c r="AD20" s="6"/>
@@ -2591,11 +2667,11 @@
       <c r="AM20" s="6"/>
       <c r="AN20" s="6">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AO20" s="6">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:41" x14ac:dyDescent="0.25">
@@ -2654,8 +2730,12 @@
       <c r="W21" s="6"/>
       <c r="X21" s="6"/>
       <c r="Y21" s="6"/>
-      <c r="Z21" s="6"/>
-      <c r="AA21" s="6"/>
+      <c r="Z21" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA21" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AB21" s="6"/>
       <c r="AC21" s="6"/>
       <c r="AD21" s="6"/>
@@ -2670,7 +2750,7 @@
       <c r="AM21" s="6"/>
       <c r="AN21" s="6">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AO21" s="6">
         <f t="shared" si="3"/>
@@ -2733,8 +2813,12 @@
       <c r="W22" s="6"/>
       <c r="X22" s="6"/>
       <c r="Y22" s="6"/>
-      <c r="Z22" s="6"/>
-      <c r="AA22" s="6"/>
+      <c r="Z22" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA22" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AB22" s="6"/>
       <c r="AC22" s="6"/>
       <c r="AD22" s="6"/>
@@ -2749,7 +2833,7 @@
       <c r="AM22" s="6"/>
       <c r="AN22" s="6">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AO22" s="6">
         <f t="shared" si="3"/>
@@ -2812,8 +2896,12 @@
       <c r="W23" s="6"/>
       <c r="X23" s="6"/>
       <c r="Y23" s="6"/>
-      <c r="Z23" s="6"/>
-      <c r="AA23" s="6"/>
+      <c r="Z23" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA23" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AB23" s="6"/>
       <c r="AC23" s="6"/>
       <c r="AD23" s="6"/>
@@ -2828,7 +2916,7 @@
       <c r="AM23" s="6"/>
       <c r="AN23" s="6">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AO23" s="6">
         <f t="shared" si="3"/>
@@ -2891,8 +2979,12 @@
       <c r="W24" s="6"/>
       <c r="X24" s="6"/>
       <c r="Y24" s="6"/>
-      <c r="Z24" s="6"/>
-      <c r="AA24" s="6"/>
+      <c r="Z24" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA24" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AB24" s="6"/>
       <c r="AC24" s="6"/>
       <c r="AD24" s="6"/>
@@ -2907,7 +2999,7 @@
       <c r="AM24" s="6"/>
       <c r="AN24" s="6">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AO24" s="6">
         <f t="shared" si="3"/>
@@ -2970,8 +3062,12 @@
       <c r="W25" s="6"/>
       <c r="X25" s="6"/>
       <c r="Y25" s="6"/>
-      <c r="Z25" s="6"/>
-      <c r="AA25" s="6"/>
+      <c r="Z25" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA25" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AB25" s="6"/>
       <c r="AC25" s="6"/>
       <c r="AD25" s="6"/>
@@ -2986,7 +3082,7 @@
       <c r="AM25" s="6"/>
       <c r="AN25" s="6">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AO25" s="6">
         <f t="shared" si="3"/>
@@ -3049,8 +3145,12 @@
       <c r="W26" s="6"/>
       <c r="X26" s="6"/>
       <c r="Y26" s="6"/>
-      <c r="Z26" s="6"/>
-      <c r="AA26" s="6"/>
+      <c r="Z26" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA26" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AB26" s="6"/>
       <c r="AC26" s="6"/>
       <c r="AD26" s="6"/>
@@ -3065,7 +3165,7 @@
       <c r="AM26" s="6"/>
       <c r="AN26" s="6">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AO26" s="6">
         <f t="shared" si="3"/>
@@ -3128,8 +3228,12 @@
       <c r="W27" s="6"/>
       <c r="X27" s="6"/>
       <c r="Y27" s="6"/>
-      <c r="Z27" s="6"/>
-      <c r="AA27" s="6"/>
+      <c r="Z27" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA27" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AB27" s="6"/>
       <c r="AC27" s="6"/>
       <c r="AD27" s="6"/>
@@ -3144,7 +3248,7 @@
       <c r="AM27" s="6"/>
       <c r="AN27" s="6">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AO27" s="6">
         <f t="shared" si="3"/>
@@ -3207,8 +3311,12 @@
       <c r="W28" s="6"/>
       <c r="X28" s="6"/>
       <c r="Y28" s="6"/>
-      <c r="Z28" s="6"/>
-      <c r="AA28" s="6"/>
+      <c r="Z28" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA28" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AB28" s="6"/>
       <c r="AC28" s="6"/>
       <c r="AD28" s="6"/>
@@ -3223,7 +3331,7 @@
       <c r="AM28" s="6"/>
       <c r="AN28" s="6">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AO28" s="6">
         <f t="shared" si="3"/>
@@ -3286,8 +3394,12 @@
       <c r="W29" s="6"/>
       <c r="X29" s="6"/>
       <c r="Y29" s="6"/>
-      <c r="Z29" s="6"/>
-      <c r="AA29" s="6"/>
+      <c r="Z29" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA29" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AB29" s="6"/>
       <c r="AC29" s="6"/>
       <c r="AD29" s="6"/>
@@ -3302,7 +3414,7 @@
       <c r="AM29" s="6"/>
       <c r="AN29" s="6">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AO29" s="6">
         <f t="shared" si="3"/>
@@ -3365,8 +3477,12 @@
       <c r="W30" s="6"/>
       <c r="X30" s="6"/>
       <c r="Y30" s="6"/>
-      <c r="Z30" s="6"/>
-      <c r="AA30" s="6"/>
+      <c r="Z30" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA30" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AB30" s="6"/>
       <c r="AC30" s="6"/>
       <c r="AD30" s="6"/>
@@ -3381,7 +3497,7 @@
       <c r="AM30" s="6"/>
       <c r="AN30" s="6">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AO30" s="6">
         <f t="shared" si="3"/>
@@ -3444,8 +3560,12 @@
       <c r="W31" s="6"/>
       <c r="X31" s="6"/>
       <c r="Y31" s="6"/>
-      <c r="Z31" s="6"/>
-      <c r="AA31" s="6"/>
+      <c r="Z31" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA31" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="AB31" s="6"/>
       <c r="AC31" s="6"/>
       <c r="AD31" s="6"/>
@@ -3460,11 +3580,11 @@
       <c r="AM31" s="6"/>
       <c r="AN31" s="6">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AO31" s="6">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:41" x14ac:dyDescent="0.25">
@@ -3523,8 +3643,12 @@
       <c r="W32" s="6"/>
       <c r="X32" s="6"/>
       <c r="Y32" s="6"/>
-      <c r="Z32" s="6"/>
-      <c r="AA32" s="6"/>
+      <c r="Z32" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA32" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AB32" s="6"/>
       <c r="AC32" s="6"/>
       <c r="AD32" s="6"/>
@@ -3539,7 +3663,7 @@
       <c r="AM32" s="6"/>
       <c r="AN32" s="6">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AO32" s="6">
         <f t="shared" si="3"/>
@@ -3602,8 +3726,12 @@
       <c r="W33" s="6"/>
       <c r="X33" s="6"/>
       <c r="Y33" s="6"/>
-      <c r="Z33" s="6"/>
-      <c r="AA33" s="6"/>
+      <c r="Z33" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA33" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AB33" s="6"/>
       <c r="AC33" s="6"/>
       <c r="AD33" s="6"/>
@@ -3618,11 +3746,11 @@
       <c r="AM33" s="6"/>
       <c r="AN33" s="6">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AO33" s="6">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:41" x14ac:dyDescent="0.25">
@@ -3681,8 +3809,12 @@
       <c r="W34" s="6"/>
       <c r="X34" s="6"/>
       <c r="Y34" s="6"/>
-      <c r="Z34" s="6"/>
-      <c r="AA34" s="6"/>
+      <c r="Z34" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA34" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AB34" s="6"/>
       <c r="AC34" s="6"/>
       <c r="AD34" s="6"/>
@@ -3697,11 +3829,11 @@
       <c r="AM34" s="6"/>
       <c r="AN34" s="6">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AO34" s="6">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:41" x14ac:dyDescent="0.25">
@@ -3760,8 +3892,12 @@
       <c r="W35" s="6"/>
       <c r="X35" s="6"/>
       <c r="Y35" s="6"/>
-      <c r="Z35" s="6"/>
-      <c r="AA35" s="6"/>
+      <c r="Z35" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA35" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AB35" s="6"/>
       <c r="AC35" s="6"/>
       <c r="AD35" s="6"/>
@@ -3776,11 +3912,11 @@
       <c r="AM35" s="6"/>
       <c r="AN35" s="6">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AO35" s="6">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:41" x14ac:dyDescent="0.25">
@@ -3839,8 +3975,12 @@
       <c r="W36" s="6"/>
       <c r="X36" s="6"/>
       <c r="Y36" s="6"/>
-      <c r="Z36" s="6"/>
-      <c r="AA36" s="6"/>
+      <c r="Z36" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA36" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="AB36" s="6"/>
       <c r="AC36" s="6"/>
       <c r="AD36" s="6"/>
@@ -3859,7 +3999,7 @@
       </c>
       <c r="AO36" s="6">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:41" x14ac:dyDescent="0.25">
@@ -3918,8 +4058,12 @@
       <c r="W37" s="6"/>
       <c r="X37" s="6"/>
       <c r="Y37" s="6"/>
-      <c r="Z37" s="6"/>
-      <c r="AA37" s="6"/>
+      <c r="Z37" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA37" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="AB37" s="6"/>
       <c r="AC37" s="6"/>
       <c r="AD37" s="6"/>
@@ -3938,7 +4082,7 @@
       </c>
       <c r="AO37" s="6">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:41" x14ac:dyDescent="0.25">
@@ -3997,8 +4141,12 @@
       <c r="W38" s="6"/>
       <c r="X38" s="6"/>
       <c r="Y38" s="6"/>
-      <c r="Z38" s="6"/>
-      <c r="AA38" s="6"/>
+      <c r="Z38" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA38" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="AB38" s="6"/>
       <c r="AC38" s="6"/>
       <c r="AD38" s="6"/>
@@ -4013,11 +4161,11 @@
       <c r="AM38" s="6"/>
       <c r="AN38" s="6">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AO38" s="6">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:41" x14ac:dyDescent="0.25">
@@ -4076,8 +4224,12 @@
       <c r="W39" s="6"/>
       <c r="X39" s="6"/>
       <c r="Y39" s="6"/>
-      <c r="Z39" s="6"/>
-      <c r="AA39" s="6"/>
+      <c r="Z39" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA39" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AB39" s="6"/>
       <c r="AC39" s="6"/>
       <c r="AD39" s="6"/>
@@ -4092,7 +4244,7 @@
       <c r="AM39" s="6"/>
       <c r="AN39" s="6">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AO39" s="6">
         <f t="shared" si="3"/>
@@ -4155,8 +4307,12 @@
       <c r="W40" s="6"/>
       <c r="X40" s="6"/>
       <c r="Y40" s="6"/>
-      <c r="Z40" s="6"/>
-      <c r="AA40" s="6"/>
+      <c r="Z40" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA40" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AB40" s="6"/>
       <c r="AC40" s="6"/>
       <c r="AD40" s="6"/>
@@ -4171,7 +4327,7 @@
       <c r="AM40" s="6"/>
       <c r="AN40" s="6">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AO40" s="6">
         <f t="shared" si="3"/>
@@ -4234,8 +4390,12 @@
       <c r="W41" s="6"/>
       <c r="X41" s="6"/>
       <c r="Y41" s="6"/>
-      <c r="Z41" s="6"/>
-      <c r="AA41" s="6"/>
+      <c r="Z41" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA41" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AB41" s="6"/>
       <c r="AC41" s="6"/>
       <c r="AD41" s="6"/>
@@ -4250,7 +4410,7 @@
       <c r="AM41" s="6"/>
       <c r="AN41" s="6">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AO41" s="6">
         <f t="shared" si="3"/>
@@ -4313,8 +4473,12 @@
       <c r="W42" s="6"/>
       <c r="X42" s="6"/>
       <c r="Y42" s="6"/>
-      <c r="Z42" s="6"/>
-      <c r="AA42" s="6"/>
+      <c r="Z42" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA42" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AB42" s="6"/>
       <c r="AC42" s="6"/>
       <c r="AD42" s="6"/>
@@ -4329,7 +4493,7 @@
       <c r="AM42" s="6"/>
       <c r="AN42" s="6">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AO42" s="6">
         <f t="shared" si="3"/>
@@ -4392,8 +4556,12 @@
       <c r="W43" s="6"/>
       <c r="X43" s="6"/>
       <c r="Y43" s="6"/>
-      <c r="Z43" s="6"/>
-      <c r="AA43" s="6"/>
+      <c r="Z43" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA43" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AB43" s="6"/>
       <c r="AC43" s="6"/>
       <c r="AD43" s="6"/>
@@ -4408,7 +4576,7 @@
       <c r="AM43" s="6"/>
       <c r="AN43" s="6">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AO43" s="6">
         <f t="shared" si="3"/>
@@ -4471,8 +4639,12 @@
       <c r="W44" s="6"/>
       <c r="X44" s="6"/>
       <c r="Y44" s="6"/>
-      <c r="Z44" s="6"/>
-      <c r="AA44" s="6"/>
+      <c r="Z44" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA44" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AB44" s="6"/>
       <c r="AC44" s="6"/>
       <c r="AD44" s="6"/>
@@ -4487,7 +4659,7 @@
       <c r="AM44" s="6"/>
       <c r="AN44" s="6">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AO44" s="6">
         <f t="shared" si="3"/>
@@ -4550,8 +4722,12 @@
       <c r="W45" s="6"/>
       <c r="X45" s="6"/>
       <c r="Y45" s="6"/>
-      <c r="Z45" s="6"/>
-      <c r="AA45" s="6"/>
+      <c r="Z45" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA45" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AB45" s="6"/>
       <c r="AC45" s="6"/>
       <c r="AD45" s="6"/>
@@ -4566,7 +4742,7 @@
       <c r="AM45" s="6"/>
       <c r="AN45" s="6">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AO45" s="6">
         <f t="shared" si="3"/>
@@ -4629,8 +4805,12 @@
       <c r="W46" s="6"/>
       <c r="X46" s="6"/>
       <c r="Y46" s="6"/>
-      <c r="Z46" s="6"/>
-      <c r="AA46" s="6"/>
+      <c r="Z46" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA46" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="AB46" s="6"/>
       <c r="AC46" s="6"/>
       <c r="AD46" s="6"/>
@@ -4649,7 +4829,7 @@
       </c>
       <c r="AO46" s="6">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:41" x14ac:dyDescent="0.25">
@@ -4708,8 +4888,12 @@
       <c r="W47" s="6"/>
       <c r="X47" s="6"/>
       <c r="Y47" s="6"/>
-      <c r="Z47" s="6"/>
-      <c r="AA47" s="6"/>
+      <c r="Z47" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA47" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AB47" s="6"/>
       <c r="AC47" s="6"/>
       <c r="AD47" s="6"/>
@@ -4724,11 +4908,11 @@
       <c r="AM47" s="6"/>
       <c r="AN47" s="6">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AO47" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:41" x14ac:dyDescent="0.25">
@@ -4787,8 +4971,12 @@
       <c r="W48" s="6"/>
       <c r="X48" s="6"/>
       <c r="Y48" s="6"/>
-      <c r="Z48" s="6"/>
-      <c r="AA48" s="6"/>
+      <c r="Z48" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA48" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AB48" s="6"/>
       <c r="AC48" s="6"/>
       <c r="AD48" s="6"/>
@@ -4803,7 +4991,7 @@
       <c r="AM48" s="6"/>
       <c r="AN48" s="6">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AO48" s="6">
         <f t="shared" si="3"/>
@@ -4866,8 +5054,12 @@
       <c r="W49" s="6"/>
       <c r="X49" s="6"/>
       <c r="Y49" s="6"/>
-      <c r="Z49" s="6"/>
-      <c r="AA49" s="6"/>
+      <c r="Z49" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA49" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AB49" s="6"/>
       <c r="AC49" s="6"/>
       <c r="AD49" s="6"/>
@@ -4882,7 +5074,7 @@
       <c r="AM49" s="6"/>
       <c r="AN49" s="6">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AO49" s="6">
         <f t="shared" si="3"/>
@@ -4945,8 +5137,12 @@
       <c r="W50" s="6"/>
       <c r="X50" s="6"/>
       <c r="Y50" s="6"/>
-      <c r="Z50" s="6"/>
-      <c r="AA50" s="6"/>
+      <c r="Z50" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA50" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AB50" s="6"/>
       <c r="AC50" s="6"/>
       <c r="AD50" s="6"/>
@@ -4961,7 +5157,7 @@
       <c r="AM50" s="6"/>
       <c r="AN50" s="6">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AO50" s="6">
         <f t="shared" si="3"/>
@@ -5024,8 +5220,12 @@
       <c r="W51" s="6"/>
       <c r="X51" s="6"/>
       <c r="Y51" s="6"/>
-      <c r="Z51" s="6"/>
-      <c r="AA51" s="6"/>
+      <c r="Z51" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA51" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AB51" s="6"/>
       <c r="AC51" s="6"/>
       <c r="AD51" s="6"/>
@@ -5040,7 +5240,7 @@
       <c r="AM51" s="6"/>
       <c r="AN51" s="6">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AO51" s="6">
         <f t="shared" si="3"/>

--- a/Frequencia/MAF105_Tarde.xlsx
+++ b/Frequencia/MAF105_Tarde.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="108">
   <si>
     <t>Nome do Aluno</t>
   </si>
@@ -83,12 +83,6 @@
     <t>1819     </t>
   </si>
   <si>
-    <t> TALITA BARROSO BRAGA</t>
-  </si>
-  <si>
-    <t>1849     </t>
-  </si>
-  <si>
     <t> GUILHERME RODRIGUES MELO OLIVEIRA</t>
   </si>
   <si>
@@ -153,12 +147,6 @@
   </si>
   <si>
     <t> 144</t>
-  </si>
-  <si>
-    <t> INAIÁ PÚBLIO CARNEIRO</t>
-  </si>
-  <si>
-    <t>2870     </t>
   </si>
   <si>
     <t> LORENNA ROSA DA SILVA NASCIMENTO</t>
@@ -523,7 +511,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="13">
     <dxf>
       <fill>
         <patternFill>
@@ -549,20 +537,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -905,11 +879,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AR51"/>
+  <dimension ref="A1:AR49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AL1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AO29" sqref="AO29"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AD1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AF24" sqref="AF24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.25" x14ac:dyDescent="0.25"/>
@@ -1157,7 +1131,9 @@
       <c r="AC2" s="6"/>
       <c r="AD2" s="6"/>
       <c r="AE2" s="6"/>
-      <c r="AF2" s="6"/>
+      <c r="AF2" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="AG2" s="6"/>
       <c r="AH2" s="6"/>
       <c r="AI2" s="6"/>
@@ -1171,7 +1147,7 @@
       </c>
       <c r="AO2" s="6">
         <f>2*COUNTIF(D2:AM2,"="&amp;$AR$2)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AQ2" s="1" t="s">
         <v>3</v>
@@ -1246,7 +1222,9 @@
       <c r="AC3" s="6"/>
       <c r="AD3" s="6"/>
       <c r="AE3" s="6"/>
-      <c r="AF3" s="6"/>
+      <c r="AF3" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AG3" s="6"/>
       <c r="AH3" s="6"/>
       <c r="AI3" s="6"/>
@@ -1255,11 +1233,11 @@
       <c r="AL3" s="6"/>
       <c r="AM3" s="6"/>
       <c r="AN3" s="6">
-        <f t="shared" ref="AN3:AN51" si="2">2*COUNTIF(D3:AM3,"="&amp;$AQ$2)</f>
-        <v>22</v>
+        <f t="shared" ref="AN3:AN49" si="2">2*COUNTIF(D3:AM3,"="&amp;$AQ$2)</f>
+        <v>24</v>
       </c>
       <c r="AO3" s="6">
-        <f t="shared" ref="AO3:AO51" si="3">2*COUNTIF(D3:AM3,"="&amp;$AR$2)</f>
+        <f t="shared" ref="AO3:AO49" si="3">2*COUNTIF(D3:AM3,"="&amp;$AR$2)</f>
         <v>6</v>
       </c>
     </row>
@@ -1329,7 +1307,9 @@
       <c r="AC4" s="6"/>
       <c r="AD4" s="6"/>
       <c r="AE4" s="6"/>
-      <c r="AF4" s="6"/>
+      <c r="AF4" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AG4" s="6"/>
       <c r="AH4" s="6"/>
       <c r="AI4" s="6"/>
@@ -1339,7 +1319,7 @@
       <c r="AM4" s="6"/>
       <c r="AN4" s="6">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AO4" s="6">
         <f t="shared" si="3"/>
@@ -1412,7 +1392,9 @@
       <c r="AC5" s="6"/>
       <c r="AD5" s="6"/>
       <c r="AE5" s="6"/>
-      <c r="AF5" s="6"/>
+      <c r="AF5" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="AG5" s="6"/>
       <c r="AH5" s="6"/>
       <c r="AI5" s="6"/>
@@ -1426,7 +1408,7 @@
       </c>
       <c r="AO5" s="6">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:44" x14ac:dyDescent="0.25">
@@ -1495,7 +1477,9 @@
       <c r="AC6" s="6"/>
       <c r="AD6" s="6"/>
       <c r="AE6" s="6"/>
-      <c r="AF6" s="6"/>
+      <c r="AF6" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AG6" s="6"/>
       <c r="AH6" s="6"/>
       <c r="AI6" s="6"/>
@@ -1505,7 +1489,7 @@
       <c r="AM6" s="6"/>
       <c r="AN6" s="6">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AO6" s="6">
         <f t="shared" si="3"/>
@@ -1520,49 +1504,49 @@
         <v>20</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>4</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I7" s="14"/>
       <c r="J7" s="13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M7" s="16"/>
       <c r="N7" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
       <c r="Q7" s="6"/>
       <c r="R7" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S7" s="6"/>
       <c r="T7" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U7" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V7" s="6"/>
       <c r="W7" s="6"/>
@@ -1578,7 +1562,9 @@
       <c r="AC7" s="6"/>
       <c r="AD7" s="6"/>
       <c r="AE7" s="6"/>
-      <c r="AF7" s="6"/>
+      <c r="AF7" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AG7" s="6"/>
       <c r="AH7" s="6"/>
       <c r="AI7" s="6"/>
@@ -1588,25 +1574,25 @@
       <c r="AM7" s="6"/>
       <c r="AN7" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AO7" s="6">
         <f t="shared" si="3"/>
-        <v>28</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>3</v>
@@ -1632,7 +1618,7 @@
       </c>
       <c r="M8" s="16"/>
       <c r="N8" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
@@ -1645,23 +1631,25 @@
         <v>3</v>
       </c>
       <c r="U8" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V8" s="6"/>
       <c r="W8" s="6"/>
       <c r="X8" s="6"/>
       <c r="Y8" s="6"/>
       <c r="Z8" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AA8" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AB8" s="6"/>
       <c r="AC8" s="6"/>
       <c r="AD8" s="6"/>
       <c r="AE8" s="6"/>
-      <c r="AF8" s="6"/>
+      <c r="AF8" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AG8" s="6"/>
       <c r="AH8" s="6"/>
       <c r="AI8" s="6"/>
@@ -1671,11 +1659,11 @@
       <c r="AM8" s="6"/>
       <c r="AN8" s="6">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AO8" s="6">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:44" x14ac:dyDescent="0.25">
@@ -1744,7 +1732,9 @@
       <c r="AC9" s="6"/>
       <c r="AD9" s="6"/>
       <c r="AE9" s="6"/>
-      <c r="AF9" s="6"/>
+      <c r="AF9" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AG9" s="6"/>
       <c r="AH9" s="6"/>
       <c r="AI9" s="6"/>
@@ -1754,7 +1744,7 @@
       <c r="AM9" s="6"/>
       <c r="AN9" s="6">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AO9" s="6">
         <f t="shared" si="3"/>
@@ -1769,7 +1759,7 @@
         <v>27</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D10" s="13" t="s">
         <v>3</v>
@@ -1798,7 +1788,7 @@
       </c>
       <c r="M10" s="16"/>
       <c r="N10" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O10" s="6"/>
       <c r="P10" s="6"/>
@@ -1811,7 +1801,7 @@
         <v>3</v>
       </c>
       <c r="U10" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V10" s="6"/>
       <c r="W10" s="6"/>
@@ -1827,7 +1817,9 @@
       <c r="AC10" s="6"/>
       <c r="AD10" s="6"/>
       <c r="AE10" s="6"/>
-      <c r="AF10" s="6"/>
+      <c r="AF10" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AG10" s="6"/>
       <c r="AH10" s="6"/>
       <c r="AI10" s="6"/>
@@ -1837,11 +1829,11 @@
       <c r="AM10" s="6"/>
       <c r="AN10" s="6">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="AO10" s="6">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:44" x14ac:dyDescent="0.25">
@@ -1852,10 +1844,10 @@
         <v>29</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E11" s="13" t="s">
         <v>3</v>
@@ -1910,7 +1902,9 @@
       <c r="AC11" s="6"/>
       <c r="AD11" s="6"/>
       <c r="AE11" s="6"/>
-      <c r="AF11" s="6"/>
+      <c r="AF11" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AG11" s="6"/>
       <c r="AH11" s="6"/>
       <c r="AI11" s="6"/>
@@ -1924,7 +1918,7 @@
       </c>
       <c r="AO11" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:44" x14ac:dyDescent="0.25">
@@ -1938,7 +1932,7 @@
         <v>13</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E12" s="13" t="s">
         <v>3</v>
@@ -1993,7 +1987,9 @@
       <c r="AC12" s="6"/>
       <c r="AD12" s="6"/>
       <c r="AE12" s="6"/>
-      <c r="AF12" s="6"/>
+      <c r="AF12" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AG12" s="6"/>
       <c r="AH12" s="6"/>
       <c r="AI12" s="6"/>
@@ -2003,11 +1999,11 @@
       <c r="AM12" s="6"/>
       <c r="AN12" s="6">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AO12" s="6">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:44" x14ac:dyDescent="0.25">
@@ -2076,7 +2072,9 @@
       <c r="AC13" s="6"/>
       <c r="AD13" s="6"/>
       <c r="AE13" s="6"/>
-      <c r="AF13" s="6"/>
+      <c r="AF13" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AG13" s="6"/>
       <c r="AH13" s="6"/>
       <c r="AI13" s="6"/>
@@ -2086,7 +2084,7 @@
       <c r="AM13" s="6"/>
       <c r="AN13" s="6">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AO13" s="6">
         <f t="shared" si="3"/>
@@ -2126,11 +2124,11 @@
         <v>3</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M14" s="16"/>
       <c r="N14" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O14" s="6"/>
       <c r="P14" s="6"/>
@@ -2143,7 +2141,7 @@
         <v>3</v>
       </c>
       <c r="U14" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V14" s="6"/>
       <c r="W14" s="6"/>
@@ -2159,7 +2157,9 @@
       <c r="AC14" s="6"/>
       <c r="AD14" s="6"/>
       <c r="AE14" s="6"/>
-      <c r="AF14" s="6"/>
+      <c r="AF14" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AG14" s="6"/>
       <c r="AH14" s="6"/>
       <c r="AI14" s="6"/>
@@ -2169,11 +2169,11 @@
       <c r="AM14" s="6"/>
       <c r="AN14" s="6">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AO14" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:44" x14ac:dyDescent="0.25">
@@ -2209,7 +2209,7 @@
         <v>3</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M15" s="16"/>
       <c r="N15" s="6" t="s">
@@ -2236,13 +2236,15 @@
         <v>3</v>
       </c>
       <c r="AA15" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB15" s="6"/>
       <c r="AC15" s="6"/>
       <c r="AD15" s="6"/>
       <c r="AE15" s="6"/>
-      <c r="AF15" s="6"/>
+      <c r="AF15" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="AG15" s="6"/>
       <c r="AH15" s="6"/>
       <c r="AI15" s="6"/>
@@ -2256,7 +2258,7 @@
       </c>
       <c r="AO15" s="6">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:44" x14ac:dyDescent="0.25">
@@ -2267,32 +2269,32 @@
         <v>39</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H16" s="13" t="s">
         <v>3</v>
       </c>
       <c r="I16" s="14"/>
       <c r="J16" s="13" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M16" s="16"/>
       <c r="N16" s="6" t="s">
@@ -2302,11 +2304,11 @@
       <c r="P16" s="6"/>
       <c r="Q16" s="6"/>
       <c r="R16" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S16" s="6"/>
       <c r="T16" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U16" s="6" t="s">
         <v>4</v>
@@ -2316,7 +2318,7 @@
       <c r="X16" s="6"/>
       <c r="Y16" s="6"/>
       <c r="Z16" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AA16" s="6" t="s">
         <v>4</v>
@@ -2325,7 +2327,9 @@
       <c r="AC16" s="6"/>
       <c r="AD16" s="6"/>
       <c r="AE16" s="6"/>
-      <c r="AF16" s="6"/>
+      <c r="AF16" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="AG16" s="6"/>
       <c r="AH16" s="6"/>
       <c r="AI16" s="6"/>
@@ -2335,22 +2339,22 @@
       <c r="AM16" s="6"/>
       <c r="AN16" s="6">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="AO16" s="6">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="D17" s="13" t="s">
         <v>4</v>
@@ -2359,7 +2363,7 @@
         <v>4</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G17" s="13" t="s">
         <v>4</v>
@@ -2369,13 +2373,13 @@
       </c>
       <c r="I17" s="14"/>
       <c r="J17" s="13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L17" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M17" s="16"/>
       <c r="N17" s="6" t="s">
@@ -2408,7 +2412,9 @@
       <c r="AC17" s="6"/>
       <c r="AD17" s="6"/>
       <c r="AE17" s="6"/>
-      <c r="AF17" s="6"/>
+      <c r="AF17" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="AG17" s="6"/>
       <c r="AH17" s="6"/>
       <c r="AI17" s="6"/>
@@ -2418,11 +2424,11 @@
       <c r="AM17" s="6"/>
       <c r="AN17" s="6">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AO17" s="6">
         <f t="shared" si="3"/>
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:41" x14ac:dyDescent="0.25">
@@ -2433,7 +2439,7 @@
         <v>44</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D18" s="13" t="s">
         <v>3</v>
@@ -2445,7 +2451,7 @@
         <v>3</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H18" s="13" t="s">
         <v>3</v>
@@ -2455,7 +2461,7 @@
         <v>3</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L18" s="6" t="s">
         <v>3</v>
@@ -2468,21 +2474,21 @@
       <c r="P18" s="6"/>
       <c r="Q18" s="6"/>
       <c r="R18" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S18" s="6"/>
       <c r="T18" s="6" t="s">
         <v>4</v>
       </c>
       <c r="U18" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V18" s="6"/>
       <c r="W18" s="6"/>
       <c r="X18" s="6"/>
       <c r="Y18" s="6"/>
       <c r="Z18" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AA18" s="6" t="s">
         <v>4</v>
@@ -2491,7 +2497,9 @@
       <c r="AC18" s="6"/>
       <c r="AD18" s="6"/>
       <c r="AE18" s="6"/>
-      <c r="AF18" s="6"/>
+      <c r="AF18" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AG18" s="6"/>
       <c r="AH18" s="6"/>
       <c r="AI18" s="6"/>
@@ -2501,11 +2509,11 @@
       <c r="AM18" s="6"/>
       <c r="AN18" s="6">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AO18" s="6">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:41" x14ac:dyDescent="0.25">
@@ -2516,19 +2524,19 @@
         <v>46</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F19" s="13" t="s">
         <v>3</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H19" s="13" t="s">
         <v>3</v>
@@ -2545,17 +2553,17 @@
       </c>
       <c r="M19" s="16"/>
       <c r="N19" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O19" s="6"/>
       <c r="P19" s="6"/>
       <c r="Q19" s="6"/>
       <c r="R19" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S19" s="6"/>
       <c r="T19" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U19" s="6" t="s">
         <v>4</v>
@@ -2565,16 +2573,18 @@
       <c r="X19" s="6"/>
       <c r="Y19" s="6"/>
       <c r="Z19" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AA19" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AB19" s="6"/>
       <c r="AC19" s="6"/>
       <c r="AD19" s="6"/>
       <c r="AE19" s="6"/>
-      <c r="AF19" s="6"/>
+      <c r="AF19" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AG19" s="6"/>
       <c r="AH19" s="6"/>
       <c r="AI19" s="6"/>
@@ -2584,11 +2594,11 @@
       <c r="AM19" s="6"/>
       <c r="AN19" s="6">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="AO19" s="6">
         <f t="shared" si="3"/>
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:41" x14ac:dyDescent="0.25">
@@ -2611,7 +2621,7 @@
         <v>3</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H20" s="13" t="s">
         <v>3</v>
@@ -2638,7 +2648,7 @@
       </c>
       <c r="S20" s="6"/>
       <c r="T20" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U20" s="6" t="s">
         <v>3</v>
@@ -2651,13 +2661,15 @@
         <v>3</v>
       </c>
       <c r="AA20" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AB20" s="6"/>
       <c r="AC20" s="6"/>
       <c r="AD20" s="6"/>
       <c r="AE20" s="6"/>
-      <c r="AF20" s="6"/>
+      <c r="AF20" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AG20" s="6"/>
       <c r="AH20" s="6"/>
       <c r="AI20" s="6"/>
@@ -2667,11 +2679,11 @@
       <c r="AM20" s="6"/>
       <c r="AN20" s="6">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="AO20" s="6">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:41" x14ac:dyDescent="0.25">
@@ -2724,7 +2736,7 @@
         <v>3</v>
       </c>
       <c r="U21" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V21" s="6"/>
       <c r="W21" s="6"/>
@@ -2740,7 +2752,9 @@
       <c r="AC21" s="6"/>
       <c r="AD21" s="6"/>
       <c r="AE21" s="6"/>
-      <c r="AF21" s="6"/>
+      <c r="AF21" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AG21" s="6"/>
       <c r="AH21" s="6"/>
       <c r="AI21" s="6"/>
@@ -2750,11 +2764,11 @@
       <c r="AM21" s="6"/>
       <c r="AN21" s="6">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AO21" s="6">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:41" x14ac:dyDescent="0.25">
@@ -2787,7 +2801,7 @@
         <v>3</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L22" s="6" t="s">
         <v>3</v>
@@ -2823,7 +2837,9 @@
       <c r="AC22" s="6"/>
       <c r="AD22" s="6"/>
       <c r="AE22" s="6"/>
-      <c r="AF22" s="6"/>
+      <c r="AF22" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AG22" s="6"/>
       <c r="AH22" s="6"/>
       <c r="AI22" s="6"/>
@@ -2833,11 +2849,11 @@
       <c r="AM22" s="6"/>
       <c r="AN22" s="6">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AO22" s="6">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:41" x14ac:dyDescent="0.25">
@@ -2851,10 +2867,10 @@
         <v>13</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F23" s="13" t="s">
         <v>3</v>
@@ -2883,14 +2899,14 @@
       <c r="P23" s="6"/>
       <c r="Q23" s="6"/>
       <c r="R23" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S23" s="6"/>
       <c r="T23" s="6" t="s">
         <v>3</v>
       </c>
       <c r="U23" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V23" s="6"/>
       <c r="W23" s="6"/>
@@ -2906,7 +2922,9 @@
       <c r="AC23" s="6"/>
       <c r="AD23" s="6"/>
       <c r="AE23" s="6"/>
-      <c r="AF23" s="6"/>
+      <c r="AF23" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AG23" s="6"/>
       <c r="AH23" s="6"/>
       <c r="AI23" s="6"/>
@@ -2916,11 +2934,11 @@
       <c r="AM23" s="6"/>
       <c r="AN23" s="6">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="AO23" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:41" x14ac:dyDescent="0.25">
@@ -2934,10 +2952,10 @@
         <v>13</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F24" s="13" t="s">
         <v>3</v>
@@ -2973,7 +2991,7 @@
         <v>3</v>
       </c>
       <c r="U24" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V24" s="6"/>
       <c r="W24" s="6"/>
@@ -2989,7 +3007,9 @@
       <c r="AC24" s="6"/>
       <c r="AD24" s="6"/>
       <c r="AE24" s="6"/>
-      <c r="AF24" s="6"/>
+      <c r="AF24" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AG24" s="6"/>
       <c r="AH24" s="6"/>
       <c r="AI24" s="6"/>
@@ -2999,11 +3019,11 @@
       <c r="AM24" s="6"/>
       <c r="AN24" s="6">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AO24" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:41" x14ac:dyDescent="0.25">
@@ -3017,10 +3037,10 @@
         <v>13</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F25" s="13" t="s">
         <v>3</v>
@@ -3049,14 +3069,14 @@
       <c r="P25" s="6"/>
       <c r="Q25" s="6"/>
       <c r="R25" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S25" s="6"/>
       <c r="T25" s="6" t="s">
         <v>3</v>
       </c>
       <c r="U25" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V25" s="6"/>
       <c r="W25" s="6"/>
@@ -3072,7 +3092,9 @@
       <c r="AC25" s="6"/>
       <c r="AD25" s="6"/>
       <c r="AE25" s="6"/>
-      <c r="AF25" s="6"/>
+      <c r="AF25" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AG25" s="6"/>
       <c r="AH25" s="6"/>
       <c r="AI25" s="6"/>
@@ -3082,11 +3104,11 @@
       <c r="AM25" s="6"/>
       <c r="AN25" s="6">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="AO25" s="6">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:41" x14ac:dyDescent="0.25">
@@ -3100,10 +3122,10 @@
         <v>13</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F26" s="13" t="s">
         <v>3</v>
@@ -3139,7 +3161,7 @@
         <v>3</v>
       </c>
       <c r="U26" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V26" s="6"/>
       <c r="W26" s="6"/>
@@ -3155,7 +3177,9 @@
       <c r="AC26" s="6"/>
       <c r="AD26" s="6"/>
       <c r="AE26" s="6"/>
-      <c r="AF26" s="6"/>
+      <c r="AF26" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AG26" s="6"/>
       <c r="AH26" s="6"/>
       <c r="AI26" s="6"/>
@@ -3165,11 +3189,11 @@
       <c r="AM26" s="6"/>
       <c r="AN26" s="6">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="AO26" s="6">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:41" x14ac:dyDescent="0.25">
@@ -3192,7 +3216,7 @@
         <v>3</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H27" s="13" t="s">
         <v>3</v>
@@ -3202,7 +3226,7 @@
         <v>3</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L27" s="6" t="s">
         <v>3</v>
@@ -3222,7 +3246,7 @@
         <v>3</v>
       </c>
       <c r="U27" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V27" s="6"/>
       <c r="W27" s="6"/>
@@ -3238,7 +3262,9 @@
       <c r="AC27" s="6"/>
       <c r="AD27" s="6"/>
       <c r="AE27" s="6"/>
-      <c r="AF27" s="6"/>
+      <c r="AF27" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AG27" s="6"/>
       <c r="AH27" s="6"/>
       <c r="AI27" s="6"/>
@@ -3248,11 +3274,11 @@
       <c r="AM27" s="6"/>
       <c r="AN27" s="6">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AO27" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:41" x14ac:dyDescent="0.25">
@@ -3282,7 +3308,7 @@
       </c>
       <c r="I28" s="14"/>
       <c r="J28" s="13" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K28" s="6" t="s">
         <v>3</v>
@@ -3298,11 +3324,11 @@
       <c r="P28" s="6"/>
       <c r="Q28" s="6"/>
       <c r="R28" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S28" s="6"/>
       <c r="T28" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U28" s="6" t="s">
         <v>3</v>
@@ -3321,7 +3347,9 @@
       <c r="AC28" s="6"/>
       <c r="AD28" s="6"/>
       <c r="AE28" s="6"/>
-      <c r="AF28" s="6"/>
+      <c r="AF28" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AG28" s="6"/>
       <c r="AH28" s="6"/>
       <c r="AI28" s="6"/>
@@ -3331,11 +3359,11 @@
       <c r="AM28" s="6"/>
       <c r="AN28" s="6">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AO28" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:41" x14ac:dyDescent="0.25">
@@ -3368,10 +3396,10 @@
         <v>3</v>
       </c>
       <c r="K29" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L29" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M29" s="16"/>
       <c r="N29" s="6" t="s">
@@ -3381,7 +3409,7 @@
       <c r="P29" s="6"/>
       <c r="Q29" s="6"/>
       <c r="R29" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S29" s="6"/>
       <c r="T29" s="6" t="s">
@@ -3398,13 +3426,15 @@
         <v>3</v>
       </c>
       <c r="AA29" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB29" s="6"/>
       <c r="AC29" s="6"/>
       <c r="AD29" s="6"/>
       <c r="AE29" s="6"/>
-      <c r="AF29" s="6"/>
+      <c r="AF29" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AG29" s="6"/>
       <c r="AH29" s="6"/>
       <c r="AI29" s="6"/>
@@ -3414,11 +3444,11 @@
       <c r="AM29" s="6"/>
       <c r="AN29" s="6">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AO29" s="6">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:41" x14ac:dyDescent="0.25">
@@ -3448,7 +3478,7 @@
       </c>
       <c r="I30" s="14"/>
       <c r="J30" s="13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K30" s="6" t="s">
         <v>3</v>
@@ -3458,7 +3488,7 @@
       </c>
       <c r="M30" s="16"/>
       <c r="N30" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O30" s="6"/>
       <c r="P30" s="6"/>
@@ -3468,7 +3498,7 @@
       </c>
       <c r="S30" s="6"/>
       <c r="T30" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U30" s="6" t="s">
         <v>3</v>
@@ -3487,7 +3517,9 @@
       <c r="AC30" s="6"/>
       <c r="AD30" s="6"/>
       <c r="AE30" s="6"/>
-      <c r="AF30" s="6"/>
+      <c r="AF30" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AG30" s="6"/>
       <c r="AH30" s="6"/>
       <c r="AI30" s="6"/>
@@ -3497,11 +3529,11 @@
       <c r="AM30" s="6"/>
       <c r="AN30" s="6">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AO30" s="6">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:41" x14ac:dyDescent="0.25">
@@ -3512,7 +3544,7 @@
         <v>70</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="D31" s="13" t="s">
         <v>3</v>
@@ -3547,7 +3579,7 @@
       <c r="P31" s="6"/>
       <c r="Q31" s="6"/>
       <c r="R31" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S31" s="6"/>
       <c r="T31" s="6" t="s">
@@ -3561,16 +3593,18 @@
       <c r="X31" s="6"/>
       <c r="Y31" s="6"/>
       <c r="Z31" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AA31" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AB31" s="6"/>
       <c r="AC31" s="6"/>
       <c r="AD31" s="6"/>
       <c r="AE31" s="6"/>
-      <c r="AF31" s="6"/>
+      <c r="AF31" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="AG31" s="6"/>
       <c r="AH31" s="6"/>
       <c r="AI31" s="6"/>
@@ -3580,7 +3614,7 @@
       <c r="AM31" s="6"/>
       <c r="AN31" s="6">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AO31" s="6">
         <f t="shared" si="3"/>
@@ -3589,13 +3623,13 @@
     </row>
     <row r="32" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32" s="13" t="s">
         <v>71</v>
-      </c>
-      <c r="B32" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>13</v>
       </c>
       <c r="D32" s="13" t="s">
         <v>3</v>
@@ -3620,31 +3654,31 @@
         <v>3</v>
       </c>
       <c r="L32" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M32" s="16"/>
       <c r="N32" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O32" s="6"/>
       <c r="P32" s="6"/>
       <c r="Q32" s="6"/>
       <c r="R32" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S32" s="6"/>
       <c r="T32" s="6" t="s">
         <v>3</v>
       </c>
       <c r="U32" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V32" s="6"/>
       <c r="W32" s="6"/>
       <c r="X32" s="6"/>
       <c r="Y32" s="6"/>
       <c r="Z32" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AA32" s="6" t="s">
         <v>3</v>
@@ -3653,7 +3687,9 @@
       <c r="AC32" s="6"/>
       <c r="AD32" s="6"/>
       <c r="AE32" s="6"/>
-      <c r="AF32" s="6"/>
+      <c r="AF32" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AG32" s="6"/>
       <c r="AH32" s="6"/>
       <c r="AI32" s="6"/>
@@ -3667,18 +3703,18 @@
       </c>
       <c r="AO32" s="6">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D33" s="13" t="s">
         <v>3</v>
@@ -3690,7 +3726,7 @@
         <v>3</v>
       </c>
       <c r="G33" s="13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H33" s="13" t="s">
         <v>3</v>
@@ -3703,7 +3739,7 @@
         <v>3</v>
       </c>
       <c r="L33" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M33" s="16"/>
       <c r="N33" s="6" t="s">
@@ -3713,14 +3749,14 @@
       <c r="P33" s="6"/>
       <c r="Q33" s="6"/>
       <c r="R33" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S33" s="6"/>
       <c r="T33" s="6" t="s">
         <v>3</v>
       </c>
       <c r="U33" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V33" s="6"/>
       <c r="W33" s="6"/>
@@ -3736,7 +3772,9 @@
       <c r="AC33" s="6"/>
       <c r="AD33" s="6"/>
       <c r="AE33" s="6"/>
-      <c r="AF33" s="6"/>
+      <c r="AF33" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="AG33" s="6"/>
       <c r="AH33" s="6"/>
       <c r="AI33" s="6"/>
@@ -3746,11 +3784,11 @@
       <c r="AM33" s="6"/>
       <c r="AN33" s="6">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AO33" s="6">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:41" x14ac:dyDescent="0.25">
@@ -3761,7 +3799,7 @@
         <v>77</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="D34" s="13" t="s">
         <v>3</v>
@@ -3783,10 +3821,10 @@
         <v>3</v>
       </c>
       <c r="K34" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L34" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M34" s="16"/>
       <c r="N34" s="6" t="s">
@@ -3803,7 +3841,7 @@
         <v>3</v>
       </c>
       <c r="U34" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V34" s="6"/>
       <c r="W34" s="6"/>
@@ -3813,13 +3851,15 @@
         <v>4</v>
       </c>
       <c r="AA34" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB34" s="6"/>
       <c r="AC34" s="6"/>
       <c r="AD34" s="6"/>
       <c r="AE34" s="6"/>
-      <c r="AF34" s="6"/>
+      <c r="AF34" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="AG34" s="6"/>
       <c r="AH34" s="6"/>
       <c r="AI34" s="6"/>
@@ -3833,7 +3873,7 @@
       </c>
       <c r="AO34" s="6">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:41" x14ac:dyDescent="0.25">
@@ -3844,16 +3884,16 @@
         <v>79</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="D35" s="13" t="s">
         <v>3</v>
       </c>
       <c r="E35" s="13" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F35" s="13" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G35" s="13" t="s">
         <v>3</v>
@@ -3879,14 +3919,14 @@
       <c r="P35" s="6"/>
       <c r="Q35" s="6"/>
       <c r="R35" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S35" s="6"/>
       <c r="T35" s="6" t="s">
         <v>3</v>
       </c>
       <c r="U35" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V35" s="6"/>
       <c r="W35" s="6"/>
@@ -3896,13 +3936,15 @@
         <v>4</v>
       </c>
       <c r="AA35" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB35" s="6"/>
       <c r="AC35" s="6"/>
       <c r="AD35" s="6"/>
       <c r="AE35" s="6"/>
-      <c r="AF35" s="6"/>
+      <c r="AF35" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AG35" s="6"/>
       <c r="AH35" s="6"/>
       <c r="AI35" s="6"/>
@@ -3912,11 +3954,11 @@
       <c r="AM35" s="6"/>
       <c r="AN35" s="6">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AO35" s="6">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:41" x14ac:dyDescent="0.25">
@@ -3927,13 +3969,13 @@
         <v>81</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F36" s="13" t="s">
         <v>3</v>
@@ -3942,14 +3984,14 @@
         <v>3</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I36" s="14"/>
       <c r="J36" s="13" t="s">
         <v>3</v>
       </c>
       <c r="K36" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L36" s="6" t="s">
         <v>3</v>
@@ -3976,7 +4018,7 @@
       <c r="X36" s="6"/>
       <c r="Y36" s="6"/>
       <c r="Z36" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AA36" s="6" t="s">
         <v>4</v>
@@ -3985,7 +4027,9 @@
       <c r="AC36" s="6"/>
       <c r="AD36" s="6"/>
       <c r="AE36" s="6"/>
-      <c r="AF36" s="6"/>
+      <c r="AF36" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="AG36" s="6"/>
       <c r="AH36" s="6"/>
       <c r="AI36" s="6"/>
@@ -3995,11 +4039,11 @@
       <c r="AM36" s="6"/>
       <c r="AN36" s="6">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AO36" s="6">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:41" x14ac:dyDescent="0.25">
@@ -4010,19 +4054,19 @@
         <v>83</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D37" s="13" t="s">
         <v>3</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F37" s="13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G37" s="13" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H37" s="13" t="s">
         <v>3</v>
@@ -4035,7 +4079,7 @@
         <v>3</v>
       </c>
       <c r="L37" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M37" s="16"/>
       <c r="N37" s="6" t="s">
@@ -4049,26 +4093,28 @@
       </c>
       <c r="S37" s="6"/>
       <c r="T37" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U37" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V37" s="6"/>
       <c r="W37" s="6"/>
       <c r="X37" s="6"/>
       <c r="Y37" s="6"/>
       <c r="Z37" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AA37" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AB37" s="6"/>
       <c r="AC37" s="6"/>
       <c r="AD37" s="6"/>
       <c r="AE37" s="6"/>
-      <c r="AF37" s="6"/>
+      <c r="AF37" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="AG37" s="6"/>
       <c r="AH37" s="6"/>
       <c r="AI37" s="6"/>
@@ -4078,11 +4124,11 @@
       <c r="AM37" s="6"/>
       <c r="AN37" s="6">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AO37" s="6">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:41" x14ac:dyDescent="0.25">
@@ -4096,10 +4142,10 @@
         <v>16</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F38" s="13" t="s">
         <v>3</v>
@@ -4108,7 +4154,7 @@
         <v>3</v>
       </c>
       <c r="H38" s="13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I38" s="14"/>
       <c r="J38" s="13" t="s">
@@ -4118,7 +4164,7 @@
         <v>3</v>
       </c>
       <c r="L38" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M38" s="16"/>
       <c r="N38" s="6" t="s">
@@ -4145,13 +4191,15 @@
         <v>3</v>
       </c>
       <c r="AA38" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AB38" s="6"/>
       <c r="AC38" s="6"/>
       <c r="AD38" s="6"/>
       <c r="AE38" s="6"/>
-      <c r="AF38" s="6"/>
+      <c r="AF38" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AG38" s="6"/>
       <c r="AH38" s="6"/>
       <c r="AI38" s="6"/>
@@ -4161,11 +4209,11 @@
       <c r="AM38" s="6"/>
       <c r="AN38" s="6">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="AO38" s="6">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:41" x14ac:dyDescent="0.25">
@@ -4188,7 +4236,7 @@
         <v>3</v>
       </c>
       <c r="G39" s="13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H39" s="13" t="s">
         <v>3</v>
@@ -4201,7 +4249,7 @@
         <v>3</v>
       </c>
       <c r="L39" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M39" s="16"/>
       <c r="N39" s="6" t="s">
@@ -4215,7 +4263,7 @@
       </c>
       <c r="S39" s="6"/>
       <c r="T39" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U39" s="6" t="s">
         <v>3</v>
@@ -4234,7 +4282,9 @@
       <c r="AC39" s="6"/>
       <c r="AD39" s="6"/>
       <c r="AE39" s="6"/>
-      <c r="AF39" s="6"/>
+      <c r="AF39" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AG39" s="6"/>
       <c r="AH39" s="6"/>
       <c r="AI39" s="6"/>
@@ -4244,11 +4294,11 @@
       <c r="AM39" s="6"/>
       <c r="AN39" s="6">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="AO39" s="6">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:41" x14ac:dyDescent="0.25">
@@ -4259,7 +4309,7 @@
         <v>89</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D40" s="13" t="s">
         <v>3</v>
@@ -4271,7 +4321,7 @@
         <v>3</v>
       </c>
       <c r="G40" s="13" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H40" s="13" t="s">
         <v>3</v>
@@ -4284,7 +4334,7 @@
         <v>3</v>
       </c>
       <c r="L40" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M40" s="16"/>
       <c r="N40" s="6" t="s">
@@ -4317,7 +4367,9 @@
       <c r="AC40" s="6"/>
       <c r="AD40" s="6"/>
       <c r="AE40" s="6"/>
-      <c r="AF40" s="6"/>
+      <c r="AF40" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AG40" s="6"/>
       <c r="AH40" s="6"/>
       <c r="AI40" s="6"/>
@@ -4327,7 +4379,7 @@
       <c r="AM40" s="6"/>
       <c r="AN40" s="6">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AO40" s="6">
         <f t="shared" si="3"/>
@@ -4351,10 +4403,10 @@
         <v>3</v>
       </c>
       <c r="F41" s="13" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G41" s="13" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H41" s="13" t="s">
         <v>3</v>
@@ -4400,7 +4452,9 @@
       <c r="AC41" s="6"/>
       <c r="AD41" s="6"/>
       <c r="AE41" s="6"/>
-      <c r="AF41" s="6"/>
+      <c r="AF41" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="AG41" s="6"/>
       <c r="AH41" s="6"/>
       <c r="AI41" s="6"/>
@@ -4410,11 +4464,11 @@
       <c r="AM41" s="6"/>
       <c r="AN41" s="6">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AO41" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:41" x14ac:dyDescent="0.25">
@@ -4425,7 +4479,7 @@
         <v>93</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D42" s="13" t="s">
         <v>3</v>
@@ -4437,7 +4491,7 @@
         <v>3</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H42" s="13" t="s">
         <v>3</v>
@@ -4483,7 +4537,9 @@
       <c r="AC42" s="6"/>
       <c r="AD42" s="6"/>
       <c r="AE42" s="6"/>
-      <c r="AF42" s="6"/>
+      <c r="AF42" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AG42" s="6"/>
       <c r="AH42" s="6"/>
       <c r="AI42" s="6"/>
@@ -4493,11 +4549,11 @@
       <c r="AM42" s="6"/>
       <c r="AN42" s="6">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AO42" s="6">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:41" x14ac:dyDescent="0.25">
@@ -4550,7 +4606,7 @@
         <v>3</v>
       </c>
       <c r="U43" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V43" s="6"/>
       <c r="W43" s="6"/>
@@ -4566,7 +4622,9 @@
       <c r="AC43" s="6"/>
       <c r="AD43" s="6"/>
       <c r="AE43" s="6"/>
-      <c r="AF43" s="6"/>
+      <c r="AF43" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AG43" s="6"/>
       <c r="AH43" s="6"/>
       <c r="AI43" s="6"/>
@@ -4580,7 +4638,7 @@
       </c>
       <c r="AO43" s="6">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:41" x14ac:dyDescent="0.25">
@@ -4597,7 +4655,7 @@
         <v>3</v>
       </c>
       <c r="E44" s="13" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F44" s="13" t="s">
         <v>3</v>
@@ -4620,36 +4678,38 @@
       </c>
       <c r="M44" s="16"/>
       <c r="N44" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O44" s="6"/>
       <c r="P44" s="6"/>
       <c r="Q44" s="6"/>
       <c r="R44" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S44" s="6"/>
       <c r="T44" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U44" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V44" s="6"/>
       <c r="W44" s="6"/>
       <c r="X44" s="6"/>
       <c r="Y44" s="6"/>
       <c r="Z44" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AA44" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB44" s="6"/>
       <c r="AC44" s="6"/>
       <c r="AD44" s="6"/>
       <c r="AE44" s="6"/>
-      <c r="AF44" s="6"/>
+      <c r="AF44" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="AG44" s="6"/>
       <c r="AH44" s="6"/>
       <c r="AI44" s="6"/>
@@ -4659,11 +4719,11 @@
       <c r="AM44" s="6"/>
       <c r="AN44" s="6">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="AO44" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" spans="1:41" x14ac:dyDescent="0.25">
@@ -4683,10 +4743,10 @@
         <v>3</v>
       </c>
       <c r="F45" s="13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G45" s="13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H45" s="13" t="s">
         <v>3</v>
@@ -4716,14 +4776,14 @@
         <v>3</v>
       </c>
       <c r="U45" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V45" s="6"/>
       <c r="W45" s="6"/>
       <c r="X45" s="6"/>
       <c r="Y45" s="6"/>
       <c r="Z45" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AA45" s="6" t="s">
         <v>3</v>
@@ -4732,7 +4792,9 @@
       <c r="AC45" s="6"/>
       <c r="AD45" s="6"/>
       <c r="AE45" s="6"/>
-      <c r="AF45" s="6"/>
+      <c r="AF45" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AG45" s="6"/>
       <c r="AH45" s="6"/>
       <c r="AI45" s="6"/>
@@ -4742,11 +4804,11 @@
       <c r="AM45" s="6"/>
       <c r="AN45" s="6">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="AO45" s="6">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:41" x14ac:dyDescent="0.25">
@@ -4763,7 +4825,7 @@
         <v>3</v>
       </c>
       <c r="E46" s="13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F46" s="13" t="s">
         <v>3</v>
@@ -4786,36 +4848,38 @@
       </c>
       <c r="M46" s="16"/>
       <c r="N46" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O46" s="6"/>
       <c r="P46" s="6"/>
       <c r="Q46" s="6"/>
       <c r="R46" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S46" s="6"/>
       <c r="T46" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U46" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V46" s="6"/>
       <c r="W46" s="6"/>
       <c r="X46" s="6"/>
       <c r="Y46" s="6"/>
       <c r="Z46" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AA46" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AB46" s="6"/>
       <c r="AC46" s="6"/>
       <c r="AD46" s="6"/>
       <c r="AE46" s="6"/>
-      <c r="AF46" s="6"/>
+      <c r="AF46" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AG46" s="6"/>
       <c r="AH46" s="6"/>
       <c r="AI46" s="6"/>
@@ -4825,11 +4889,11 @@
       <c r="AM46" s="6"/>
       <c r="AN46" s="6">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="AO46" s="6">
         <f t="shared" si="3"/>
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:41" x14ac:dyDescent="0.25">
@@ -4889,7 +4953,7 @@
       <c r="X47" s="6"/>
       <c r="Y47" s="6"/>
       <c r="Z47" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AA47" s="6" t="s">
         <v>3</v>
@@ -4898,7 +4962,9 @@
       <c r="AC47" s="6"/>
       <c r="AD47" s="6"/>
       <c r="AE47" s="6"/>
-      <c r="AF47" s="6"/>
+      <c r="AF47" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AG47" s="6"/>
       <c r="AH47" s="6"/>
       <c r="AI47" s="6"/>
@@ -4908,11 +4974,11 @@
       <c r="AM47" s="6"/>
       <c r="AN47" s="6">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AO47" s="6">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:41" x14ac:dyDescent="0.25">
@@ -4981,7 +5047,9 @@
       <c r="AC48" s="6"/>
       <c r="AD48" s="6"/>
       <c r="AE48" s="6"/>
-      <c r="AF48" s="6"/>
+      <c r="AF48" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="AG48" s="6"/>
       <c r="AH48" s="6"/>
       <c r="AI48" s="6"/>
@@ -4995,10 +5063,10 @@
       </c>
       <c r="AO48" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>106</v>
       </c>
@@ -5018,7 +5086,7 @@
         <v>3</v>
       </c>
       <c r="G49" s="13" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H49" s="13" t="s">
         <v>3</v>
@@ -5064,7 +5132,9 @@
       <c r="AC49" s="6"/>
       <c r="AD49" s="6"/>
       <c r="AE49" s="6"/>
-      <c r="AF49" s="6"/>
+      <c r="AF49" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AG49" s="6"/>
       <c r="AH49" s="6"/>
       <c r="AI49" s="6"/>
@@ -5078,172 +5148,6 @@
       </c>
       <c r="AO49" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="B50" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="C50" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D50" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="E50" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="F50" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="G50" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="H50" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="I50" s="14"/>
-      <c r="J50" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="K50" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="L50" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="M50" s="16"/>
-      <c r="N50" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="O50" s="6"/>
-      <c r="P50" s="6"/>
-      <c r="Q50" s="6"/>
-      <c r="R50" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="S50" s="6"/>
-      <c r="T50" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="U50" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="V50" s="6"/>
-      <c r="W50" s="6"/>
-      <c r="X50" s="6"/>
-      <c r="Y50" s="6"/>
-      <c r="Z50" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA50" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB50" s="6"/>
-      <c r="AC50" s="6"/>
-      <c r="AD50" s="6"/>
-      <c r="AE50" s="6"/>
-      <c r="AF50" s="6"/>
-      <c r="AG50" s="6"/>
-      <c r="AH50" s="6"/>
-      <c r="AI50" s="6"/>
-      <c r="AJ50" s="6"/>
-      <c r="AK50" s="6"/>
-      <c r="AL50" s="6"/>
-      <c r="AM50" s="6"/>
-      <c r="AN50" s="6">
-        <f t="shared" si="2"/>
-        <v>28</v>
-      </c>
-      <c r="AO50" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="B51" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="C51" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D51" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="E51" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="F51" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="G51" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="H51" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="I51" s="14"/>
-      <c r="J51" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="K51" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="L51" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="M51" s="16"/>
-      <c r="N51" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="O51" s="6"/>
-      <c r="P51" s="6"/>
-      <c r="Q51" s="6"/>
-      <c r="R51" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="S51" s="6"/>
-      <c r="T51" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="U51" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="V51" s="6"/>
-      <c r="W51" s="6"/>
-      <c r="X51" s="6"/>
-      <c r="Y51" s="6"/>
-      <c r="Z51" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA51" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB51" s="6"/>
-      <c r="AC51" s="6"/>
-      <c r="AD51" s="6"/>
-      <c r="AE51" s="6"/>
-      <c r="AF51" s="6"/>
-      <c r="AG51" s="6"/>
-      <c r="AH51" s="6"/>
-      <c r="AI51" s="6"/>
-      <c r="AJ51" s="6"/>
-      <c r="AK51" s="6"/>
-      <c r="AL51" s="6"/>
-      <c r="AM51" s="6"/>
-      <c r="AN51" s="6">
-        <f t="shared" si="2"/>
-        <v>26</v>
-      </c>
-      <c r="AO51" s="6">
-        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
@@ -5251,55 +5155,47 @@
   <mergeCells count="1">
     <mergeCell ref="AQ1:AR1"/>
   </mergeCells>
-  <conditionalFormatting sqref="K2:AM50">
-    <cfRule type="containsText" dxfId="14" priority="13" operator="containsText" text="Ausente">
-      <formula>NOT(ISERROR(SEARCH("Ausente",K2)))</formula>
+  <conditionalFormatting sqref="D2:AM48">
+    <cfRule type="containsText" dxfId="12" priority="13" operator="containsText" text="Ausente">
+      <formula>NOT(ISERROR(SEARCH("Ausente",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="14" operator="containsText" text="Presente">
-      <formula>NOT(ISERROR(SEARCH("Presente",K2)))</formula>
+    <cfRule type="containsText" dxfId="11" priority="14" operator="containsText" text="Presente">
+      <formula>NOT(ISERROR(SEARCH("Presente",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
       <formula>"Presença"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:F6">
-    <cfRule type="containsText" dxfId="11" priority="11" operator="containsText" text="Presença">
+    <cfRule type="containsText" dxfId="9" priority="11" operator="containsText" text="Presença">
       <formula>NOT(ISERROR(SEARCH("Presença",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:E6">
-    <cfRule type="containsText" dxfId="10" priority="9" operator="containsText" text="Ausência">
+    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="Ausência">
       <formula>NOT(ISERROR(SEARCH("Ausência",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:J50">
-    <cfRule type="containsText" dxfId="9" priority="7" operator="containsText" text="Ausente">
-      <formula>NOT(ISERROR(SEARCH("Ausente",D2)))</formula>
+  <conditionalFormatting sqref="K49:AM49">
+    <cfRule type="containsText" dxfId="7" priority="4" operator="containsText" text="Ausente">
+      <formula>NOT(ISERROR(SEARCH("Ausente",K49)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="8" operator="containsText" text="Presente">
-      <formula>NOT(ISERROR(SEARCH("Presente",D2)))</formula>
+    <cfRule type="containsText" dxfId="6" priority="5" operator="containsText" text="Presente">
+      <formula>NOT(ISERROR(SEARCH("Presente",K49)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K51:AM51">
-    <cfRule type="containsText" dxfId="7" priority="4" operator="containsText" text="Ausente">
-      <formula>NOT(ISERROR(SEARCH("Ausente",K51)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="5" operator="containsText" text="Presente">
-      <formula>NOT(ISERROR(SEARCH("Presente",K51)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D51:J51">
+  <conditionalFormatting sqref="D49:J49">
     <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="Ausente">
-      <formula>NOT(ISERROR(SEARCH("Ausente",D51)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Ausente",D49)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="Presente">
-      <formula>NOT(ISERROR(SEARCH("Presente",D51)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Presente",D49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:J50 K2:AM50 D51:AM51">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:AM49">
       <formula1>"Presente,Ausente"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5319,7 +5215,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>K2:AM50</xm:sqref>
+          <xm:sqref>K2:AM48</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="10" operator="containsText" id="{753A6759-A8E5-435C-893F-1BA12D5A89A0}">
@@ -5333,11 +5229,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>D2:J50</xm:sqref>
+          <xm:sqref>D2:J48</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="6" operator="containsText" id="{66764DAA-3F5A-420D-A7C7-8AB33E48E187}">
-            <xm:f>NOT(ISERROR(SEARCH($AN$1,K51)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH($AN$1,K49)))</xm:f>
             <xm:f>$AN$1</xm:f>
             <x14:dxf>
               <fill>
@@ -5347,11 +5243,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>K51:AM51</xm:sqref>
+          <xm:sqref>K49:AM49</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="3" operator="containsText" id="{FDA0CCA4-8DB2-4FBC-8C2F-9005CCE61943}">
-            <xm:f>NOT(ISERROR(SEARCH($AL$1,D51)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH($AL$1,D49)))</xm:f>
             <xm:f>$AL$1</xm:f>
             <x14:dxf>
               <fill>
@@ -5361,7 +5257,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>D51:J51</xm:sqref>
+          <xm:sqref>D49:J49</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/Frequencia/MAF105_Tarde.xlsx
+++ b/Frequencia/MAF105_Tarde.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="108">
   <si>
     <t>Nome do Aluno</t>
   </si>
@@ -881,9 +881,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AD1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AF24" sqref="AF24"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AF1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AH50" sqref="AH50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.25" x14ac:dyDescent="0.25"/>
@@ -1135,7 +1135,9 @@
         <v>4</v>
       </c>
       <c r="AG2" s="6"/>
-      <c r="AH2" s="6"/>
+      <c r="AH2" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="AI2" s="6"/>
       <c r="AJ2" s="6"/>
       <c r="AK2" s="6"/>
@@ -1147,7 +1149,7 @@
       </c>
       <c r="AO2" s="6">
         <f>2*COUNTIF(D2:AM2,"="&amp;$AR$2)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AQ2" s="1" t="s">
         <v>3</v>
@@ -1226,7 +1228,9 @@
         <v>3</v>
       </c>
       <c r="AG3" s="6"/>
-      <c r="AH3" s="6"/>
+      <c r="AH3" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="AI3" s="6"/>
       <c r="AJ3" s="6"/>
       <c r="AK3" s="6"/>
@@ -1238,7 +1242,7 @@
       </c>
       <c r="AO3" s="6">
         <f t="shared" ref="AO3:AO49" si="3">2*COUNTIF(D3:AM3,"="&amp;$AR$2)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:44" x14ac:dyDescent="0.25">
@@ -1311,7 +1315,9 @@
         <v>3</v>
       </c>
       <c r="AG4" s="6"/>
-      <c r="AH4" s="6"/>
+      <c r="AH4" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="AI4" s="6"/>
       <c r="AJ4" s="6"/>
       <c r="AK4" s="6"/>
@@ -1323,7 +1329,7 @@
       </c>
       <c r="AO4" s="6">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:44" x14ac:dyDescent="0.25">
@@ -1396,7 +1402,9 @@
         <v>4</v>
       </c>
       <c r="AG5" s="6"/>
-      <c r="AH5" s="6"/>
+      <c r="AH5" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="AI5" s="6"/>
       <c r="AJ5" s="6"/>
       <c r="AK5" s="6"/>
@@ -1408,7 +1416,7 @@
       </c>
       <c r="AO5" s="6">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:44" x14ac:dyDescent="0.25">
@@ -1481,7 +1489,9 @@
         <v>3</v>
       </c>
       <c r="AG6" s="6"/>
-      <c r="AH6" s="6"/>
+      <c r="AH6" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AI6" s="6"/>
       <c r="AJ6" s="6"/>
       <c r="AK6" s="6"/>
@@ -1489,7 +1499,7 @@
       <c r="AM6" s="6"/>
       <c r="AN6" s="6">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AO6" s="6">
         <f t="shared" si="3"/>
@@ -1566,7 +1576,9 @@
         <v>3</v>
       </c>
       <c r="AG7" s="6"/>
-      <c r="AH7" s="6"/>
+      <c r="AH7" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AI7" s="6"/>
       <c r="AJ7" s="6"/>
       <c r="AK7" s="6"/>
@@ -1574,7 +1586,7 @@
       <c r="AM7" s="6"/>
       <c r="AN7" s="6">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AO7" s="6">
         <f t="shared" si="3"/>
@@ -1651,7 +1663,9 @@
         <v>3</v>
       </c>
       <c r="AG8" s="6"/>
-      <c r="AH8" s="6"/>
+      <c r="AH8" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AI8" s="6"/>
       <c r="AJ8" s="6"/>
       <c r="AK8" s="6"/>
@@ -1659,7 +1673,7 @@
       <c r="AM8" s="6"/>
       <c r="AN8" s="6">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AO8" s="6">
         <f t="shared" si="3"/>
@@ -1736,7 +1750,9 @@
         <v>3</v>
       </c>
       <c r="AG9" s="6"/>
-      <c r="AH9" s="6"/>
+      <c r="AH9" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AI9" s="6"/>
       <c r="AJ9" s="6"/>
       <c r="AK9" s="6"/>
@@ -1744,7 +1760,7 @@
       <c r="AM9" s="6"/>
       <c r="AN9" s="6">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AO9" s="6">
         <f t="shared" si="3"/>
@@ -1821,7 +1837,9 @@
         <v>3</v>
       </c>
       <c r="AG10" s="6"/>
-      <c r="AH10" s="6"/>
+      <c r="AH10" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AI10" s="6"/>
       <c r="AJ10" s="6"/>
       <c r="AK10" s="6"/>
@@ -1829,7 +1847,7 @@
       <c r="AM10" s="6"/>
       <c r="AN10" s="6">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AO10" s="6">
         <f t="shared" si="3"/>
@@ -1906,7 +1924,9 @@
         <v>3</v>
       </c>
       <c r="AG11" s="6"/>
-      <c r="AH11" s="6"/>
+      <c r="AH11" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AI11" s="6"/>
       <c r="AJ11" s="6"/>
       <c r="AK11" s="6"/>
@@ -1914,7 +1934,7 @@
       <c r="AM11" s="6"/>
       <c r="AN11" s="6">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AO11" s="6">
         <f t="shared" si="3"/>
@@ -1991,7 +2011,9 @@
         <v>3</v>
       </c>
       <c r="AG12" s="6"/>
-      <c r="AH12" s="6"/>
+      <c r="AH12" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AI12" s="6"/>
       <c r="AJ12" s="6"/>
       <c r="AK12" s="6"/>
@@ -1999,7 +2021,7 @@
       <c r="AM12" s="6"/>
       <c r="AN12" s="6">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AO12" s="6">
         <f t="shared" si="3"/>
@@ -2076,7 +2098,9 @@
         <v>3</v>
       </c>
       <c r="AG13" s="6"/>
-      <c r="AH13" s="6"/>
+      <c r="AH13" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AI13" s="6"/>
       <c r="AJ13" s="6"/>
       <c r="AK13" s="6"/>
@@ -2084,7 +2108,7 @@
       <c r="AM13" s="6"/>
       <c r="AN13" s="6">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AO13" s="6">
         <f t="shared" si="3"/>
@@ -2161,7 +2185,9 @@
         <v>3</v>
       </c>
       <c r="AG14" s="6"/>
-      <c r="AH14" s="6"/>
+      <c r="AH14" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AI14" s="6"/>
       <c r="AJ14" s="6"/>
       <c r="AK14" s="6"/>
@@ -2169,7 +2195,7 @@
       <c r="AM14" s="6"/>
       <c r="AN14" s="6">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AO14" s="6">
         <f t="shared" si="3"/>
@@ -2246,7 +2272,9 @@
         <v>4</v>
       </c>
       <c r="AG15" s="6"/>
-      <c r="AH15" s="6"/>
+      <c r="AH15" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AI15" s="6"/>
       <c r="AJ15" s="6"/>
       <c r="AK15" s="6"/>
@@ -2254,7 +2282,7 @@
       <c r="AM15" s="6"/>
       <c r="AN15" s="6">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AO15" s="6">
         <f t="shared" si="3"/>
@@ -2331,7 +2359,9 @@
         <v>4</v>
       </c>
       <c r="AG16" s="6"/>
-      <c r="AH16" s="6"/>
+      <c r="AH16" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="AI16" s="6"/>
       <c r="AJ16" s="6"/>
       <c r="AK16" s="6"/>
@@ -2343,7 +2373,7 @@
       </c>
       <c r="AO16" s="6">
         <f t="shared" si="3"/>
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:41" x14ac:dyDescent="0.25">
@@ -2416,7 +2446,9 @@
         <v>4</v>
       </c>
       <c r="AG17" s="6"/>
-      <c r="AH17" s="6"/>
+      <c r="AH17" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="AI17" s="6"/>
       <c r="AJ17" s="6"/>
       <c r="AK17" s="6"/>
@@ -2428,7 +2460,7 @@
       </c>
       <c r="AO17" s="6">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:41" x14ac:dyDescent="0.25">
@@ -2501,7 +2533,9 @@
         <v>3</v>
       </c>
       <c r="AG18" s="6"/>
-      <c r="AH18" s="6"/>
+      <c r="AH18" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AI18" s="6"/>
       <c r="AJ18" s="6"/>
       <c r="AK18" s="6"/>
@@ -2509,7 +2543,7 @@
       <c r="AM18" s="6"/>
       <c r="AN18" s="6">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AO18" s="6">
         <f t="shared" si="3"/>
@@ -2586,7 +2620,9 @@
         <v>3</v>
       </c>
       <c r="AG19" s="6"/>
-      <c r="AH19" s="6"/>
+      <c r="AH19" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AI19" s="6"/>
       <c r="AJ19" s="6"/>
       <c r="AK19" s="6"/>
@@ -2594,7 +2630,7 @@
       <c r="AM19" s="6"/>
       <c r="AN19" s="6">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AO19" s="6">
         <f t="shared" si="3"/>
@@ -2671,7 +2707,9 @@
         <v>3</v>
       </c>
       <c r="AG20" s="6"/>
-      <c r="AH20" s="6"/>
+      <c r="AH20" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AI20" s="6"/>
       <c r="AJ20" s="6"/>
       <c r="AK20" s="6"/>
@@ -2679,7 +2717,7 @@
       <c r="AM20" s="6"/>
       <c r="AN20" s="6">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AO20" s="6">
         <f t="shared" si="3"/>
@@ -2756,7 +2794,9 @@
         <v>3</v>
       </c>
       <c r="AG21" s="6"/>
-      <c r="AH21" s="6"/>
+      <c r="AH21" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AI21" s="6"/>
       <c r="AJ21" s="6"/>
       <c r="AK21" s="6"/>
@@ -2764,7 +2804,7 @@
       <c r="AM21" s="6"/>
       <c r="AN21" s="6">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AO21" s="6">
         <f t="shared" si="3"/>
@@ -2841,7 +2881,9 @@
         <v>3</v>
       </c>
       <c r="AG22" s="6"/>
-      <c r="AH22" s="6"/>
+      <c r="AH22" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AI22" s="6"/>
       <c r="AJ22" s="6"/>
       <c r="AK22" s="6"/>
@@ -2849,7 +2891,7 @@
       <c r="AM22" s="6"/>
       <c r="AN22" s="6">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AO22" s="6">
         <f t="shared" si="3"/>
@@ -2926,7 +2968,9 @@
         <v>3</v>
       </c>
       <c r="AG23" s="6"/>
-      <c r="AH23" s="6"/>
+      <c r="AH23" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AI23" s="6"/>
       <c r="AJ23" s="6"/>
       <c r="AK23" s="6"/>
@@ -2934,7 +2978,7 @@
       <c r="AM23" s="6"/>
       <c r="AN23" s="6">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AO23" s="6">
         <f t="shared" si="3"/>
@@ -3011,7 +3055,9 @@
         <v>3</v>
       </c>
       <c r="AG24" s="6"/>
-      <c r="AH24" s="6"/>
+      <c r="AH24" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="AI24" s="6"/>
       <c r="AJ24" s="6"/>
       <c r="AK24" s="6"/>
@@ -3023,7 +3069,7 @@
       </c>
       <c r="AO24" s="6">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:41" x14ac:dyDescent="0.25">
@@ -3096,7 +3142,9 @@
         <v>3</v>
       </c>
       <c r="AG25" s="6"/>
-      <c r="AH25" s="6"/>
+      <c r="AH25" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AI25" s="6"/>
       <c r="AJ25" s="6"/>
       <c r="AK25" s="6"/>
@@ -3104,7 +3152,7 @@
       <c r="AM25" s="6"/>
       <c r="AN25" s="6">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AO25" s="6">
         <f t="shared" si="3"/>
@@ -3181,7 +3229,9 @@
         <v>3</v>
       </c>
       <c r="AG26" s="6"/>
-      <c r="AH26" s="6"/>
+      <c r="AH26" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AI26" s="6"/>
       <c r="AJ26" s="6"/>
       <c r="AK26" s="6"/>
@@ -3189,7 +3239,7 @@
       <c r="AM26" s="6"/>
       <c r="AN26" s="6">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AO26" s="6">
         <f t="shared" si="3"/>
@@ -3266,7 +3316,9 @@
         <v>3</v>
       </c>
       <c r="AG27" s="6"/>
-      <c r="AH27" s="6"/>
+      <c r="AH27" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="AI27" s="6"/>
       <c r="AJ27" s="6"/>
       <c r="AK27" s="6"/>
@@ -3278,7 +3330,7 @@
       </c>
       <c r="AO27" s="6">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:41" x14ac:dyDescent="0.25">
@@ -3351,7 +3403,9 @@
         <v>3</v>
       </c>
       <c r="AG28" s="6"/>
-      <c r="AH28" s="6"/>
+      <c r="AH28" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AI28" s="6"/>
       <c r="AJ28" s="6"/>
       <c r="AK28" s="6"/>
@@ -3359,7 +3413,7 @@
       <c r="AM28" s="6"/>
       <c r="AN28" s="6">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AO28" s="6">
         <f t="shared" si="3"/>
@@ -3436,7 +3490,9 @@
         <v>3</v>
       </c>
       <c r="AG29" s="6"/>
-      <c r="AH29" s="6"/>
+      <c r="AH29" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AI29" s="6"/>
       <c r="AJ29" s="6"/>
       <c r="AK29" s="6"/>
@@ -3444,7 +3500,7 @@
       <c r="AM29" s="6"/>
       <c r="AN29" s="6">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AO29" s="6">
         <f t="shared" si="3"/>
@@ -3521,7 +3577,9 @@
         <v>3</v>
       </c>
       <c r="AG30" s="6"/>
-      <c r="AH30" s="6"/>
+      <c r="AH30" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AI30" s="6"/>
       <c r="AJ30" s="6"/>
       <c r="AK30" s="6"/>
@@ -3529,7 +3587,7 @@
       <c r="AM30" s="6"/>
       <c r="AN30" s="6">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AO30" s="6">
         <f t="shared" si="3"/>
@@ -3606,7 +3664,9 @@
         <v>4</v>
       </c>
       <c r="AG31" s="6"/>
-      <c r="AH31" s="6"/>
+      <c r="AH31" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AI31" s="6"/>
       <c r="AJ31" s="6"/>
       <c r="AK31" s="6"/>
@@ -3614,7 +3674,7 @@
       <c r="AM31" s="6"/>
       <c r="AN31" s="6">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AO31" s="6">
         <f t="shared" si="3"/>
@@ -3691,7 +3751,9 @@
         <v>3</v>
       </c>
       <c r="AG32" s="6"/>
-      <c r="AH32" s="6"/>
+      <c r="AH32" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AI32" s="6"/>
       <c r="AJ32" s="6"/>
       <c r="AK32" s="6"/>
@@ -3699,7 +3761,7 @@
       <c r="AM32" s="6"/>
       <c r="AN32" s="6">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AO32" s="6">
         <f t="shared" si="3"/>
@@ -3776,7 +3838,9 @@
         <v>4</v>
       </c>
       <c r="AG33" s="6"/>
-      <c r="AH33" s="6"/>
+      <c r="AH33" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AI33" s="6"/>
       <c r="AJ33" s="6"/>
       <c r="AK33" s="6"/>
@@ -3784,7 +3848,7 @@
       <c r="AM33" s="6"/>
       <c r="AN33" s="6">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AO33" s="6">
         <f t="shared" si="3"/>
@@ -3861,7 +3925,9 @@
         <v>4</v>
       </c>
       <c r="AG34" s="6"/>
-      <c r="AH34" s="6"/>
+      <c r="AH34" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="AI34" s="6"/>
       <c r="AJ34" s="6"/>
       <c r="AK34" s="6"/>
@@ -3873,7 +3939,7 @@
       </c>
       <c r="AO34" s="6">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:41" x14ac:dyDescent="0.25">
@@ -3946,7 +4012,9 @@
         <v>3</v>
       </c>
       <c r="AG35" s="6"/>
-      <c r="AH35" s="6"/>
+      <c r="AH35" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AI35" s="6"/>
       <c r="AJ35" s="6"/>
       <c r="AK35" s="6"/>
@@ -3954,7 +4022,7 @@
       <c r="AM35" s="6"/>
       <c r="AN35" s="6">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AO35" s="6">
         <f t="shared" si="3"/>
@@ -4031,7 +4099,9 @@
         <v>4</v>
       </c>
       <c r="AG36" s="6"/>
-      <c r="AH36" s="6"/>
+      <c r="AH36" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="AI36" s="6"/>
       <c r="AJ36" s="6"/>
       <c r="AK36" s="6"/>
@@ -4043,7 +4113,7 @@
       </c>
       <c r="AO36" s="6">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:41" x14ac:dyDescent="0.25">
@@ -4116,7 +4186,9 @@
         <v>4</v>
       </c>
       <c r="AG37" s="6"/>
-      <c r="AH37" s="6"/>
+      <c r="AH37" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AI37" s="6"/>
       <c r="AJ37" s="6"/>
       <c r="AK37" s="6"/>
@@ -4124,7 +4196,7 @@
       <c r="AM37" s="6"/>
       <c r="AN37" s="6">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AO37" s="6">
         <f t="shared" si="3"/>
@@ -4201,7 +4273,9 @@
         <v>3</v>
       </c>
       <c r="AG38" s="6"/>
-      <c r="AH38" s="6"/>
+      <c r="AH38" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AI38" s="6"/>
       <c r="AJ38" s="6"/>
       <c r="AK38" s="6"/>
@@ -4209,7 +4283,7 @@
       <c r="AM38" s="6"/>
       <c r="AN38" s="6">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AO38" s="6">
         <f t="shared" si="3"/>
@@ -4286,7 +4360,9 @@
         <v>3</v>
       </c>
       <c r="AG39" s="6"/>
-      <c r="AH39" s="6"/>
+      <c r="AH39" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AI39" s="6"/>
       <c r="AJ39" s="6"/>
       <c r="AK39" s="6"/>
@@ -4294,7 +4370,7 @@
       <c r="AM39" s="6"/>
       <c r="AN39" s="6">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AO39" s="6">
         <f t="shared" si="3"/>
@@ -4371,7 +4447,9 @@
         <v>3</v>
       </c>
       <c r="AG40" s="6"/>
-      <c r="AH40" s="6"/>
+      <c r="AH40" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AI40" s="6"/>
       <c r="AJ40" s="6"/>
       <c r="AK40" s="6"/>
@@ -4379,7 +4457,7 @@
       <c r="AM40" s="6"/>
       <c r="AN40" s="6">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AO40" s="6">
         <f t="shared" si="3"/>
@@ -4456,7 +4534,9 @@
         <v>4</v>
       </c>
       <c r="AG41" s="6"/>
-      <c r="AH41" s="6"/>
+      <c r="AH41" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AI41" s="6"/>
       <c r="AJ41" s="6"/>
       <c r="AK41" s="6"/>
@@ -4464,7 +4544,7 @@
       <c r="AM41" s="6"/>
       <c r="AN41" s="6">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AO41" s="6">
         <f t="shared" si="3"/>
@@ -4541,7 +4621,9 @@
         <v>3</v>
       </c>
       <c r="AG42" s="6"/>
-      <c r="AH42" s="6"/>
+      <c r="AH42" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AI42" s="6"/>
       <c r="AJ42" s="6"/>
       <c r="AK42" s="6"/>
@@ -4549,7 +4631,7 @@
       <c r="AM42" s="6"/>
       <c r="AN42" s="6">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AO42" s="6">
         <f t="shared" si="3"/>
@@ -4626,7 +4708,9 @@
         <v>3</v>
       </c>
       <c r="AG43" s="6"/>
-      <c r="AH43" s="6"/>
+      <c r="AH43" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="AI43" s="6"/>
       <c r="AJ43" s="6"/>
       <c r="AK43" s="6"/>
@@ -4638,7 +4722,7 @@
       </c>
       <c r="AO43" s="6">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:41" x14ac:dyDescent="0.25">
@@ -4711,7 +4795,9 @@
         <v>4</v>
       </c>
       <c r="AG44" s="6"/>
-      <c r="AH44" s="6"/>
+      <c r="AH44" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="AI44" s="6"/>
       <c r="AJ44" s="6"/>
       <c r="AK44" s="6"/>
@@ -4723,7 +4809,7 @@
       </c>
       <c r="AO44" s="6">
         <f t="shared" si="3"/>
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" spans="1:41" x14ac:dyDescent="0.25">
@@ -4796,7 +4882,9 @@
         <v>3</v>
       </c>
       <c r="AG45" s="6"/>
-      <c r="AH45" s="6"/>
+      <c r="AH45" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AI45" s="6"/>
       <c r="AJ45" s="6"/>
       <c r="AK45" s="6"/>
@@ -4804,7 +4892,7 @@
       <c r="AM45" s="6"/>
       <c r="AN45" s="6">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AO45" s="6">
         <f t="shared" si="3"/>
@@ -4881,7 +4969,9 @@
         <v>3</v>
       </c>
       <c r="AG46" s="6"/>
-      <c r="AH46" s="6"/>
+      <c r="AH46" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AI46" s="6"/>
       <c r="AJ46" s="6"/>
       <c r="AK46" s="6"/>
@@ -4889,7 +4979,7 @@
       <c r="AM46" s="6"/>
       <c r="AN46" s="6">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AO46" s="6">
         <f t="shared" si="3"/>
@@ -4966,7 +5056,9 @@
         <v>3</v>
       </c>
       <c r="AG47" s="6"/>
-      <c r="AH47" s="6"/>
+      <c r="AH47" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AI47" s="6"/>
       <c r="AJ47" s="6"/>
       <c r="AK47" s="6"/>
@@ -4974,7 +5066,7 @@
       <c r="AM47" s="6"/>
       <c r="AN47" s="6">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AO47" s="6">
         <f t="shared" si="3"/>
@@ -5051,7 +5143,9 @@
         <v>4</v>
       </c>
       <c r="AG48" s="6"/>
-      <c r="AH48" s="6"/>
+      <c r="AH48" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AI48" s="6"/>
       <c r="AJ48" s="6"/>
       <c r="AK48" s="6"/>
@@ -5059,7 +5153,7 @@
       <c r="AM48" s="6"/>
       <c r="AN48" s="6">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AO48" s="6">
         <f t="shared" si="3"/>
@@ -5136,7 +5230,9 @@
         <v>3</v>
       </c>
       <c r="AG49" s="6"/>
-      <c r="AH49" s="6"/>
+      <c r="AH49" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="AI49" s="6"/>
       <c r="AJ49" s="6"/>
       <c r="AK49" s="6"/>
@@ -5148,7 +5244,7 @@
       </c>
       <c r="AO49" s="6">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Frequencia/MAF105_Tarde.xlsx
+++ b/Frequencia/MAF105_Tarde.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="108">
   <si>
     <t>Nome do Aluno</t>
   </si>
@@ -881,9 +881,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AF1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AH50" sqref="AH50"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AH1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AK6" sqref="AK6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.25" x14ac:dyDescent="0.25"/>
@@ -1129,7 +1129,9 @@
       </c>
       <c r="AB2" s="6"/>
       <c r="AC2" s="6"/>
-      <c r="AD2" s="6"/>
+      <c r="AD2" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AE2" s="6"/>
       <c r="AF2" s="6" t="s">
         <v>4</v>
@@ -1141,11 +1143,13 @@
       <c r="AI2" s="6"/>
       <c r="AJ2" s="6"/>
       <c r="AK2" s="6"/>
-      <c r="AL2" s="6"/>
+      <c r="AL2" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AM2" s="6"/>
       <c r="AN2" s="6">
         <f>2*COUNTIF(D2:AM2,"="&amp;$AQ$2)</f>
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AO2" s="6">
         <f>2*COUNTIF(D2:AM2,"="&amp;$AR$2)</f>
@@ -1222,7 +1226,9 @@
       </c>
       <c r="AB3" s="6"/>
       <c r="AC3" s="6"/>
-      <c r="AD3" s="6"/>
+      <c r="AD3" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="AE3" s="6"/>
       <c r="AF3" s="6" t="s">
         <v>3</v>
@@ -1234,7 +1240,9 @@
       <c r="AI3" s="6"/>
       <c r="AJ3" s="6"/>
       <c r="AK3" s="6"/>
-      <c r="AL3" s="6"/>
+      <c r="AL3" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="AM3" s="6"/>
       <c r="AN3" s="6">
         <f t="shared" ref="AN3:AN49" si="2">2*COUNTIF(D3:AM3,"="&amp;$AQ$2)</f>
@@ -1242,7 +1250,7 @@
       </c>
       <c r="AO3" s="6">
         <f t="shared" ref="AO3:AO49" si="3">2*COUNTIF(D3:AM3,"="&amp;$AR$2)</f>
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:44" x14ac:dyDescent="0.25">
@@ -1309,7 +1317,9 @@
       </c>
       <c r="AB4" s="6"/>
       <c r="AC4" s="6"/>
-      <c r="AD4" s="6"/>
+      <c r="AD4" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="AE4" s="6"/>
       <c r="AF4" s="6" t="s">
         <v>3</v>
@@ -1321,7 +1331,9 @@
       <c r="AI4" s="6"/>
       <c r="AJ4" s="6"/>
       <c r="AK4" s="6"/>
-      <c r="AL4" s="6"/>
+      <c r="AL4" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="AM4" s="6"/>
       <c r="AN4" s="6">
         <f t="shared" si="2"/>
@@ -1329,7 +1341,7 @@
       </c>
       <c r="AO4" s="6">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:44" x14ac:dyDescent="0.25">
@@ -1396,7 +1408,9 @@
       </c>
       <c r="AB5" s="6"/>
       <c r="AC5" s="6"/>
-      <c r="AD5" s="6"/>
+      <c r="AD5" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AE5" s="6"/>
       <c r="AF5" s="6" t="s">
         <v>4</v>
@@ -1408,11 +1422,13 @@
       <c r="AI5" s="6"/>
       <c r="AJ5" s="6"/>
       <c r="AK5" s="6"/>
-      <c r="AL5" s="6"/>
+      <c r="AL5" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AM5" s="6"/>
       <c r="AN5" s="6">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AO5" s="6">
         <f t="shared" si="3"/>
@@ -1483,7 +1499,9 @@
       </c>
       <c r="AB6" s="6"/>
       <c r="AC6" s="6"/>
-      <c r="AD6" s="6"/>
+      <c r="AD6" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AE6" s="6"/>
       <c r="AF6" s="6" t="s">
         <v>3</v>
@@ -1495,11 +1513,13 @@
       <c r="AI6" s="6"/>
       <c r="AJ6" s="6"/>
       <c r="AK6" s="6"/>
-      <c r="AL6" s="6"/>
+      <c r="AL6" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AM6" s="6"/>
       <c r="AN6" s="6">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AO6" s="6">
         <f t="shared" si="3"/>
@@ -1570,7 +1590,9 @@
       </c>
       <c r="AB7" s="6"/>
       <c r="AC7" s="6"/>
-      <c r="AD7" s="6"/>
+      <c r="AD7" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AE7" s="6"/>
       <c r="AF7" s="6" t="s">
         <v>3</v>
@@ -1582,11 +1604,13 @@
       <c r="AI7" s="6"/>
       <c r="AJ7" s="6"/>
       <c r="AK7" s="6"/>
-      <c r="AL7" s="6"/>
+      <c r="AL7" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AM7" s="6"/>
       <c r="AN7" s="6">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AO7" s="6">
         <f t="shared" si="3"/>
@@ -1657,7 +1681,9 @@
       </c>
       <c r="AB8" s="6"/>
       <c r="AC8" s="6"/>
-      <c r="AD8" s="6"/>
+      <c r="AD8" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AE8" s="6"/>
       <c r="AF8" s="6" t="s">
         <v>3</v>
@@ -1669,11 +1695,13 @@
       <c r="AI8" s="6"/>
       <c r="AJ8" s="6"/>
       <c r="AK8" s="6"/>
-      <c r="AL8" s="6"/>
+      <c r="AL8" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AM8" s="6"/>
       <c r="AN8" s="6">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AO8" s="6">
         <f t="shared" si="3"/>
@@ -1744,7 +1772,9 @@
       </c>
       <c r="AB9" s="6"/>
       <c r="AC9" s="6"/>
-      <c r="AD9" s="6"/>
+      <c r="AD9" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AE9" s="6"/>
       <c r="AF9" s="6" t="s">
         <v>3</v>
@@ -1756,11 +1786,13 @@
       <c r="AI9" s="6"/>
       <c r="AJ9" s="6"/>
       <c r="AK9" s="6"/>
-      <c r="AL9" s="6"/>
+      <c r="AL9" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AM9" s="6"/>
       <c r="AN9" s="6">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AO9" s="6">
         <f t="shared" si="3"/>
@@ -1831,7 +1863,9 @@
       </c>
       <c r="AB10" s="6"/>
       <c r="AC10" s="6"/>
-      <c r="AD10" s="6"/>
+      <c r="AD10" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AE10" s="6"/>
       <c r="AF10" s="6" t="s">
         <v>3</v>
@@ -1843,11 +1877,13 @@
       <c r="AI10" s="6"/>
       <c r="AJ10" s="6"/>
       <c r="AK10" s="6"/>
-      <c r="AL10" s="6"/>
+      <c r="AL10" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AM10" s="6"/>
       <c r="AN10" s="6">
         <f t="shared" si="2"/>
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AO10" s="6">
         <f t="shared" si="3"/>
@@ -1918,7 +1954,9 @@
       </c>
       <c r="AB11" s="6"/>
       <c r="AC11" s="6"/>
-      <c r="AD11" s="6"/>
+      <c r="AD11" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AE11" s="6"/>
       <c r="AF11" s="6" t="s">
         <v>3</v>
@@ -1930,11 +1968,13 @@
       <c r="AI11" s="6"/>
       <c r="AJ11" s="6"/>
       <c r="AK11" s="6"/>
-      <c r="AL11" s="6"/>
+      <c r="AL11" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AM11" s="6"/>
       <c r="AN11" s="6">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AO11" s="6">
         <f t="shared" si="3"/>
@@ -2005,7 +2045,9 @@
       </c>
       <c r="AB12" s="6"/>
       <c r="AC12" s="6"/>
-      <c r="AD12" s="6"/>
+      <c r="AD12" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AE12" s="6"/>
       <c r="AF12" s="6" t="s">
         <v>3</v>
@@ -2017,11 +2059,13 @@
       <c r="AI12" s="6"/>
       <c r="AJ12" s="6"/>
       <c r="AK12" s="6"/>
-      <c r="AL12" s="6"/>
+      <c r="AL12" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AM12" s="6"/>
       <c r="AN12" s="6">
         <f t="shared" si="2"/>
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AO12" s="6">
         <f t="shared" si="3"/>
@@ -2092,7 +2136,9 @@
       </c>
       <c r="AB13" s="6"/>
       <c r="AC13" s="6"/>
-      <c r="AD13" s="6"/>
+      <c r="AD13" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AE13" s="6"/>
       <c r="AF13" s="6" t="s">
         <v>3</v>
@@ -2104,11 +2150,13 @@
       <c r="AI13" s="6"/>
       <c r="AJ13" s="6"/>
       <c r="AK13" s="6"/>
-      <c r="AL13" s="6"/>
+      <c r="AL13" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AM13" s="6"/>
       <c r="AN13" s="6">
         <f t="shared" si="2"/>
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AO13" s="6">
         <f t="shared" si="3"/>
@@ -2179,7 +2227,9 @@
       </c>
       <c r="AB14" s="6"/>
       <c r="AC14" s="6"/>
-      <c r="AD14" s="6"/>
+      <c r="AD14" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AE14" s="6"/>
       <c r="AF14" s="6" t="s">
         <v>3</v>
@@ -2191,15 +2241,17 @@
       <c r="AI14" s="6"/>
       <c r="AJ14" s="6"/>
       <c r="AK14" s="6"/>
-      <c r="AL14" s="6"/>
+      <c r="AL14" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="AM14" s="6"/>
       <c r="AN14" s="6">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AO14" s="6">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:44" x14ac:dyDescent="0.25">
@@ -2266,7 +2318,9 @@
       </c>
       <c r="AB15" s="6"/>
       <c r="AC15" s="6"/>
-      <c r="AD15" s="6"/>
+      <c r="AD15" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AE15" s="6"/>
       <c r="AF15" s="6" t="s">
         <v>4</v>
@@ -2278,11 +2332,13 @@
       <c r="AI15" s="6"/>
       <c r="AJ15" s="6"/>
       <c r="AK15" s="6"/>
-      <c r="AL15" s="6"/>
+      <c r="AL15" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AM15" s="6"/>
       <c r="AN15" s="6">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AO15" s="6">
         <f t="shared" si="3"/>
@@ -2353,7 +2409,9 @@
       </c>
       <c r="AB16" s="6"/>
       <c r="AC16" s="6"/>
-      <c r="AD16" s="6"/>
+      <c r="AD16" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AE16" s="6"/>
       <c r="AF16" s="6" t="s">
         <v>4</v>
@@ -2365,11 +2423,13 @@
       <c r="AI16" s="6"/>
       <c r="AJ16" s="6"/>
       <c r="AK16" s="6"/>
-      <c r="AL16" s="6"/>
+      <c r="AL16" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AM16" s="6"/>
       <c r="AN16" s="6">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AO16" s="6">
         <f t="shared" si="3"/>
@@ -2440,7 +2500,9 @@
       </c>
       <c r="AB17" s="6"/>
       <c r="AC17" s="6"/>
-      <c r="AD17" s="6"/>
+      <c r="AD17" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="AE17" s="6"/>
       <c r="AF17" s="6" t="s">
         <v>4</v>
@@ -2452,7 +2514,9 @@
       <c r="AI17" s="6"/>
       <c r="AJ17" s="6"/>
       <c r="AK17" s="6"/>
-      <c r="AL17" s="6"/>
+      <c r="AL17" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="AM17" s="6"/>
       <c r="AN17" s="6">
         <f t="shared" si="2"/>
@@ -2460,7 +2524,7 @@
       </c>
       <c r="AO17" s="6">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:41" x14ac:dyDescent="0.25">
@@ -2527,7 +2591,9 @@
       </c>
       <c r="AB18" s="6"/>
       <c r="AC18" s="6"/>
-      <c r="AD18" s="6"/>
+      <c r="AD18" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="AE18" s="6"/>
       <c r="AF18" s="6" t="s">
         <v>3</v>
@@ -2539,7 +2605,9 @@
       <c r="AI18" s="6"/>
       <c r="AJ18" s="6"/>
       <c r="AK18" s="6"/>
-      <c r="AL18" s="6"/>
+      <c r="AL18" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="AM18" s="6"/>
       <c r="AN18" s="6">
         <f t="shared" si="2"/>
@@ -2547,7 +2615,7 @@
       </c>
       <c r="AO18" s="6">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:41" x14ac:dyDescent="0.25">
@@ -2614,7 +2682,9 @@
       </c>
       <c r="AB19" s="6"/>
       <c r="AC19" s="6"/>
-      <c r="AD19" s="6"/>
+      <c r="AD19" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AE19" s="6"/>
       <c r="AF19" s="6" t="s">
         <v>3</v>
@@ -2626,11 +2696,13 @@
       <c r="AI19" s="6"/>
       <c r="AJ19" s="6"/>
       <c r="AK19" s="6"/>
-      <c r="AL19" s="6"/>
+      <c r="AL19" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AM19" s="6"/>
       <c r="AN19" s="6">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AO19" s="6">
         <f t="shared" si="3"/>
@@ -2701,7 +2773,9 @@
       </c>
       <c r="AB20" s="6"/>
       <c r="AC20" s="6"/>
-      <c r="AD20" s="6"/>
+      <c r="AD20" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AE20" s="6"/>
       <c r="AF20" s="6" t="s">
         <v>3</v>
@@ -2713,11 +2787,13 @@
       <c r="AI20" s="6"/>
       <c r="AJ20" s="6"/>
       <c r="AK20" s="6"/>
-      <c r="AL20" s="6"/>
+      <c r="AL20" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AM20" s="6"/>
       <c r="AN20" s="6">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AO20" s="6">
         <f t="shared" si="3"/>
@@ -2788,7 +2864,9 @@
       </c>
       <c r="AB21" s="6"/>
       <c r="AC21" s="6"/>
-      <c r="AD21" s="6"/>
+      <c r="AD21" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AE21" s="6"/>
       <c r="AF21" s="6" t="s">
         <v>3</v>
@@ -2800,11 +2878,13 @@
       <c r="AI21" s="6"/>
       <c r="AJ21" s="6"/>
       <c r="AK21" s="6"/>
-      <c r="AL21" s="6"/>
+      <c r="AL21" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AM21" s="6"/>
       <c r="AN21" s="6">
         <f t="shared" si="2"/>
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AO21" s="6">
         <f t="shared" si="3"/>
@@ -2875,7 +2955,9 @@
       </c>
       <c r="AB22" s="6"/>
       <c r="AC22" s="6"/>
-      <c r="AD22" s="6"/>
+      <c r="AD22" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AE22" s="6"/>
       <c r="AF22" s="6" t="s">
         <v>3</v>
@@ -2887,11 +2969,13 @@
       <c r="AI22" s="6"/>
       <c r="AJ22" s="6"/>
       <c r="AK22" s="6"/>
-      <c r="AL22" s="6"/>
+      <c r="AL22" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AM22" s="6"/>
       <c r="AN22" s="6">
         <f t="shared" si="2"/>
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AO22" s="6">
         <f t="shared" si="3"/>
@@ -2962,7 +3046,9 @@
       </c>
       <c r="AB23" s="6"/>
       <c r="AC23" s="6"/>
-      <c r="AD23" s="6"/>
+      <c r="AD23" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AE23" s="6"/>
       <c r="AF23" s="6" t="s">
         <v>3</v>
@@ -2974,11 +3060,13 @@
       <c r="AI23" s="6"/>
       <c r="AJ23" s="6"/>
       <c r="AK23" s="6"/>
-      <c r="AL23" s="6"/>
+      <c r="AL23" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AM23" s="6"/>
       <c r="AN23" s="6">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AO23" s="6">
         <f t="shared" si="3"/>
@@ -3049,7 +3137,9 @@
       </c>
       <c r="AB24" s="6"/>
       <c r="AC24" s="6"/>
-      <c r="AD24" s="6"/>
+      <c r="AD24" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AE24" s="6"/>
       <c r="AF24" s="6" t="s">
         <v>3</v>
@@ -3061,11 +3151,13 @@
       <c r="AI24" s="6"/>
       <c r="AJ24" s="6"/>
       <c r="AK24" s="6"/>
-      <c r="AL24" s="6"/>
+      <c r="AL24" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AM24" s="6"/>
       <c r="AN24" s="6">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AO24" s="6">
         <f t="shared" si="3"/>
@@ -3136,7 +3228,9 @@
       </c>
       <c r="AB25" s="6"/>
       <c r="AC25" s="6"/>
-      <c r="AD25" s="6"/>
+      <c r="AD25" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AE25" s="6"/>
       <c r="AF25" s="6" t="s">
         <v>3</v>
@@ -3148,11 +3242,13 @@
       <c r="AI25" s="6"/>
       <c r="AJ25" s="6"/>
       <c r="AK25" s="6"/>
-      <c r="AL25" s="6"/>
+      <c r="AL25" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AM25" s="6"/>
       <c r="AN25" s="6">
         <f t="shared" si="2"/>
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AO25" s="6">
         <f t="shared" si="3"/>
@@ -3223,7 +3319,9 @@
       </c>
       <c r="AB26" s="6"/>
       <c r="AC26" s="6"/>
-      <c r="AD26" s="6"/>
+      <c r="AD26" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AE26" s="6"/>
       <c r="AF26" s="6" t="s">
         <v>3</v>
@@ -3235,11 +3333,13 @@
       <c r="AI26" s="6"/>
       <c r="AJ26" s="6"/>
       <c r="AK26" s="6"/>
-      <c r="AL26" s="6"/>
+      <c r="AL26" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AM26" s="6"/>
       <c r="AN26" s="6">
         <f t="shared" si="2"/>
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AO26" s="6">
         <f t="shared" si="3"/>
@@ -3310,7 +3410,9 @@
       </c>
       <c r="AB27" s="6"/>
       <c r="AC27" s="6"/>
-      <c r="AD27" s="6"/>
+      <c r="AD27" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AE27" s="6"/>
       <c r="AF27" s="6" t="s">
         <v>3</v>
@@ -3322,11 +3424,13 @@
       <c r="AI27" s="6"/>
       <c r="AJ27" s="6"/>
       <c r="AK27" s="6"/>
-      <c r="AL27" s="6"/>
+      <c r="AL27" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AM27" s="6"/>
       <c r="AN27" s="6">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AO27" s="6">
         <f t="shared" si="3"/>
@@ -3397,7 +3501,9 @@
       </c>
       <c r="AB28" s="6"/>
       <c r="AC28" s="6"/>
-      <c r="AD28" s="6"/>
+      <c r="AD28" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AE28" s="6"/>
       <c r="AF28" s="6" t="s">
         <v>3</v>
@@ -3409,11 +3515,13 @@
       <c r="AI28" s="6"/>
       <c r="AJ28" s="6"/>
       <c r="AK28" s="6"/>
-      <c r="AL28" s="6"/>
+      <c r="AL28" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AM28" s="6"/>
       <c r="AN28" s="6">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AO28" s="6">
         <f t="shared" si="3"/>
@@ -3484,7 +3592,9 @@
       </c>
       <c r="AB29" s="6"/>
       <c r="AC29" s="6"/>
-      <c r="AD29" s="6"/>
+      <c r="AD29" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AE29" s="6"/>
       <c r="AF29" s="6" t="s">
         <v>3</v>
@@ -3496,11 +3606,13 @@
       <c r="AI29" s="6"/>
       <c r="AJ29" s="6"/>
       <c r="AK29" s="6"/>
-      <c r="AL29" s="6"/>
+      <c r="AL29" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AM29" s="6"/>
       <c r="AN29" s="6">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AO29" s="6">
         <f t="shared" si="3"/>
@@ -3571,7 +3683,9 @@
       </c>
       <c r="AB30" s="6"/>
       <c r="AC30" s="6"/>
-      <c r="AD30" s="6"/>
+      <c r="AD30" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AE30" s="6"/>
       <c r="AF30" s="6" t="s">
         <v>3</v>
@@ -3583,11 +3697,13 @@
       <c r="AI30" s="6"/>
       <c r="AJ30" s="6"/>
       <c r="AK30" s="6"/>
-      <c r="AL30" s="6"/>
+      <c r="AL30" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AM30" s="6"/>
       <c r="AN30" s="6">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AO30" s="6">
         <f t="shared" si="3"/>
@@ -3658,7 +3774,9 @@
       </c>
       <c r="AB31" s="6"/>
       <c r="AC31" s="6"/>
-      <c r="AD31" s="6"/>
+      <c r="AD31" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AE31" s="6"/>
       <c r="AF31" s="6" t="s">
         <v>4</v>
@@ -3670,11 +3788,13 @@
       <c r="AI31" s="6"/>
       <c r="AJ31" s="6"/>
       <c r="AK31" s="6"/>
-      <c r="AL31" s="6"/>
+      <c r="AL31" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AM31" s="6"/>
       <c r="AN31" s="6">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AO31" s="6">
         <f t="shared" si="3"/>
@@ -3745,7 +3865,9 @@
       </c>
       <c r="AB32" s="6"/>
       <c r="AC32" s="6"/>
-      <c r="AD32" s="6"/>
+      <c r="AD32" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AE32" s="6"/>
       <c r="AF32" s="6" t="s">
         <v>3</v>
@@ -3757,11 +3879,13 @@
       <c r="AI32" s="6"/>
       <c r="AJ32" s="6"/>
       <c r="AK32" s="6"/>
-      <c r="AL32" s="6"/>
+      <c r="AL32" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AM32" s="6"/>
       <c r="AN32" s="6">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AO32" s="6">
         <f t="shared" si="3"/>
@@ -3832,7 +3956,9 @@
       </c>
       <c r="AB33" s="6"/>
       <c r="AC33" s="6"/>
-      <c r="AD33" s="6"/>
+      <c r="AD33" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AE33" s="6"/>
       <c r="AF33" s="6" t="s">
         <v>4</v>
@@ -3844,11 +3970,13 @@
       <c r="AI33" s="6"/>
       <c r="AJ33" s="6"/>
       <c r="AK33" s="6"/>
-      <c r="AL33" s="6"/>
+      <c r="AL33" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AM33" s="6"/>
       <c r="AN33" s="6">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AO33" s="6">
         <f t="shared" si="3"/>
@@ -3919,7 +4047,9 @@
       </c>
       <c r="AB34" s="6"/>
       <c r="AC34" s="6"/>
-      <c r="AD34" s="6"/>
+      <c r="AD34" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="AE34" s="6"/>
       <c r="AF34" s="6" t="s">
         <v>4</v>
@@ -3931,7 +4061,9 @@
       <c r="AI34" s="6"/>
       <c r="AJ34" s="6"/>
       <c r="AK34" s="6"/>
-      <c r="AL34" s="6"/>
+      <c r="AL34" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="AM34" s="6"/>
       <c r="AN34" s="6">
         <f t="shared" si="2"/>
@@ -3939,7 +4071,7 @@
       </c>
       <c r="AO34" s="6">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:41" x14ac:dyDescent="0.25">
@@ -4006,7 +4138,9 @@
       </c>
       <c r="AB35" s="6"/>
       <c r="AC35" s="6"/>
-      <c r="AD35" s="6"/>
+      <c r="AD35" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AE35" s="6"/>
       <c r="AF35" s="6" t="s">
         <v>3</v>
@@ -4018,11 +4152,13 @@
       <c r="AI35" s="6"/>
       <c r="AJ35" s="6"/>
       <c r="AK35" s="6"/>
-      <c r="AL35" s="6"/>
+      <c r="AL35" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AM35" s="6"/>
       <c r="AN35" s="6">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AO35" s="6">
         <f t="shared" si="3"/>
@@ -4093,7 +4229,9 @@
       </c>
       <c r="AB36" s="6"/>
       <c r="AC36" s="6"/>
-      <c r="AD36" s="6"/>
+      <c r="AD36" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="AE36" s="6"/>
       <c r="AF36" s="6" t="s">
         <v>4</v>
@@ -4105,7 +4243,9 @@
       <c r="AI36" s="6"/>
       <c r="AJ36" s="6"/>
       <c r="AK36" s="6"/>
-      <c r="AL36" s="6"/>
+      <c r="AL36" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="AM36" s="6"/>
       <c r="AN36" s="6">
         <f t="shared" si="2"/>
@@ -4113,7 +4253,7 @@
       </c>
       <c r="AO36" s="6">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" spans="1:41" x14ac:dyDescent="0.25">
@@ -4180,7 +4320,9 @@
       </c>
       <c r="AB37" s="6"/>
       <c r="AC37" s="6"/>
-      <c r="AD37" s="6"/>
+      <c r="AD37" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="AE37" s="6"/>
       <c r="AF37" s="6" t="s">
         <v>4</v>
@@ -4192,7 +4334,9 @@
       <c r="AI37" s="6"/>
       <c r="AJ37" s="6"/>
       <c r="AK37" s="6"/>
-      <c r="AL37" s="6"/>
+      <c r="AL37" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="AM37" s="6"/>
       <c r="AN37" s="6">
         <f t="shared" si="2"/>
@@ -4200,7 +4344,7 @@
       </c>
       <c r="AO37" s="6">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:41" x14ac:dyDescent="0.25">
@@ -4267,7 +4411,9 @@
       </c>
       <c r="AB38" s="6"/>
       <c r="AC38" s="6"/>
-      <c r="AD38" s="6"/>
+      <c r="AD38" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AE38" s="6"/>
       <c r="AF38" s="6" t="s">
         <v>3</v>
@@ -4279,15 +4425,17 @@
       <c r="AI38" s="6"/>
       <c r="AJ38" s="6"/>
       <c r="AK38" s="6"/>
-      <c r="AL38" s="6"/>
+      <c r="AL38" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="AM38" s="6"/>
       <c r="AN38" s="6">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AO38" s="6">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:41" x14ac:dyDescent="0.25">
@@ -4354,7 +4502,9 @@
       </c>
       <c r="AB39" s="6"/>
       <c r="AC39" s="6"/>
-      <c r="AD39" s="6"/>
+      <c r="AD39" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AE39" s="6"/>
       <c r="AF39" s="6" t="s">
         <v>3</v>
@@ -4366,11 +4516,13 @@
       <c r="AI39" s="6"/>
       <c r="AJ39" s="6"/>
       <c r="AK39" s="6"/>
-      <c r="AL39" s="6"/>
+      <c r="AL39" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AM39" s="6"/>
       <c r="AN39" s="6">
         <f t="shared" si="2"/>
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AO39" s="6">
         <f t="shared" si="3"/>
@@ -4441,7 +4593,9 @@
       </c>
       <c r="AB40" s="6"/>
       <c r="AC40" s="6"/>
-      <c r="AD40" s="6"/>
+      <c r="AD40" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AE40" s="6"/>
       <c r="AF40" s="6" t="s">
         <v>3</v>
@@ -4453,11 +4607,13 @@
       <c r="AI40" s="6"/>
       <c r="AJ40" s="6"/>
       <c r="AK40" s="6"/>
-      <c r="AL40" s="6"/>
+      <c r="AL40" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AM40" s="6"/>
       <c r="AN40" s="6">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AO40" s="6">
         <f t="shared" si="3"/>
@@ -4528,7 +4684,9 @@
       </c>
       <c r="AB41" s="6"/>
       <c r="AC41" s="6"/>
-      <c r="AD41" s="6"/>
+      <c r="AD41" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AE41" s="6"/>
       <c r="AF41" s="6" t="s">
         <v>4</v>
@@ -4540,15 +4698,17 @@
       <c r="AI41" s="6"/>
       <c r="AJ41" s="6"/>
       <c r="AK41" s="6"/>
-      <c r="AL41" s="6"/>
+      <c r="AL41" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="AM41" s="6"/>
       <c r="AN41" s="6">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AO41" s="6">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:41" x14ac:dyDescent="0.25">
@@ -4615,7 +4775,9 @@
       </c>
       <c r="AB42" s="6"/>
       <c r="AC42" s="6"/>
-      <c r="AD42" s="6"/>
+      <c r="AD42" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AE42" s="6"/>
       <c r="AF42" s="6" t="s">
         <v>3</v>
@@ -4627,15 +4789,17 @@
       <c r="AI42" s="6"/>
       <c r="AJ42" s="6"/>
       <c r="AK42" s="6"/>
-      <c r="AL42" s="6"/>
+      <c r="AL42" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="AM42" s="6"/>
       <c r="AN42" s="6">
         <f t="shared" si="2"/>
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AO42" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:41" x14ac:dyDescent="0.25">
@@ -4702,7 +4866,9 @@
       </c>
       <c r="AB43" s="6"/>
       <c r="AC43" s="6"/>
-      <c r="AD43" s="6"/>
+      <c r="AD43" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AE43" s="6"/>
       <c r="AF43" s="6" t="s">
         <v>3</v>
@@ -4714,15 +4880,17 @@
       <c r="AI43" s="6"/>
       <c r="AJ43" s="6"/>
       <c r="AK43" s="6"/>
-      <c r="AL43" s="6"/>
+      <c r="AL43" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="AM43" s="6"/>
       <c r="AN43" s="6">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AO43" s="6">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:41" x14ac:dyDescent="0.25">
@@ -4789,7 +4957,9 @@
       </c>
       <c r="AB44" s="6"/>
       <c r="AC44" s="6"/>
-      <c r="AD44" s="6"/>
+      <c r="AD44" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="AE44" s="6"/>
       <c r="AF44" s="6" t="s">
         <v>4</v>
@@ -4801,7 +4971,9 @@
       <c r="AI44" s="6"/>
       <c r="AJ44" s="6"/>
       <c r="AK44" s="6"/>
-      <c r="AL44" s="6"/>
+      <c r="AL44" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="AM44" s="6"/>
       <c r="AN44" s="6">
         <f t="shared" si="2"/>
@@ -4809,7 +4981,7 @@
       </c>
       <c r="AO44" s="6">
         <f t="shared" si="3"/>
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" spans="1:41" x14ac:dyDescent="0.25">
@@ -4876,7 +5048,9 @@
       </c>
       <c r="AB45" s="6"/>
       <c r="AC45" s="6"/>
-      <c r="AD45" s="6"/>
+      <c r="AD45" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AE45" s="6"/>
       <c r="AF45" s="6" t="s">
         <v>3</v>
@@ -4888,11 +5062,13 @@
       <c r="AI45" s="6"/>
       <c r="AJ45" s="6"/>
       <c r="AK45" s="6"/>
-      <c r="AL45" s="6"/>
+      <c r="AL45" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AM45" s="6"/>
       <c r="AN45" s="6">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AO45" s="6">
         <f t="shared" si="3"/>
@@ -4963,7 +5139,9 @@
       </c>
       <c r="AB46" s="6"/>
       <c r="AC46" s="6"/>
-      <c r="AD46" s="6"/>
+      <c r="AD46" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AE46" s="6"/>
       <c r="AF46" s="6" t="s">
         <v>3</v>
@@ -4975,11 +5153,13 @@
       <c r="AI46" s="6"/>
       <c r="AJ46" s="6"/>
       <c r="AK46" s="6"/>
-      <c r="AL46" s="6"/>
+      <c r="AL46" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AM46" s="6"/>
       <c r="AN46" s="6">
         <f t="shared" si="2"/>
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AO46" s="6">
         <f t="shared" si="3"/>
@@ -5050,7 +5230,9 @@
       </c>
       <c r="AB47" s="6"/>
       <c r="AC47" s="6"/>
-      <c r="AD47" s="6"/>
+      <c r="AD47" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AE47" s="6"/>
       <c r="AF47" s="6" t="s">
         <v>3</v>
@@ -5062,11 +5244,13 @@
       <c r="AI47" s="6"/>
       <c r="AJ47" s="6"/>
       <c r="AK47" s="6"/>
-      <c r="AL47" s="6"/>
+      <c r="AL47" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AM47" s="6"/>
       <c r="AN47" s="6">
         <f t="shared" si="2"/>
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AO47" s="6">
         <f t="shared" si="3"/>
@@ -5137,7 +5321,9 @@
       </c>
       <c r="AB48" s="6"/>
       <c r="AC48" s="6"/>
-      <c r="AD48" s="6"/>
+      <c r="AD48" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AE48" s="6"/>
       <c r="AF48" s="6" t="s">
         <v>4</v>
@@ -5149,15 +5335,17 @@
       <c r="AI48" s="6"/>
       <c r="AJ48" s="6"/>
       <c r="AK48" s="6"/>
-      <c r="AL48" s="6"/>
+      <c r="AL48" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="AM48" s="6"/>
       <c r="AN48" s="6">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AO48" s="6">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -5224,7 +5412,9 @@
       </c>
       <c r="AB49" s="6"/>
       <c r="AC49" s="6"/>
-      <c r="AD49" s="6"/>
+      <c r="AD49" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AE49" s="6"/>
       <c r="AF49" s="6" t="s">
         <v>3</v>
@@ -5236,15 +5426,17 @@
       <c r="AI49" s="6"/>
       <c r="AJ49" s="6"/>
       <c r="AK49" s="6"/>
-      <c r="AL49" s="6"/>
+      <c r="AL49" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="AM49" s="6"/>
       <c r="AN49" s="6">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AO49" s="6">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
